--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1799999999999988</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>73.33333333333366</v>
+      </c>
       <c r="L12" t="n">
         <v>5.270999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1999999999999984</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>50.00000000000055</v>
+      </c>
       <c r="L13" t="n">
         <v>5.279999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1999999999999984</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>50.00000000000055</v>
+      </c>
       <c r="L14" t="n">
         <v>5.287999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2699999999999987</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>80.95238095238128</v>
+      </c>
       <c r="L15" t="n">
         <v>5.302999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3699999999999992</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>22.58064516129016</v>
+      </c>
       <c r="L16" t="n">
         <v>5.309999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4599999999999991</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>36.84210526315782</v>
+      </c>
       <c r="L17" t="n">
         <v>5.325999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4599999999999991</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>31.4285714285713</v>
+      </c>
       <c r="L18" t="n">
         <v>5.339999999999998</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4599999999999991</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>27.27272727272723</v>
+      </c>
       <c r="L19" t="n">
         <v>5.350999999999997</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.4599999999999991</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>19.99999999999988</v>
+      </c>
       <c r="L20" t="n">
         <v>5.359999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.4799999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>20.00000000000012</v>
+      </c>
       <c r="L21" t="n">
         <v>5.367999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5199999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>37.49999999999989</v>
+      </c>
       <c r="L22" t="n">
         <v>5.377999999999998</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5199999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>42.85714285714291</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L23" t="n">
         <v>5.389999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.5399999999999991</v>
       </c>
       <c r="K24" t="n">
-        <v>44.00000000000003</v>
+        <v>25.92592592592566</v>
       </c>
       <c r="L24" t="n">
         <v>5.403999999999998</v>
@@ -1515,7 +1537,7 @@
         <v>0.5399999999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>44.00000000000003</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>5.410999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.5499999999999989</v>
       </c>
       <c r="K26" t="n">
-        <v>46.93877551020405</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L26" t="n">
         <v>5.426999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.5699999999999985</v>
       </c>
       <c r="K27" t="n">
-        <v>41.17647058823538</v>
+        <v>45.45454545454633</v>
       </c>
       <c r="L27" t="n">
         <v>5.431999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>0.5899999999999981</v>
       </c>
       <c r="K28" t="n">
-        <v>41.17647058823538</v>
+        <v>53.84615384615448</v>
       </c>
       <c r="L28" t="n">
         <v>5.438999999999998</v>
@@ -1711,7 +1733,7 @@
         <v>0.6899999999999977</v>
       </c>
       <c r="K29" t="n">
-        <v>13.79310344827591</v>
+        <v>-13.04347826086937</v>
       </c>
       <c r="L29" t="n">
         <v>5.435999999999998</v>
@@ -1760,7 +1782,7 @@
         <v>0.7099999999999982</v>
       </c>
       <c r="K30" t="n">
-        <v>6.896551724137947</v>
+        <v>-30.43478260869595</v>
       </c>
       <c r="L30" t="n">
         <v>5.430999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.7099999999999982</v>
       </c>
       <c r="K31" t="n">
-        <v>1.818181818181783</v>
+        <v>-57.89473684210586</v>
       </c>
       <c r="L31" t="n">
         <v>5.423999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>0.8999999999999977</v>
       </c>
       <c r="K32" t="n">
-        <v>-27.77777777777772</v>
+        <v>-78.94736842105297</v>
       </c>
       <c r="L32" t="n">
         <v>5.393999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>1.049999999999997</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.529411764705917</v>
+        <v>-33.33333333333345</v>
       </c>
       <c r="L33" t="n">
         <v>5.378999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>1.099999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>-8.888888888888911</v>
+        <v>-39.2857142857144</v>
       </c>
       <c r="L34" t="n">
         <v>5.356999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.199999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>-26.88172043010758</v>
+        <v>-47.6923076923078</v>
       </c>
       <c r="L35" t="n">
         <v>5.324999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>1.219999999999996</v>
       </c>
       <c r="K36" t="n">
-        <v>-15.29411764705887</v>
+        <v>-41.53846153846176</v>
       </c>
       <c r="L36" t="n">
         <v>5.295999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>1.299999999999996</v>
       </c>
       <c r="K37" t="n">
-        <v>-16.66666666666669</v>
+        <v>-29.57746478873247</v>
       </c>
       <c r="L37" t="n">
         <v>5.276999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.349999999999996</v>
       </c>
       <c r="K38" t="n">
-        <v>-10.11235955056182</v>
+        <v>-9.090909090909188</v>
       </c>
       <c r="L38" t="n">
         <v>5.260999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>1.359999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L39" t="n">
         <v>5.253999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>1.429999999999996</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.092783505154582</v>
+        <v>2.77777777777785</v>
       </c>
       <c r="L40" t="n">
         <v>5.255999999999998</v>
@@ -2319,7 +2341,7 @@
         <v>1.489999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>-10.89108910891095</v>
+        <v>25.42372881355928</v>
       </c>
       <c r="L41" t="n">
         <v>5.251999999999998</v>
@@ -2370,7 +2392,7 @@
         <v>1.489999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>-15.46391752577328</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>5.266999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>1.539999999999996</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.803921568627533</v>
+        <v>22.72727272727267</v>
       </c>
       <c r="L43" t="n">
         <v>5.271999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>1.539999999999996</v>
       </c>
       <c r="K44" t="n">
-        <v>-12.00000000000004</v>
+        <v>58.82352941176452</v>
       </c>
       <c r="L44" t="n">
         <v>5.281999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>1.539999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>-12.00000000000004</v>
+        <v>56.24999999999986</v>
       </c>
       <c r="L45" t="n">
         <v>5.301999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K46" t="n">
-        <v>-16.19047619047623</v>
+        <v>13.33333333333335</v>
       </c>
       <c r="L46" t="n">
         <v>5.313999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>1.609999999999996</v>
       </c>
       <c r="K47" t="n">
-        <v>-15.38461538461544</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L47" t="n">
         <v>5.316999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>1.669999999999995</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111115</v>
+        <v>16.12903225806448</v>
       </c>
       <c r="L48" t="n">
         <v>5.321</v>
@@ -2727,7 +2749,7 @@
         <v>1.669999999999995</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.040816326530664</v>
+        <v>-8.333333333333549</v>
       </c>
       <c r="L49" t="n">
         <v>5.326</v>
@@ -2778,7 +2800,7 @@
         <v>1.719999999999995</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.950495049504947</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L50" t="n">
         <v>5.319</v>
@@ -2829,7 +2851,7 @@
         <v>1.819999999999995</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>5.308</v>
@@ -2880,7 +2902,7 @@
         <v>1.869999999999995</v>
       </c>
       <c r="K52" t="n">
-        <v>9.278350515463931</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>5.302</v>
@@ -2931,7 +2953,7 @@
         <v>1.869999999999995</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.31707317073168</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>5.291</v>
@@ -2982,7 +3004,7 @@
         <v>2.019999999999995</v>
       </c>
       <c r="K54" t="n">
-        <v>-17.39130434782614</v>
+        <v>-54.16666666666677</v>
       </c>
       <c r="L54" t="n">
         <v>5.265</v>
@@ -3033,7 +3055,7 @@
         <v>2.029999999999995</v>
       </c>
       <c r="K55" t="n">
-        <v>-8.433734939759088</v>
+        <v>-48.8372093023257</v>
       </c>
       <c r="L55" t="n">
         <v>5.238</v>
@@ -3084,7 +3106,7 @@
         <v>2.129999999999995</v>
       </c>
       <c r="K56" t="n">
-        <v>1.098901098901077</v>
+        <v>-19.23076923076938</v>
       </c>
       <c r="L56" t="n">
         <v>5.226999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>2.199999999999995</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-16.98113207547169</v>
       </c>
       <c r="L57" t="n">
         <v>5.223999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>2.359999999999995</v>
       </c>
       <c r="K58" t="n">
-        <v>-20.79207920792081</v>
+        <v>-36.23188405797104</v>
       </c>
       <c r="L58" t="n">
         <v>5.199</v>
@@ -3237,7 +3259,7 @@
         <v>2.519999999999995</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.448275862068971</v>
+        <v>-5.000000000000006</v>
       </c>
       <c r="L59" t="n">
         <v>5.19</v>
@@ -3288,7 +3310,7 @@
         <v>2.679999999999995</v>
       </c>
       <c r="K60" t="n">
-        <v>-21.60000000000005</v>
+        <v>-11.62790697674424</v>
       </c>
       <c r="L60" t="n">
         <v>5.17</v>
@@ -3339,7 +3361,7 @@
         <v>2.809999999999995</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.060606060606073</v>
+        <v>-2.127659574468133</v>
       </c>
       <c r="L61" t="n">
         <v>5.173</v>
@@ -3390,7 +3412,7 @@
         <v>2.839999999999995</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.148148148148119</v>
+        <v>-5.154639175257715</v>
       </c>
       <c r="L62" t="n">
         <v>5.167999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>2.859999999999995</v>
       </c>
       <c r="K63" t="n">
-        <v>-13.63636363636363</v>
+        <v>9.523809523809534</v>
       </c>
       <c r="L63" t="n">
         <v>5.161</v>
@@ -3492,7 +3514,7 @@
         <v>2.929999999999995</v>
       </c>
       <c r="K64" t="n">
-        <v>-17.98561151079138</v>
+        <v>2.222222222222174</v>
       </c>
       <c r="L64" t="n">
         <v>5.161999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>2.929999999999995</v>
       </c>
       <c r="K65" t="n">
-        <v>-17.98561151079138</v>
+        <v>-10</v>
       </c>
       <c r="L65" t="n">
         <v>5.164</v>
@@ -3594,7 +3616,7 @@
         <v>2.929999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.28571428571432</v>
+        <v>-20.54794520547949</v>
       </c>
       <c r="L66" t="n">
         <v>5.156</v>
@@ -3645,7 +3667,7 @@
         <v>3.019999999999996</v>
       </c>
       <c r="K67" t="n">
-        <v>-6.382978723404245</v>
+        <v>15.15151515151521</v>
       </c>
       <c r="L67" t="n">
         <v>5.149999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>3.119999999999997</v>
       </c>
       <c r="K68" t="n">
-        <v>-17.24137931034481</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L68" t="n">
         <v>5.149999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>3.249999999999996</v>
       </c>
       <c r="K69" t="n">
-        <v>-7.594936708860761</v>
+        <v>22.80701754385958</v>
       </c>
       <c r="L69" t="n">
         <v>5.146999999999998</v>
@@ -3798,7 +3820,7 @@
         <v>3.249999999999996</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.575163398692825</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>5.159999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>3.259999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>1.388888888888858</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L71" t="n">
         <v>5.158999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>3.269999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>-2.857142857142857</v>
+        <v>7.31707317073175</v>
       </c>
       <c r="L72" t="n">
         <v>5.159999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>3.299999999999996</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.89510489510491</v>
+        <v>18.91891891891894</v>
       </c>
       <c r="L73" t="n">
         <v>5.159999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>3.309999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>6.976744186046496</v>
+        <v>21.05263157894735</v>
       </c>
       <c r="L74" t="n">
         <v>5.167999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>3.399999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>0.729927007299254</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L75" t="n">
         <v>5.166999999999998</v>
@@ -4104,7 +4126,7 @@
         <v>3.499999999999996</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7299270072993184</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>5.175999999999997</v>
@@ -4155,7 +4177,7 @@
         <v>3.539999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-7.462686567164144</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L77" t="n">
         <v>5.171999999999998</v>
@@ -4206,7 +4228,7 @@
         <v>3.549999999999997</v>
       </c>
       <c r="K78" t="n">
-        <v>4.201680672268885</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L78" t="n">
         <v>5.176999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>3.609999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>-4.587155963302726</v>
+        <v>-5.555555555555419</v>
       </c>
       <c r="L79" t="n">
         <v>5.174999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K80" t="n">
-        <v>1.960784313725531</v>
+        <v>-22.72727272727258</v>
       </c>
       <c r="L80" t="n">
         <v>5.163999999999999</v>
@@ -4359,7 +4381,7 @@
         <v>3.709999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>-13.3333333333333</v>
+        <v>-22.72727272727274</v>
       </c>
       <c r="L81" t="n">
         <v>5.152999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>3.709999999999998</v>
       </c>
       <c r="K82" t="n">
-        <v>-10.34482758620694</v>
+        <v>-17.07317073170731</v>
       </c>
       <c r="L82" t="n">
         <v>5.142999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>3.719999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.302325581395325</v>
+        <v>-21.95121951219498</v>
       </c>
       <c r="L83" t="n">
         <v>5.134999999999998</v>
@@ -4512,7 +4534,7 @@
         <v>3.719999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>-1.265822784810095</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>5.125999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>3.729999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-39.13043478260879</v>
       </c>
       <c r="L85" t="n">
         <v>5.126999999999998</v>
@@ -4614,7 +4636,7 @@
         <v>3.739999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>1.234567901234646</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L86" t="n">
         <v>5.118999999999998</v>
@@ -4665,7 +4687,7 @@
         <v>3.759999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>-13.51351351351353</v>
+        <v>-23.80952380952353</v>
       </c>
       <c r="L87" t="n">
         <v>5.112999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.030303030302957</v>
+        <v>-76.47058823529369</v>
       </c>
       <c r="L88" t="n">
         <v>5.105999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>3.789999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-29.62962962962951</v>
+        <v>-55.55555555555534</v>
       </c>
       <c r="L89" t="n">
         <v>5.091999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>3.8</v>
       </c>
       <c r="K90" t="n">
-        <v>-27.27272727272701</v>
+        <v>-33.33333333333201</v>
       </c>
       <c r="L90" t="n">
         <v>5.087999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>3.8</v>
       </c>
       <c r="K91" t="n">
-        <v>-25.9259259259257</v>
+        <v>-33.33333333333201</v>
       </c>
       <c r="L91" t="n">
         <v>5.084999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>3.81</v>
       </c>
       <c r="K92" t="n">
-        <v>-25.92592592592582</v>
+        <v>-33.33333333333267</v>
       </c>
       <c r="L92" t="n">
         <v>5.080999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>3.890000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>-5.08474576271187</v>
+        <v>29.4117647058818</v>
       </c>
       <c r="L93" t="n">
         <v>5.085999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>3.94</v>
       </c>
       <c r="K94" t="n">
-        <v>-14.28571428571417</v>
+        <v>-4.761904761904601</v>
       </c>
       <c r="L94" t="n">
         <v>5.085999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>3.96</v>
       </c>
       <c r="K95" t="n">
-        <v>-3.571428571428469</v>
+        <v>-18.18181818181807</v>
       </c>
       <c r="L95" t="n">
         <v>5.082999999999998</v>
@@ -5124,7 +5146,7 @@
         <v>3.96</v>
       </c>
       <c r="K96" t="n">
-        <v>-26.08695652173895</v>
+        <v>-9.999999999999734</v>
       </c>
       <c r="L96" t="n">
         <v>5.078999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>3.96</v>
       </c>
       <c r="K97" t="n">
-        <v>-19.04761904761891</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>5.076999999999998</v>
@@ -5226,7 +5248,7 @@
         <v>3.96</v>
       </c>
       <c r="K98" t="n">
-        <v>-17.07317073170705</v>
+        <v>5.88235294117684</v>
       </c>
       <c r="L98" t="n">
         <v>5.076999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>3.96</v>
       </c>
       <c r="K99" t="n">
-        <v>-37.14285714285687</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>5.077999999999998</v>
@@ -5328,7 +5350,7 @@
         <v>3.970000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>-18.51851851851857</v>
+        <v>-5.88235294117684</v>
       </c>
       <c r="L100" t="n">
         <v>5.076999999999998</v>
@@ -5379,7 +5401,7 @@
         <v>4.000000000000001</v>
       </c>
       <c r="K101" t="n">
-        <v>-3.44827586206886</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L101" t="n">
         <v>5.078999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>4.040000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>-15.15151515151497</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L102" t="n">
         <v>5.077999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>4.090000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>-24.3243243243241</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L103" t="n">
         <v>5.063999999999998</v>
@@ -5532,7 +5554,7 @@
         <v>4.140000000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.523809523809474</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L104" t="n">
         <v>5.059999999999998</v>
@@ -5583,7 +5605,7 @@
         <v>4.15</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571411</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L105" t="n">
         <v>5.056999999999998</v>
@@ -5634,7 +5656,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K106" t="n">
-        <v>-22.72727272727274</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L106" t="n">
         <v>5.050999999999997</v>
@@ -5685,7 +5707,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K107" t="n">
-        <v>-19.04761904761899</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L107" t="n">
         <v>5.044999999999997</v>
@@ -5736,7 +5758,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K108" t="n">
-        <v>-15.00000000000004</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L108" t="n">
         <v>5.038999999999997</v>
@@ -5787,7 +5809,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-12.82051282051273</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L109" t="n">
         <v>5.032999999999997</v>
@@ -5838,7 +5860,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-15.78947368421063</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L110" t="n">
         <v>5.027999999999997</v>
@@ -5889,7 +5911,7 @@
         <v>4.180000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-15.78947368421063</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L111" t="n">
         <v>5.019999999999996</v>
@@ -5940,7 +5962,7 @@
         <v>4.19</v>
       </c>
       <c r="K112" t="n">
-        <v>-15.78947368421043</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>5.014999999999996</v>
@@ -5991,7 +6013,7 @@
         <v>4.2</v>
       </c>
       <c r="K113" t="n">
-        <v>-41.93548387096776</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L113" t="n">
         <v>5.015999999999996</v>
@@ -6042,7 +6064,7 @@
         <v>4.340000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>15.00000000000011</v>
+        <v>57.89473684210531</v>
       </c>
       <c r="L114" t="n">
         <v>5.025999999999996</v>
@@ -6093,7 +6115,7 @@
         <v>4.340000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>21.05263157894735</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L115" t="n">
         <v>5.036999999999996</v>
@@ -6144,7 +6166,7 @@
         <v>4.4</v>
       </c>
       <c r="K116" t="n">
-        <v>31.81818181818172</v>
+        <v>90.90909090909109</v>
       </c>
       <c r="L116" t="n">
         <v>5.056999999999997</v>
@@ -6195,7 +6217,7 @@
         <v>4.4</v>
       </c>
       <c r="K117" t="n">
-        <v>31.81818181818172</v>
+        <v>90.90909090909109</v>
       </c>
       <c r="L117" t="n">
         <v>5.076999999999996</v>
@@ -6246,7 +6268,7 @@
         <v>4.42</v>
       </c>
       <c r="K118" t="n">
-        <v>26.08695652173916</v>
+        <v>75.00000000000047</v>
       </c>
       <c r="L118" t="n">
         <v>5.094999999999997</v>
@@ -6297,7 +6319,7 @@
         <v>4.42</v>
       </c>
       <c r="K119" t="n">
-        <v>26.08695652173916</v>
+        <v>75.00000000000047</v>
       </c>
       <c r="L119" t="n">
         <v>5.112999999999997</v>
@@ -6348,7 +6370,7 @@
         <v>4.510000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>7.407407407407414</v>
+        <v>27.27272727272723</v>
       </c>
       <c r="L120" t="n">
         <v>5.121999999999997</v>
@@ -6399,7 +6421,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>-13.33333333333335</v>
+        <v>2.43902439024385</v>
       </c>
       <c r="L121" t="n">
         <v>5.121999999999997</v>
@@ -6450,7 +6472,7 @@
         <v>4.69</v>
       </c>
       <c r="K122" t="n">
-        <v>7.692307692307672</v>
+        <v>18.36734693877547</v>
       </c>
       <c r="L122" t="n">
         <v>5.131999999999997</v>
@@ -6501,7 +6523,7 @@
         <v>4.69</v>
       </c>
       <c r="K123" t="n">
-        <v>16.66666666666662</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L123" t="n">
         <v>5.140999999999997</v>
@@ -6552,7 +6574,7 @@
         <v>4.77</v>
       </c>
       <c r="K124" t="n">
-        <v>-4.761904761904802</v>
+        <v>-30.23255813953509</v>
       </c>
       <c r="L124" t="n">
         <v>5.127999999999998</v>
@@ -6603,7 +6625,7 @@
         <v>4.840000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>7.246376811594173</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L125" t="n">
         <v>5.121999999999998</v>
@@ -6654,7 +6676,7 @@
         <v>4.910000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>1.3698630136986</v>
+        <v>-37.25490196078434</v>
       </c>
       <c r="L126" t="n">
         <v>5.102999999999998</v>
@@ -6705,7 +6727,7 @@
         <v>4.910000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>1.3698630136986</v>
+        <v>-34.6938775510205</v>
       </c>
       <c r="L127" t="n">
         <v>5.083999999999998</v>
@@ -6756,7 +6778,7 @@
         <v>4.930000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>4.000000000000028</v>
+        <v>-29.41176470588233</v>
       </c>
       <c r="L128" t="n">
         <v>5.068999999999998</v>
@@ -6807,7 +6829,7 @@
         <v>4.950000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>1.298701298701269</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L129" t="n">
         <v>5.051999999999998</v>
@@ -6858,7 +6880,7 @@
         <v>4.960000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>2.564102564102617</v>
+        <v>5.555555555555651</v>
       </c>
       <c r="L130" t="n">
         <v>5.044999999999998</v>
@@ -6909,7 +6931,7 @@
         <v>4.960000000000003</v>
       </c>
       <c r="K131" t="n">
-        <v>2.564102564102617</v>
+        <v>-25.92592592592549</v>
       </c>
       <c r="L131" t="n">
         <v>5.046999999999999</v>
@@ -6960,7 +6982,7 @@
         <v>4.960000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>3.896103896103917</v>
+        <v>-25.92592592592549</v>
       </c>
       <c r="L132" t="n">
         <v>5.039999999999998</v>
@@ -7011,7 +7033,7 @@
         <v>5.010000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>8.641975308641985</v>
+        <v>25</v>
       </c>
       <c r="L133" t="n">
         <v>5.037999999999998</v>
@@ -7062,7 +7084,7 @@
         <v>5.030000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-7.246376811594292</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L134" t="n">
         <v>5.045999999999998</v>
@@ -7113,7 +7135,7 @@
         <v>5.030000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>-7.246376811594292</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L135" t="n">
         <v>5.046999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>5.040000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>-18.74999999999998</v>
+        <v>53.84615384615374</v>
       </c>
       <c r="L136" t="n">
         <v>5.053999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>5.040000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>-18.74999999999998</v>
+        <v>45.45454545454516</v>
       </c>
       <c r="L137" t="n">
         <v>5.061</v>
@@ -7266,7 +7288,7 @@
         <v>5.040000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>-16.12903225806455</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L138" t="n">
         <v>5.066000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>5.130000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>-26.76056338028168</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L139" t="n">
         <v>5.064</v>
@@ -7368,7 +7390,7 @@
         <v>5.190000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>-5.88235294117647</v>
+        <v>13.04347826086937</v>
       </c>
       <c r="L140" t="n">
         <v>5.067</v>
@@ -7419,7 +7441,7 @@
         <v>5.190000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>8.4745762711864</v>
+        <v>13.04347826086937</v>
       </c>
       <c r="L141" t="n">
         <v>5.07</v>
@@ -7470,7 +7492,7 @@
         <v>5.190000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>-7.999999999999993</v>
+        <v>-11.11111111111144</v>
       </c>
       <c r="L142" t="n">
         <v>5.073</v>
@@ -7521,7 +7543,7 @@
         <v>5.210000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>-11.53846153846145</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>5.069000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>5.240000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>10.63829787234056</v>
+        <v>-14.28571428571404</v>
       </c>
       <c r="L144" t="n">
         <v>5.066000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>5.240000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>-4.999999999999889</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L145" t="n">
         <v>5.063000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>5.27</v>
       </c>
       <c r="K146" t="n">
-        <v>22.22222222222228</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L146" t="n">
         <v>5.064</v>
@@ -7725,7 +7747,7 @@
         <v>5.27</v>
       </c>
       <c r="K147" t="n">
-        <v>22.22222222222228</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L147" t="n">
         <v>5.065</v>
@@ -7776,7 +7798,7 @@
         <v>5.320000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>28.20512820512831</v>
+        <v>78.94736842105303</v>
       </c>
       <c r="L148" t="n">
         <v>5.071000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>5.360000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>41.46341463414662</v>
+        <v>76.47058823529461</v>
       </c>
       <c r="L149" t="n">
         <v>5.090000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>5.370000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>41.46341463414649</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L150" t="n">
         <v>5.104000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>5.380000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>42.85714285714297</v>
+        <v>78.94736842105303</v>
       </c>
       <c r="L151" t="n">
         <v>5.119000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>5.380000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>42.85714285714297</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>5.134</v>
@@ -8031,7 +8053,7 @@
         <v>5.400000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>38.46153846153867</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>5.153</v>
@@ -8082,7 +8104,7 @@
         <v>5.420000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>38.46153846153867</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
         <v>5.171000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>5.470000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>45.45454545454564</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>5.194000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>5.470000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>48.8372093023257</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>5.214</v>
@@ -8235,7 +8257,7 @@
         <v>5.48</v>
       </c>
       <c r="K157" t="n">
-        <v>50.0000000000001</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>5.235</v>
@@ -8286,7 +8308,7 @@
         <v>5.48</v>
       </c>
       <c r="K158" t="n">
-        <v>50.0000000000001</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>5.251</v>
@@ -8337,7 +8359,7 @@
         <v>5.64</v>
       </c>
       <c r="K159" t="n">
-        <v>29.41176470588254</v>
+        <v>-18.51851851851854</v>
       </c>
       <c r="L159" t="n">
         <v>5.247000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>5.649999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>21.73913043478281</v>
+        <v>-18.51851851851854</v>
       </c>
       <c r="L160" t="n">
         <v>5.243</v>
@@ -8439,7 +8461,7 @@
         <v>5.649999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>21.73913043478281</v>
+        <v>-18.51851851851854</v>
       </c>
       <c r="L161" t="n">
         <v>5.238</v>
@@ -8490,7 +8512,7 @@
         <v>5.709999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>30.76923076923093</v>
+        <v>-3.225806451613143</v>
       </c>
       <c r="L162" t="n">
         <v>5.239</v>
@@ -8541,7 +8563,7 @@
         <v>5.729999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>30.76923076923093</v>
+        <v>-16.12903225806457</v>
       </c>
       <c r="L163" t="n">
         <v>5.236</v>
@@ -8592,7 +8614,7 @@
         <v>5.749999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>21.56862745098037</v>
+        <v>-42.85714285714312</v>
       </c>
       <c r="L164" t="n">
         <v>5.229</v>
@@ -8643,7 +8665,7 @@
         <v>5.749999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>21.56862745098037</v>
+        <v>-42.85714285714312</v>
       </c>
       <c r="L165" t="n">
         <v>5.217000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>5.759999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>14.28571428571439</v>
+        <v>-50.00000000000016</v>
       </c>
       <c r="L166" t="n">
         <v>5.204000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>5.779999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>9.803921568627629</v>
+        <v>-53.33333333333344</v>
       </c>
       <c r="L167" t="n">
         <v>5.188000000000001</v>
@@ -8847,7 +8869,7 @@
         <v>5.829999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>-19.14893617021301</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L169" t="n">
         <v>5.167</v>
@@ -8898,7 +8920,7 @@
         <v>5.88</v>
       </c>
       <c r="K170" t="n">
-        <v>-9.803921568627437</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L170" t="n">
         <v>5.165999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>5.88</v>
       </c>
       <c r="K171" t="n">
-        <v>-11.99999999999994</v>
+        <v>-41.17647058823474</v>
       </c>
       <c r="L171" t="n">
         <v>5.164999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>5.930000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>-20.00000000000006</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L172" t="n">
         <v>5.153</v>
@@ -9051,7 +9073,7 @@
         <v>5.930000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>-24.52830188679263</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L173" t="n">
         <v>5.142999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>5.980000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>-17.85714285714278</v>
+        <v>-13.04347826086916</v>
       </c>
       <c r="L174" t="n">
         <v>5.139999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>6.030000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>-35.71428571428566</v>
+        <v>-25.92592592592573</v>
       </c>
       <c r="L175" t="n">
         <v>5.132</v>
@@ -9204,7 +9226,7 @@
         <v>6.030000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>-35.71428571428566</v>
+        <v>-20</v>
       </c>
       <c r="L176" t="n">
         <v>5.124999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>6.060000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>-41.3793103448274</v>
+        <v>-28.5714285714283</v>
       </c>
       <c r="L177" t="n">
         <v>5.116999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>6.060000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>-41.3793103448274</v>
+        <v>-13.04347826086916</v>
       </c>
       <c r="L178" t="n">
         <v>5.109</v>
@@ -9357,7 +9379,7 @@
         <v>6.130000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>-2.040816326530746</v>
+        <v>-4.000000000000256</v>
       </c>
       <c r="L179" t="n">
         <v>5.113</v>
@@ -9408,7 +9430,7 @@
         <v>6.19</v>
       </c>
       <c r="K180" t="n">
-        <v>-14.8148148148148</v>
+        <v>-22.58064516129038</v>
       </c>
       <c r="L180" t="n">
         <v>5.106</v>
@@ -9459,7 +9481,7 @@
         <v>6.19</v>
       </c>
       <c r="K181" t="n">
-        <v>-14.8148148148148</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L181" t="n">
         <v>5.098999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>6.19</v>
       </c>
       <c r="K182" t="n">
-        <v>-29.16666666666652</v>
+        <v>-7.692307692307534</v>
       </c>
       <c r="L182" t="n">
         <v>5.097</v>
@@ -9561,7 +9583,7 @@
         <v>6.31</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>15.15151515151513</v>
       </c>
       <c r="L183" t="n">
         <v>5.106999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>6.350000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-3.333333333333254</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L184" t="n">
         <v>5.107999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>6.350000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>-3.333333333333254</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L185" t="n">
         <v>5.113999999999999</v>
@@ -9714,7 +9736,7 @@
         <v>6.36</v>
       </c>
       <c r="K186" t="n">
-        <v>-3.333333333333254</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L186" t="n">
         <v>5.118999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>6.36</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>26.66666666666678</v>
       </c>
       <c r="L187" t="n">
         <v>5.126999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>6.38</v>
       </c>
       <c r="K188" t="n">
-        <v>3.333333333333254</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="L188" t="n">
         <v>5.136999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>6.41</v>
       </c>
       <c r="K189" t="n">
-        <v>17.24137931034489</v>
+        <v>54.54545454545465</v>
       </c>
       <c r="L189" t="n">
         <v>5.142999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>6.47</v>
       </c>
       <c r="K190" t="n">
-        <v>18.64406779661008</v>
+        <v>64.28571428571433</v>
       </c>
       <c r="L190" t="n">
         <v>5.161</v>
@@ -9969,7 +9991,7 @@
         <v>6.569999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>1.449275362318811</v>
+        <v>21.05263157894744</v>
       </c>
       <c r="L191" t="n">
         <v>5.169</v>
@@ -10020,7 +10042,7 @@
         <v>6.569999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>9.375000000000096</v>
+        <v>-15.38461538461546</v>
       </c>
       <c r="L192" t="n">
         <v>5.177</v>

--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S192"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03000000000000025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.04000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.04000000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.05999999999999961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.05999999999999961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.07999999999999918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1099999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.129999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>5.257</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1799999999999988</v>
-      </c>
-      <c r="K12" t="n">
-        <v>73.33333333333366</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.270999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.1999999999999984</v>
-      </c>
-      <c r="K13" t="n">
-        <v>50.00000000000055</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.279999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.1999999999999984</v>
-      </c>
-      <c r="K14" t="n">
-        <v>50.00000000000055</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.287999999999998</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1900000000000004</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2699999999999987</v>
-      </c>
-      <c r="K15" t="n">
-        <v>80.95238095238128</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.302999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3699999999999992</v>
-      </c>
-      <c r="K16" t="n">
-        <v>22.58064516129016</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.309999999999998</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4599999999999991</v>
-      </c>
-      <c r="K17" t="n">
-        <v>36.84210526315782</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.325999999999998</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4599999999999991</v>
-      </c>
-      <c r="K18" t="n">
-        <v>31.4285714285713</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.339999999999998</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4599999999999991</v>
-      </c>
-      <c r="K19" t="n">
-        <v>27.27272727272723</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.350999999999997</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1799999999999997</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4599999999999991</v>
-      </c>
-      <c r="K20" t="n">
-        <v>19.99999999999988</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.359999999999998</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4799999999999995</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20.00000000000012</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.367999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>5.3125</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2400000000000002</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5199999999999996</v>
-      </c>
-      <c r="K22" t="n">
-        <v>37.49999999999989</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.377999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>5.3245</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2400000000000002</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5199999999999996</v>
-      </c>
-      <c r="K23" t="n">
-        <v>37.49999999999989</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.389999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>5.335000000000001</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5399999999999991</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.92592592592566</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.403999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>5.346000000000001</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2599999999999998</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5399999999999991</v>
-      </c>
-      <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5.410999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>5.357000000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5499999999999989</v>
-      </c>
-      <c r="K26" t="n">
-        <v>77.77777777777821</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.426999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>5.3685</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2300000000000004</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5699999999999985</v>
-      </c>
-      <c r="K27" t="n">
-        <v>45.45454545454633</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.431999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>5.379</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5899999999999981</v>
-      </c>
-      <c r="K28" t="n">
-        <v>53.84615384615448</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5.438999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>5.3895</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6899999999999977</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-13.04347826086937</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.435999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>5.3935</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.7099999999999982</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-30.43478260869595</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.430999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>5.3955</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7099999999999982</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-57.89473684210586</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.423999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>5.396</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5.349666666666668</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.8999999999999977</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-78.94736842105297</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.393999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>5.386000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.347666666666668</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.049999999999997</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-33.33333333333345</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.378999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>5.384500000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.349666666666668</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.099999999999997</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-39.2857142857144</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.356999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>5.380500000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5.349666666666668</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.199999999999997</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-47.6923076923078</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.324999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>5.368</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.346333333333335</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.219999999999996</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-41.53846153846176</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.295999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>5.361500000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.344333333333335</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.299999999999996</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-29.57746478873247</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.276999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>5.354500000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.345000000000002</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.349999999999996</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-9.090909090909188</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5.260999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>5.350000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5.346666666666668</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.359999999999996</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.253999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>5.345000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5.347000000000002</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1500000000000004</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.429999999999996</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.77777777777785</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.255999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>5.343500000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.349000000000002</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.489999999999997</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25.42372881355928</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.251999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>5.338000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5.348000000000002</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.489999999999997</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.266999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>5.330500000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.346333333333336</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.539999999999996</v>
-      </c>
-      <c r="K43" t="n">
-        <v>22.72727272727267</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.271999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>5.3255</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.347000000000002</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.539999999999996</v>
-      </c>
-      <c r="K44" t="n">
-        <v>58.82352941176452</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5.281999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>5.3195</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5.347666666666668</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.539999999999996</v>
-      </c>
-      <c r="K45" t="n">
-        <v>56.24999999999986</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.301999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>5.313499999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5.346000000000001</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.599999999999996</v>
-      </c>
-      <c r="K46" t="n">
-        <v>13.33333333333335</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.313999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>5.305000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.345666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.609999999999996</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-7.692307692307534</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.316999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>5.297000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.342000000000001</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.669999999999995</v>
-      </c>
-      <c r="K48" t="n">
-        <v>16.12903225806448</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5.321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>5.291000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5.340333333333334</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.669999999999995</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-8.333333333333549</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5.326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>5.290000000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5.338666666666668</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.719999999999995</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-4.347826086956454</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>5.287500000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>5.335333333333335</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.819999999999995</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5.308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>5.280000000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5.328000000000002</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.869999999999995</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.302</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>5.2845</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5.321000000000002</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.869999999999995</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5.291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>5.2815</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5.314000000000004</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.019999999999995</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-54.16666666666677</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>5.2735</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5.301333333333337</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.029999999999995</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-48.8372093023257</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5.288333333333338</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.129999999999995</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-19.23076923076938</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.226999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>5.2705</v>
-      </c>
-      <c r="N56" t="n">
-        <v>5.279000000000004</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2.199999999999995</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-16.98113207547169</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5.223999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>5.2705</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5.27266666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.359999999999995</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-36.23188405797104</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5.199</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>5.260000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5.260333333333337</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.519999999999995</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-5.000000000000006</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>5.258000000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5.25666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.679999999999995</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-11.62790697674424</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>5.2445</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5.248333333333337</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.809999999999995</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-2.127659574468133</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5.173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>5.240500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5.244333333333336</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.839999999999995</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-5.154639175257715</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5.167999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>5.235000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5.245666666666669</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.859999999999995</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9.523809523809534</v>
-      </c>
-      <c r="L63" t="n">
-        <v>5.161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>5.226000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>5.241333333333335</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.929999999999995</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2.222222222222174</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.161999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>5.213500000000002</v>
-      </c>
-      <c r="N64" t="n">
-        <v>5.236333333333335</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.929999999999995</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>5.201000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5.234666666666668</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.929999999999995</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-20.54794520547949</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5.156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>5.1915</v>
-      </c>
-      <c r="N66" t="n">
-        <v>5.232333333333335</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.019999999999996</v>
-      </c>
-      <c r="K67" t="n">
-        <v>15.15151515151521</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.149999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>5.187</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5.230333333333335</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.119999999999997</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-26.66666666666663</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.149999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>5.1745</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5.223333333333334</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.249999999999996</v>
-      </c>
-      <c r="K69" t="n">
-        <v>22.80701754385958</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.146999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>5.1685</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5.221000000000002</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.249999999999996</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.159999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>5.165</v>
-      </c>
-      <c r="N70" t="n">
-        <v>5.216333333333335</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3867,26 +2871,10 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.259999999999996</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4.761904761904641</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.158999999999998</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>5.165999999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>5.213333333333335</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3.269999999999996</v>
-      </c>
-      <c r="K72" t="n">
-        <v>7.31707317073175</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.159999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>5.164</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.299999999999996</v>
-      </c>
-      <c r="K73" t="n">
-        <v>18.91891891891894</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.159999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>5.160500000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>5.204</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.309999999999996</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21.05263157894735</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5.167999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>5.165000000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>5.198333333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.399999999999996</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-2.127659574468037</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5.166999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>5.165500000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5.189666666666668</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.499999999999996</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5.175999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>5.166000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5.186333333333335</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.539999999999996</v>
-      </c>
-      <c r="K77" t="n">
-        <v>14.28571428571441</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.171999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>5.161000000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>5.182000000000001</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.549999999999997</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-26.66666666666663</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.176999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>5.163500000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5.175333333333334</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.609999999999998</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-5.555555555555419</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5.174999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>5.161000000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>5.170666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.699999999999998</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-22.72727272727258</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.163999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>5.162000000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>5.164666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.709999999999998</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-22.72727272727274</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.152999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>5.156000000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>5.161666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3.709999999999998</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-17.07317073170731</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.142999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>5.1515</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5.157</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.719999999999998</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-21.95121951219498</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.134999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>5.147500000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5.152</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.719999999999998</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.125999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>5.147000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5.152</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3.729999999999998</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-39.13043478260879</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.126999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>5.147000000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>5.152666666666666</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J86" t="n">
-        <v>3.739999999999998</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-19.99999999999982</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.118999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>5.147500000000002</v>
-      </c>
-      <c r="N86" t="n">
-        <v>5.150333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.759999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-23.80952380952353</v>
-      </c>
-      <c r="L87" t="n">
-        <v>5.112999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>5.142500000000002</v>
-      </c>
-      <c r="N87" t="n">
-        <v>5.145</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3.779999999999998</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-76.47058823529369</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.105999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>5.141500000000002</v>
-      </c>
-      <c r="N88" t="n">
-        <v>5.144333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.789999999999999</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-55.55555555555534</v>
-      </c>
-      <c r="L89" t="n">
-        <v>5.091999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>5.133500000000002</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5.138</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J90" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-33.33333333333201</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.087999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>5.126000000000002</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5.137333333333332</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-33.33333333333201</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.084999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>5.119000000000002</v>
-      </c>
-      <c r="N91" t="n">
-        <v>5.132333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-33.33333333333267</v>
-      </c>
-      <c r="L92" t="n">
-        <v>5.080999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>5.112000000000002</v>
-      </c>
-      <c r="N92" t="n">
-        <v>5.127999999999999</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3.890000000000001</v>
-      </c>
-      <c r="K93" t="n">
-        <v>29.4117647058818</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5.085999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>5.110500000000002</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5.126999999999999</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-4.761904761904601</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.085999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>5.106000000000002</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5.126666666666666</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-18.18181818181807</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5.082999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>5.105000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5.125666666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-9.999999999999734</v>
-      </c>
-      <c r="L96" t="n">
-        <v>5.078999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>5.099000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>5.124666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.076999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>5.095000000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>5.120666666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5.88235294117684</v>
-      </c>
-      <c r="L98" t="n">
-        <v>5.076999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>5.0915</v>
-      </c>
-      <c r="N98" t="n">
-        <v>5.119999999999999</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>5.077999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>5.085</v>
-      </c>
-      <c r="N99" t="n">
-        <v>5.114999999999998</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.970000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-5.88235294117684</v>
-      </c>
-      <c r="L100" t="n">
-        <v>5.076999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>5.0825</v>
-      </c>
-      <c r="N100" t="n">
-        <v>5.109666666666666</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J101" t="n">
-        <v>4.000000000000001</v>
-      </c>
-      <c r="K101" t="n">
-        <v>15.78947368421063</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5.078999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>5.082000000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>5.105666666666665</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4.040000000000001</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-59.99999999999977</v>
-      </c>
-      <c r="L102" t="n">
-        <v>5.077999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>5.079500000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>5.100666666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="J103" t="n">
-        <v>4.090000000000001</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-59.99999999999977</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5.063999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>5.075000000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>5.095</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4.140000000000001</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-11.11111111111133</v>
-      </c>
-      <c r="L104" t="n">
-        <v>5.059999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>5.073</v>
-      </c>
-      <c r="N104" t="n">
-        <v>5.090666666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J105" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-15.78947368421063</v>
-      </c>
-      <c r="L105" t="n">
-        <v>5.056999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>5.070000000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>5.089</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4091,19 @@
         <v>5.134666666666665</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>4.180000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="K106" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L106" t="n">
-        <v>5.050999999999997</v>
-      </c>
+        <v>5.01</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>5.065000000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>5.082999999999999</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,31 +4130,23 @@
         <v>5.130166666666666</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4.180000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="K107" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L107" t="n">
-        <v>5.044999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>5.061000000000002</v>
-      </c>
-      <c r="N107" t="n">
-        <v>5.078333333333332</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,31 +4173,23 @@
         <v>5.124666666666666</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>4.180000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L108" t="n">
-        <v>5.038999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>5.058000000000002</v>
-      </c>
-      <c r="N108" t="n">
-        <v>5.073999999999999</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,31 +4216,19 @@
         <v>5.119166666666667</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>4.180000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="K109" t="n">
-        <v>-23.80952380952373</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5.032999999999997</v>
-      </c>
+        <v>5.01</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>5.055500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>5.067666666666666</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,31 +4255,23 @@
         <v>5.114499999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>4.180000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="K110" t="n">
-        <v>-44.44444444444456</v>
-      </c>
-      <c r="L110" t="n">
-        <v>5.027999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>5.052500000000002</v>
-      </c>
-      <c r="N110" t="n">
-        <v>5.064333333333332</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4298,23 @@
         <v>5.111499999999999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>4.180000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="K111" t="n">
-        <v>-28.57142857142867</v>
-      </c>
-      <c r="L111" t="n">
-        <v>5.019999999999996</v>
+        <v>5.01</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>5.049500000000002</v>
-      </c>
-      <c r="N111" t="n">
-        <v>5.061333333333332</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4341,23 @@
         <v>5.107499999999999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>4.19</v>
+        <v>5.01</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5.014999999999996</v>
+        <v>5.01</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>5.046500000000002</v>
-      </c>
-      <c r="N112" t="n">
-        <v>5.057999999999998</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +4384,23 @@
         <v>5.103666666666665</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>4.2</v>
+        <v>5.01</v>
       </c>
       <c r="K113" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.015999999999996</v>
+        <v>5.01</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>5.040000000000002</v>
-      </c>
-      <c r="N113" t="n">
-        <v>5.055333333333332</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +4427,23 @@
         <v>5.104666666666665</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>4.340000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="K114" t="n">
-        <v>57.89473684210531</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5.025999999999996</v>
+        <v>5.01</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>5.043000000000002</v>
-      </c>
-      <c r="N114" t="n">
-        <v>5.057333333333331</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +4470,23 @@
         <v>5.105833333333332</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>4.340000000000001</v>
+        <v>5.15</v>
       </c>
       <c r="K115" t="n">
-        <v>87.50000000000028</v>
-      </c>
-      <c r="L115" t="n">
-        <v>5.036999999999996</v>
+        <v>5.01</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>5.047000000000002</v>
-      </c>
-      <c r="N115" t="n">
-        <v>5.058999999999998</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +4513,23 @@
         <v>5.106333333333331</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>4.4</v>
+        <v>5.15</v>
       </c>
       <c r="K116" t="n">
-        <v>90.90909090909109</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5.056999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>5.054000000000002</v>
-      </c>
-      <c r="N116" t="n">
-        <v>5.062333333333331</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,31 +4556,23 @@
         <v>5.105666666666664</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>4.4</v>
+        <v>5.21</v>
       </c>
       <c r="K117" t="n">
-        <v>90.90909090909109</v>
-      </c>
-      <c r="L117" t="n">
-        <v>5.076999999999996</v>
+        <v>5.01</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>5.061000000000002</v>
-      </c>
-      <c r="N117" t="n">
-        <v>5.066333333333332</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4602,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J118" t="n">
-        <v>4.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>75.00000000000047</v>
-      </c>
-      <c r="L118" t="n">
-        <v>5.094999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>5.067000000000002</v>
-      </c>
-      <c r="N118" t="n">
-        <v>5.070333333333332</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4643,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J119" t="n">
-        <v>4.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>75.00000000000047</v>
-      </c>
-      <c r="L119" t="n">
-        <v>5.112999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>5.073000000000002</v>
-      </c>
-      <c r="N119" t="n">
-        <v>5.074666666666665</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4684,18 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J120" t="n">
-        <v>4.510000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>27.27272727272723</v>
-      </c>
-      <c r="L120" t="n">
-        <v>5.121999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>5.075000000000001</v>
-      </c>
-      <c r="N120" t="n">
-        <v>5.075666666666665</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4725,18 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="J121" t="n">
-        <v>4.600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>2.43902439024385</v>
-      </c>
-      <c r="L121" t="n">
-        <v>5.121999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>5.071000000000002</v>
-      </c>
-      <c r="N121" t="n">
-        <v>5.073666666666665</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4766,18 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J122" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>18.36734693877547</v>
-      </c>
-      <c r="L122" t="n">
-        <v>5.131999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>5.073500000000001</v>
-      </c>
-      <c r="N122" t="n">
-        <v>5.074999999999998</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4807,18 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J123" t="n">
-        <v>4.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>-14.2857142857145</v>
-      </c>
-      <c r="L123" t="n">
-        <v>5.140999999999997</v>
+        <v>5.01</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>5.078500000000001</v>
-      </c>
-      <c r="N123" t="n">
-        <v>5.073666666666665</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4848,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.1900000000000004</v>
-      </c>
-      <c r="J124" t="n">
-        <v>4.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>-30.23255813953509</v>
-      </c>
-      <c r="L124" t="n">
-        <v>5.127999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>5.077000000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>5.071333333333332</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4889,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J125" t="n">
-        <v>4.840000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L125" t="n">
-        <v>5.121999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>5.079500000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>5.071999999999999</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +4927,23 @@
         <v>5.097499999999997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>4.910000000000001</v>
+        <v>5.02</v>
       </c>
       <c r="K126" t="n">
-        <v>-37.25490196078434</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5.102999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="N126" t="n">
-        <v>5.070333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,31 +4970,23 @@
         <v>5.094666666666663</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>4.910000000000001</v>
+        <v>5.02</v>
       </c>
       <c r="K127" t="n">
-        <v>-34.6938775510205</v>
-      </c>
-      <c r="L127" t="n">
-        <v>5.083999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>5.0805</v>
-      </c>
-      <c r="N127" t="n">
-        <v>5.068666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6769,31 +5013,23 @@
         <v>5.093833333333331</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>4.930000000000001</v>
+        <v>5.04</v>
       </c>
       <c r="K128" t="n">
-        <v>-29.41176470588233</v>
-      </c>
-      <c r="L128" t="n">
-        <v>5.068999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>5.082</v>
-      </c>
-      <c r="N128" t="n">
-        <v>5.067666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6820,31 +5056,23 @@
         <v>5.090499999999996</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>4.950000000000002</v>
+        <v>5.02</v>
       </c>
       <c r="K129" t="n">
-        <v>-18.18181818181815</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5.051999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>5.0825</v>
-      </c>
-      <c r="N129" t="n">
-        <v>5.066000000000001</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,31 +5099,23 @@
         <v>5.087333333333329</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>4.960000000000003</v>
+        <v>5.03</v>
       </c>
       <c r="K130" t="n">
-        <v>5.555555555555651</v>
-      </c>
-      <c r="L130" t="n">
-        <v>5.044999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>5.083499999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>5.065</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,31 +5142,23 @@
         <v>5.084333333333329</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>4.960000000000003</v>
+        <v>5.03</v>
       </c>
       <c r="K131" t="n">
-        <v>-25.92592592592549</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5.046999999999999</v>
+        <v>5.01</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>5.084499999999999</v>
-      </c>
-      <c r="N131" t="n">
-        <v>5.063000000000001</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6973,31 +5185,23 @@
         <v>5.081499999999995</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>4.960000000000003</v>
+        <v>5.03</v>
       </c>
       <c r="K132" t="n">
-        <v>-25.92592592592549</v>
-      </c>
-      <c r="L132" t="n">
-        <v>5.039999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>5.085999999999999</v>
-      </c>
-      <c r="N132" t="n">
-        <v>5.062333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7024,31 +5228,23 @@
         <v>5.079999999999995</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>5.010000000000002</v>
+        <v>5.08</v>
       </c>
       <c r="K133" t="n">
-        <v>25</v>
-      </c>
-      <c r="L133" t="n">
-        <v>5.037999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>5.089499999999999</v>
-      </c>
-      <c r="N133" t="n">
-        <v>5.065</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7075,31 +5271,23 @@
         <v>5.078666666666662</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>5.030000000000002</v>
+        <v>5.08</v>
       </c>
       <c r="K134" t="n">
-        <v>5.263157894736695</v>
-      </c>
-      <c r="L134" t="n">
-        <v>5.045999999999998</v>
+        <v>5.01</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>5.086999999999998</v>
-      </c>
-      <c r="N134" t="n">
-        <v>5.066666666666666</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7126,31 +5314,23 @@
         <v>5.078833333333329</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>5.030000000000002</v>
+        <v>5.1</v>
       </c>
       <c r="K135" t="n">
-        <v>66.66666666666617</v>
-      </c>
-      <c r="L135" t="n">
-        <v>5.046999999999999</v>
+        <v>5.01</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>5.084499999999998</v>
-      </c>
-      <c r="N135" t="n">
-        <v>5.068666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7177,31 +5357,23 @@
         <v>5.077166666666661</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>5.040000000000002</v>
+        <v>5.09</v>
       </c>
       <c r="K136" t="n">
-        <v>53.84615384615374</v>
-      </c>
-      <c r="L136" t="n">
-        <v>5.053999999999999</v>
+        <v>5.01</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>5.078499999999998</v>
-      </c>
-      <c r="N136" t="n">
-        <v>5.071333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7228,31 +5400,23 @@
         <v>5.076166666666662</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>5.040000000000002</v>
+        <v>5.09</v>
       </c>
       <c r="K137" t="n">
-        <v>45.45454545454516</v>
-      </c>
-      <c r="L137" t="n">
-        <v>5.061</v>
+        <v>5.01</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>5.072499999999999</v>
-      </c>
-      <c r="N137" t="n">
-        <v>5.074000000000001</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7279,31 +5443,23 @@
         <v>5.075333333333329</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>5.040000000000002</v>
+        <v>5.09</v>
       </c>
       <c r="K138" t="n">
-        <v>77.77777777777821</v>
-      </c>
-      <c r="L138" t="n">
-        <v>5.066000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>5.067499999999999</v>
-      </c>
-      <c r="N138" t="n">
-        <v>5.076666666666668</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7330,31 +5486,23 @@
         <v>5.071999999999995</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>5.130000000000002</v>
+        <v>5.03</v>
       </c>
       <c r="K139" t="n">
-        <v>-17.64705882352966</v>
-      </c>
-      <c r="L139" t="n">
-        <v>5.064</v>
+        <v>5.01</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>5.057999999999999</v>
-      </c>
-      <c r="N139" t="n">
-        <v>5.076333333333335</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7381,31 +5529,23 @@
         <v>5.071166666666661</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>5.190000000000001</v>
+        <v>5.05</v>
       </c>
       <c r="K140" t="n">
-        <v>13.04347826086937</v>
-      </c>
-      <c r="L140" t="n">
-        <v>5.067</v>
+        <v>5.01</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>5.055999999999999</v>
-      </c>
-      <c r="N140" t="n">
-        <v>5.078000000000002</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,31 +5572,23 @@
         <v>5.070499999999995</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>5.190000000000001</v>
+        <v>5.06</v>
       </c>
       <c r="K141" t="n">
-        <v>13.04347826086937</v>
-      </c>
-      <c r="L141" t="n">
-        <v>5.07</v>
+        <v>5.01</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>5.0585</v>
-      </c>
-      <c r="N141" t="n">
-        <v>5.079666666666669</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5618,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J142" t="n">
-        <v>5.190000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>-11.11111111111144</v>
-      </c>
-      <c r="L142" t="n">
-        <v>5.073</v>
+        <v>5.01</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>5.0565</v>
-      </c>
-      <c r="N142" t="n">
-        <v>5.081666666666669</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5659,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J143" t="n">
-        <v>5.210000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L143" t="n">
-        <v>5.069000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>5.053500000000001</v>
-      </c>
-      <c r="N143" t="n">
-        <v>5.082666666666669</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5700,18 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J144" t="n">
-        <v>5.240000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>-14.28571428571404</v>
-      </c>
-      <c r="L144" t="n">
-        <v>5.066000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>5.056000000000001</v>
-      </c>
-      <c r="N144" t="n">
-        <v>5.080000000000002</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5741,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J145" t="n">
-        <v>5.240000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>-9.999999999999822</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5.063000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>5.055000000000001</v>
-      </c>
-      <c r="N145" t="n">
-        <v>5.077333333333335</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5782,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J146" t="n">
-        <v>5.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>4.347826086956454</v>
-      </c>
-      <c r="L146" t="n">
-        <v>5.064</v>
+        <v>5.01</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>5.059000000000001</v>
-      </c>
-      <c r="N146" t="n">
-        <v>5.073666666666668</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5823,18 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J147" t="n">
-        <v>5.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>4.347826086956454</v>
-      </c>
-      <c r="L147" t="n">
-        <v>5.065</v>
+        <v>5.01</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>5.063000000000001</v>
-      </c>
-      <c r="N147" t="n">
-        <v>5.070000000000001</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5864,18 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J148" t="n">
-        <v>5.320000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>78.94736842105303</v>
-      </c>
-      <c r="L148" t="n">
-        <v>5.071000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>5.068500000000001</v>
-      </c>
-      <c r="N148" t="n">
-        <v>5.068666666666668</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5905,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.01999999999999957</v>
-      </c>
-      <c r="J149" t="n">
-        <v>5.360000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>76.47058823529461</v>
-      </c>
-      <c r="L149" t="n">
-        <v>5.090000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>5.077000000000001</v>
-      </c>
-      <c r="N149" t="n">
-        <v>5.068666666666668</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5946,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J150" t="n">
-        <v>5.370000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>77.77777777777821</v>
-      </c>
-      <c r="L150" t="n">
-        <v>5.104000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>5.085500000000001</v>
-      </c>
-      <c r="N150" t="n">
-        <v>5.072000000000001</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7947,26 +5989,16 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>5.380000000000001</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>78.94736842105303</v>
-      </c>
-      <c r="L151" t="n">
-        <v>5.119000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>5.094500000000001</v>
-      </c>
-      <c r="N151" t="n">
-        <v>5.078666666666668</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7998,26 +6030,16 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>5.380000000000001</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>100</v>
-      </c>
-      <c r="L152" t="n">
-        <v>5.134</v>
+        <v>5.01</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>5.1035</v>
-      </c>
-      <c r="N152" t="n">
-        <v>5.082333333333335</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,28 +6069,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0.02000000000000046</v>
-      </c>
-      <c r="J153" t="n">
-        <v>5.400000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>100</v>
-      </c>
-      <c r="L153" t="n">
-        <v>5.153</v>
+        <v>5.01</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>5.111000000000001</v>
-      </c>
-      <c r="N153" t="n">
-        <v>5.086666666666669</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,28 +6110,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J154" t="n">
-        <v>5.420000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>100</v>
-      </c>
-      <c r="L154" t="n">
-        <v>5.171000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>5.118500000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>5.094333333333335</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8149,28 +6151,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J155" t="n">
-        <v>5.470000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>5.194000000000001</v>
+        <v>5.01</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>5.128500000000001</v>
-      </c>
-      <c r="N155" t="n">
-        <v>5.101333333333335</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,28 +6192,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J156" t="n">
-        <v>5.470000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>5.214</v>
+        <v>5.01</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>5.139000000000001</v>
-      </c>
-      <c r="N156" t="n">
-        <v>5.110666666666669</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,28 +6233,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J157" t="n">
-        <v>5.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>100</v>
-      </c>
-      <c r="L157" t="n">
-        <v>5.235</v>
+        <v>5.01</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="N157" t="n">
-        <v>5.120333333333335</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,29 +6274,19 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J158" t="n">
-        <v>5.48</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>100</v>
-      </c>
-      <c r="L158" t="n">
-        <v>5.251</v>
+        <v>5.01</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>5.161</v>
-      </c>
-      <c r="N158" t="n">
-        <v>5.129333333333335</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
+        <v>1.054880239520958</v>
       </c>
     </row>
     <row r="159">
@@ -8353,28 +6315,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J159" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-18.51851851851854</v>
-      </c>
-      <c r="L159" t="n">
-        <v>5.247000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>5.168500000000001</v>
-      </c>
-      <c r="N159" t="n">
-        <v>5.133666666666668</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8404,28 +6350,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J160" t="n">
-        <v>5.649999999999999</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-18.51851851851854</v>
-      </c>
-      <c r="L160" t="n">
-        <v>5.243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>5.173500000000001</v>
-      </c>
-      <c r="N160" t="n">
-        <v>5.138000000000002</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8455,28 +6385,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J161" t="n">
-        <v>5.649999999999999</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-18.51851851851854</v>
-      </c>
-      <c r="L161" t="n">
-        <v>5.238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>5.178500000000001</v>
-      </c>
-      <c r="N161" t="n">
-        <v>5.142333333333335</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8506,28 +6420,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J162" t="n">
-        <v>5.709999999999999</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-3.225806451613143</v>
-      </c>
-      <c r="L162" t="n">
-        <v>5.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>5.186500000000001</v>
-      </c>
-      <c r="N162" t="n">
-        <v>5.148666666666668</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8557,28 +6455,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J163" t="n">
-        <v>5.729999999999999</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-16.12903225806457</v>
-      </c>
-      <c r="L163" t="n">
-        <v>5.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>5.1945</v>
-      </c>
-      <c r="N163" t="n">
-        <v>5.152666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8608,28 +6490,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J164" t="n">
-        <v>5.749999999999999</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-42.85714285714312</v>
-      </c>
-      <c r="L164" t="n">
-        <v>5.229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N164" t="n">
-        <v>5.155333333333334</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8659,28 +6525,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J165" t="n">
-        <v>5.749999999999999</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-42.85714285714312</v>
-      </c>
-      <c r="L165" t="n">
-        <v>5.217000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>5.205500000000001</v>
-      </c>
-      <c r="N165" t="n">
-        <v>5.158000000000001</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,28 +6560,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J166" t="n">
-        <v>5.759999999999999</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-50.00000000000016</v>
-      </c>
-      <c r="L166" t="n">
-        <v>5.204000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>5.209000000000001</v>
-      </c>
-      <c r="N166" t="n">
-        <v>5.160666666666668</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,28 +6595,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J167" t="n">
-        <v>5.779999999999998</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-53.33333333333344</v>
-      </c>
-      <c r="L167" t="n">
-        <v>5.188000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>5.211500000000002</v>
-      </c>
-      <c r="N167" t="n">
-        <v>5.162666666666667</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8812,28 +6630,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J168" t="n">
-        <v>5.779999999999998</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>5.172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>5.211500000000002</v>
-      </c>
-      <c r="N168" t="n">
-        <v>5.164666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,28 +6665,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J169" t="n">
-        <v>5.829999999999999</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-33.33333333333366</v>
-      </c>
-      <c r="L169" t="n">
-        <v>5.167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>5.207000000000002</v>
-      </c>
-      <c r="N169" t="n">
-        <v>5.168000000000001</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,28 +6700,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J170" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-4.347826086956421</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5.165999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>5.204500000000001</v>
-      </c>
-      <c r="N170" t="n">
-        <v>5.171000000000001</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8965,1099 +6735,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J171" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-41.17647058823474</v>
-      </c>
-      <c r="L171" t="n">
-        <v>5.164999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>5.201500000000002</v>
-      </c>
-      <c r="N171" t="n">
-        <v>5.174000000000001</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D172" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F172" t="n">
-        <v>106933.9267</v>
-      </c>
-      <c r="G172" t="n">
-        <v>5.128499999999998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J172" t="n">
-        <v>5.930000000000001</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-49.99999999999978</v>
-      </c>
-      <c r="L172" t="n">
-        <v>5.153</v>
-      </c>
-      <c r="M172" t="n">
-        <v>5.196000000000002</v>
-      </c>
-      <c r="N172" t="n">
-        <v>5.175333333333334</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F173" t="n">
-        <v>126225.9312</v>
-      </c>
-      <c r="G173" t="n">
-        <v>5.129999999999998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J173" t="n">
-        <v>5.930000000000001</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-44.44444444444412</v>
-      </c>
-      <c r="L173" t="n">
-        <v>5.142999999999999</v>
-      </c>
-      <c r="M173" t="n">
-        <v>5.189500000000002</v>
-      </c>
-      <c r="N173" t="n">
-        <v>5.177333333333334</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F174" t="n">
-        <v>103707.8255</v>
-      </c>
-      <c r="G174" t="n">
-        <v>5.129999999999998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J174" t="n">
-        <v>5.980000000000001</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-13.04347826086916</v>
-      </c>
-      <c r="L174" t="n">
-        <v>5.139999999999999</v>
-      </c>
-      <c r="M174" t="n">
-        <v>5.184500000000002</v>
-      </c>
-      <c r="N174" t="n">
-        <v>5.180000000000001</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F175" t="n">
-        <v>84676.46739999999</v>
-      </c>
-      <c r="G175" t="n">
-        <v>5.129166666666666</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J175" t="n">
-        <v>6.030000000000002</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-25.92592592592573</v>
-      </c>
-      <c r="L175" t="n">
-        <v>5.132</v>
-      </c>
-      <c r="M175" t="n">
-        <v>5.174500000000002</v>
-      </c>
-      <c r="N175" t="n">
-        <v>5.181000000000001</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F176" t="n">
-        <v>103707.8255</v>
-      </c>
-      <c r="G176" t="n">
-        <v>5.127333333333334</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J176" t="n">
-        <v>6.030000000000002</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L176" t="n">
-        <v>5.124999999999999</v>
-      </c>
-      <c r="M176" t="n">
-        <v>5.164500000000002</v>
-      </c>
-      <c r="N176" t="n">
-        <v>5.181000000000001</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F177" t="n">
-        <v>340000</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J177" t="n">
-        <v>6.060000000000001</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-28.5714285714283</v>
-      </c>
-      <c r="L177" t="n">
-        <v>5.116999999999999</v>
-      </c>
-      <c r="M177" t="n">
-        <v>5.152500000000002</v>
-      </c>
-      <c r="N177" t="n">
-        <v>5.180000000000001</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F178" t="n">
-        <v>20107.605</v>
-      </c>
-      <c r="G178" t="n">
-        <v>5.123</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J178" t="n">
-        <v>6.060000000000001</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-13.04347826086916</v>
-      </c>
-      <c r="L178" t="n">
-        <v>5.109</v>
-      </c>
-      <c r="M178" t="n">
-        <v>5.140500000000001</v>
-      </c>
-      <c r="N178" t="n">
-        <v>5.177333333333334</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F179" t="n">
-        <v>11370.2475</v>
-      </c>
-      <c r="G179" t="n">
-        <v>5.122166666666667</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J179" t="n">
-        <v>6.130000000000001</v>
-      </c>
-      <c r="K179" t="n">
-        <v>-4.000000000000256</v>
-      </c>
-      <c r="L179" t="n">
-        <v>5.113</v>
-      </c>
-      <c r="M179" t="n">
-        <v>5.140000000000001</v>
-      </c>
-      <c r="N179" t="n">
-        <v>5.175666666666667</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3702.4871</v>
-      </c>
-      <c r="G180" t="n">
-        <v>5.121833333333332</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J180" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-22.58064516129038</v>
-      </c>
-      <c r="L180" t="n">
-        <v>5.106</v>
-      </c>
-      <c r="M180" t="n">
-        <v>5.136000000000001</v>
-      </c>
-      <c r="N180" t="n">
-        <v>5.171666666666668</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F181" t="n">
-        <v>13893.6102</v>
-      </c>
-      <c r="G181" t="n">
-        <v>5.122999999999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J181" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-7.692307692307534</v>
-      </c>
-      <c r="L181" t="n">
-        <v>5.098999999999999</v>
-      </c>
-      <c r="M181" t="n">
-        <v>5.132000000000001</v>
-      </c>
-      <c r="N181" t="n">
-        <v>5.167333333333334</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="F182" t="n">
-        <v>147764.2268</v>
-      </c>
-      <c r="G182" t="n">
-        <v>5.122666666666665</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J182" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-7.692307692307534</v>
-      </c>
-      <c r="L182" t="n">
-        <v>5.097</v>
-      </c>
-      <c r="M182" t="n">
-        <v>5.125000000000002</v>
-      </c>
-      <c r="N182" t="n">
-        <v>5.163000000000001</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="C183" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D183" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="F183" t="n">
-        <v>277795.493</v>
-      </c>
-      <c r="G183" t="n">
-        <v>5.124333333333331</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J183" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="K183" t="n">
-        <v>15.15151515151513</v>
-      </c>
-      <c r="L183" t="n">
-        <v>5.106999999999999</v>
-      </c>
-      <c r="M183" t="n">
-        <v>5.125000000000002</v>
-      </c>
-      <c r="N183" t="n">
-        <v>5.162000000000002</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E184" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F184" t="n">
-        <v>8700000</v>
-      </c>
-      <c r="G184" t="n">
-        <v>5.126666666666665</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J184" t="n">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="K184" t="n">
-        <v>18.75000000000025</v>
-      </c>
-      <c r="L184" t="n">
-        <v>5.107999999999999</v>
-      </c>
-      <c r="M184" t="n">
-        <v>5.124000000000001</v>
-      </c>
-      <c r="N184" t="n">
-        <v>5.159000000000002</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E185" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F185" t="n">
-        <v>9017132.547700001</v>
-      </c>
-      <c r="G185" t="n">
-        <v>5.127833333333332</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J185" t="n">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="K185" t="n">
-        <v>18.75000000000025</v>
-      </c>
-      <c r="L185" t="n">
-        <v>5.113999999999999</v>
-      </c>
-      <c r="M185" t="n">
-        <v>5.123</v>
-      </c>
-      <c r="N185" t="n">
-        <v>5.154333333333335</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D186" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E186" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F186" t="n">
-        <v>17984276.855</v>
-      </c>
-      <c r="G186" t="n">
-        <v>5.129999999999999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J186" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K186" t="n">
-        <v>26.66666666666678</v>
-      </c>
-      <c r="L186" t="n">
-        <v>5.118999999999999</v>
-      </c>
-      <c r="M186" t="n">
-        <v>5.122000000000001</v>
-      </c>
-      <c r="N186" t="n">
-        <v>5.149333333333334</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E187" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F187" t="n">
-        <v>26919802.1622</v>
-      </c>
-      <c r="G187" t="n">
-        <v>5.132166666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J187" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K187" t="n">
-        <v>26.66666666666678</v>
-      </c>
-      <c r="L187" t="n">
-        <v>5.126999999999999</v>
-      </c>
-      <c r="M187" t="n">
-        <v>5.122000000000001</v>
-      </c>
-      <c r="N187" t="n">
-        <v>5.144000000000001</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="D188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="E188" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1390</v>
-      </c>
-      <c r="G188" t="n">
-        <v>5.134333333333332</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J188" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K188" t="n">
-        <v>12.00000000000014</v>
-      </c>
-      <c r="L188" t="n">
-        <v>5.136999999999999</v>
-      </c>
-      <c r="M188" t="n">
-        <v>5.123</v>
-      </c>
-      <c r="N188" t="n">
-        <v>5.139333333333334</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F189" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G189" t="n">
-        <v>5.137333333333332</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J189" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K189" t="n">
-        <v>54.54545454545465</v>
-      </c>
-      <c r="L189" t="n">
-        <v>5.142999999999999</v>
-      </c>
-      <c r="M189" t="n">
-        <v>5.128000000000001</v>
-      </c>
-      <c r="N189" t="n">
-        <v>5.141</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="C190" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="D190" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="E190" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F190" t="n">
-        <v>16191.645</v>
-      </c>
-      <c r="G190" t="n">
-        <v>5.141166666666666</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J190" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="K190" t="n">
-        <v>64.28571428571433</v>
-      </c>
-      <c r="L190" t="n">
-        <v>5.161</v>
-      </c>
-      <c r="M190" t="n">
-        <v>5.133500000000001</v>
-      </c>
-      <c r="N190" t="n">
-        <v>5.144333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="C191" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D191" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="E191" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F191" t="n">
-        <v>59447.2988</v>
-      </c>
-      <c r="G191" t="n">
-        <v>5.143333333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J191" t="n">
-        <v>6.569999999999999</v>
-      </c>
-      <c r="K191" t="n">
-        <v>21.05263157894744</v>
-      </c>
-      <c r="L191" t="n">
-        <v>5.169</v>
-      </c>
-      <c r="M191" t="n">
-        <v>5.134</v>
-      </c>
-      <c r="N191" t="n">
-        <v>5.144333333333333</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="C192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="D192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E192" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="F192" t="n">
-        <v>121.7727</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5.145500000000001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J192" t="n">
-        <v>6.569999999999999</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-15.38461538461546</v>
-      </c>
-      <c r="L192" t="n">
-        <v>5.177</v>
-      </c>
-      <c r="M192" t="n">
-        <v>5.137</v>
-      </c>
-      <c r="N192" t="n">
-        <v>5.142333333333332</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -4091,17 +4091,13 @@
         <v>5.134666666666665</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K106" t="n">
-        <v>5.01</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
@@ -4130,362 +4126,314 @@
         <v>5.130166666666666</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>5.01</v>
       </c>
-      <c r="K107" t="n">
+      <c r="C108" t="n">
         <v>5.01</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="D108" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F108" t="n">
+        <v>81115.63</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.124666666666666</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F109" t="n">
+        <v>195279.2668</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.119166666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F110" t="n">
+        <v>157718.3865</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.114499999999999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F111" t="n">
+        <v>44093.6042</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.111499999999999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>44193.6042</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.107499999999999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F113" t="n">
+        <v>26811.97</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.103666666666665</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5</v>
+      </c>
+      <c r="K113" t="n">
+        <v>5</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F114" t="n">
+        <v>260680.7773916505</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.104666666666665</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="K114" t="n">
+        <v>5</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C108" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D108" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E108" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F108" t="n">
-        <v>81115.63</v>
-      </c>
-      <c r="G108" t="n">
-        <v>5.124666666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K108" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F115" t="n">
+        <v>75258.05825242719</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.105833333333332</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K115" t="n">
+        <v>5</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C109" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D109" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E109" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F109" t="n">
-        <v>195279.2668</v>
-      </c>
-      <c r="G109" t="n">
-        <v>5.119166666666667</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D110" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F110" t="n">
-        <v>157718.3865</v>
-      </c>
-      <c r="G110" t="n">
-        <v>5.114499999999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F111" t="n">
-        <v>44093.6042</v>
-      </c>
-      <c r="G111" t="n">
-        <v>5.111499999999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5</v>
-      </c>
-      <c r="D112" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E112" t="n">
-        <v>5</v>
-      </c>
-      <c r="F112" t="n">
-        <v>44193.6042</v>
-      </c>
-      <c r="G112" t="n">
-        <v>5.107499999999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="D113" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E113" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F113" t="n">
-        <v>26811.97</v>
-      </c>
-      <c r="G113" t="n">
-        <v>5.103666666666665</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D114" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E114" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="F114" t="n">
-        <v>260680.7773916505</v>
-      </c>
-      <c r="G114" t="n">
-        <v>5.104666666666665</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F115" t="n">
-        <v>75258.05825242719</v>
-      </c>
-      <c r="G115" t="n">
-        <v>5.105833333333332</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4513,22 +4461,14 @@
         <v>5.106333333333331</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4556,22 +4496,14 @@
         <v>5.105666666666664</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="K117" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4605,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4646,14 +4572,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4687,14 +4607,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4728,14 +4642,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4677,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4810,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4892,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4927,22 +4811,14 @@
         <v>5.097499999999997</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4970,22 +4846,14 @@
         <v>5.094666666666663</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5013,22 +4881,14 @@
         <v>5.093833333333331</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5056,22 +4916,14 @@
         <v>5.090499999999996</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5099,22 +4951,14 @@
         <v>5.087333333333329</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5142,22 +4986,14 @@
         <v>5.084333333333329</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5185,22 +5021,14 @@
         <v>5.081499999999995</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K132" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5228,22 +5056,14 @@
         <v>5.079999999999995</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K133" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5271,22 +5091,14 @@
         <v>5.078666666666662</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K134" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5314,22 +5126,14 @@
         <v>5.078833333333329</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K135" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5357,22 +5161,14 @@
         <v>5.077166666666661</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K136" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5400,22 +5196,14 @@
         <v>5.076166666666662</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K137" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5443,22 +5231,14 @@
         <v>5.075333333333329</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K138" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5486,22 +5266,14 @@
         <v>5.071999999999995</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5529,22 +5301,14 @@
         <v>5.071166666666661</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="K140" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5572,22 +5336,14 @@
         <v>5.070499999999995</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K141" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5621,14 +5377,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5662,14 +5412,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5703,14 +5447,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5785,14 +5517,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5826,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5867,14 +5587,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5908,14 +5622,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5949,14 +5657,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5990,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6031,14 +5727,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6072,14 +5762,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6113,14 +5797,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6154,14 +5832,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6195,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6236,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6274,19 +5934,13 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>1.054880239520958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6315,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6350,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C2" t="n">
         <v>5.19</v>
       </c>
-      <c r="C2" t="n">
-        <v>5.21</v>
-      </c>
       <c r="D2" t="n">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="E2" t="n">
-        <v>5.19</v>
+        <v>5.14</v>
       </c>
       <c r="F2" t="n">
-        <v>82330.1826</v>
+        <v>114420.1826</v>
       </c>
       <c r="G2" t="n">
-        <v>5.1555</v>
+        <v>5.154666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.22</v>
+        <v>5.19</v>
       </c>
       <c r="C3" t="n">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="D3" t="n">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="E3" t="n">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="F3" t="n">
-        <v>461223.2298582061</v>
+        <v>82330.1826</v>
       </c>
       <c r="G3" t="n">
-        <v>5.156000000000001</v>
+        <v>5.1555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C4" t="n">
         <v>5.24</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.25</v>
-      </c>
       <c r="D4" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="E4" t="n">
-        <v>5.24</v>
+        <v>5.21</v>
       </c>
       <c r="F4" t="n">
-        <v>3808540.323637032</v>
+        <v>461223.2298582061</v>
       </c>
       <c r="G4" t="n">
-        <v>5.157333333333333</v>
+        <v>5.156000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="C5" t="n">
         <v>5.25</v>
@@ -547,13 +547,13 @@
         <v>5.25</v>
       </c>
       <c r="E5" t="n">
-        <v>5.25</v>
+        <v>5.24</v>
       </c>
       <c r="F5" t="n">
-        <v>80614.43054285714</v>
+        <v>3808540.323637032</v>
       </c>
       <c r="G5" t="n">
-        <v>5.157833333333333</v>
+        <v>5.157333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="C6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="D6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="F6" t="n">
-        <v>14533.4775</v>
+        <v>80614.43054285714</v>
       </c>
       <c r="G6" t="n">
-        <v>5.157</v>
+        <v>5.157833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>5.23</v>
       </c>
       <c r="F7" t="n">
-        <v>82484.10279999999</v>
+        <v>14533.4775</v>
       </c>
       <c r="G7" t="n">
-        <v>5.155500000000001</v>
+        <v>5.157</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>5.23</v>
       </c>
       <c r="C8" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="E8" t="n">
         <v>5.23</v>
       </c>
       <c r="F8" t="n">
-        <v>1397497.919261905</v>
+        <v>82484.10279999999</v>
       </c>
       <c r="G8" t="n">
-        <v>5.154000000000001</v>
+        <v>5.155500000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="C9" t="n">
         <v>5.25</v>
       </c>
-      <c r="C9" t="n">
-        <v>5.28</v>
-      </c>
       <c r="D9" t="n">
-        <v>5.28</v>
+        <v>5.25</v>
       </c>
       <c r="E9" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="F9" t="n">
-        <v>43228.7388</v>
+        <v>1397497.919261905</v>
       </c>
       <c r="G9" t="n">
-        <v>5.155</v>
+        <v>5.154000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="C10" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="D10" t="n">
-        <v>5.3</v>
+        <v>5.28</v>
       </c>
       <c r="E10" t="n">
-        <v>5.27</v>
+        <v>5.25</v>
       </c>
       <c r="F10" t="n">
-        <v>361207.3103</v>
+        <v>43228.7388</v>
       </c>
       <c r="G10" t="n">
-        <v>5.156000000000001</v>
+        <v>5.155</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="C11" t="n">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="D11" t="n">
-        <v>5.33</v>
+        <v>5.3</v>
       </c>
       <c r="E11" t="n">
-        <v>5.33</v>
+        <v>5.27</v>
       </c>
       <c r="F11" t="n">
-        <v>87195.41959999999</v>
+        <v>361207.3103</v>
       </c>
       <c r="G11" t="n">
-        <v>5.156333333333333</v>
+        <v>5.156000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>5.33</v>
       </c>
       <c r="C12" t="n">
-        <v>5.35</v>
+        <v>5.33</v>
       </c>
       <c r="D12" t="n">
-        <v>5.35</v>
+        <v>5.33</v>
       </c>
       <c r="E12" t="n">
         <v>5.33</v>
       </c>
       <c r="F12" t="n">
-        <v>32069.5338</v>
+        <v>87195.41959999999</v>
       </c>
       <c r="G12" t="n">
-        <v>5.156666666666667</v>
+        <v>5.156333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C13" t="n">
         <v>5.35</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.33</v>
-      </c>
       <c r="D13" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="E13" t="n">
         <v>5.33</v>
       </c>
       <c r="F13" t="n">
-        <v>628180.1126</v>
+        <v>32069.5338</v>
       </c>
       <c r="G13" t="n">
-        <v>5.156000000000001</v>
+        <v>5.156666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="C14" t="n">
         <v>5.33</v>
       </c>
       <c r="D14" t="n">
-        <v>5.34</v>
+        <v>5.4</v>
       </c>
       <c r="E14" t="n">
         <v>5.33</v>
       </c>
       <c r="F14" t="n">
-        <v>266158.2332</v>
+        <v>628180.1126</v>
       </c>
       <c r="G14" t="n">
-        <v>5.154833333333333</v>
+        <v>5.156000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.37</v>
+        <v>5.34</v>
       </c>
       <c r="C15" t="n">
-        <v>5.4</v>
+        <v>5.33</v>
       </c>
       <c r="D15" t="n">
-        <v>5.4</v>
+        <v>5.34</v>
       </c>
       <c r="E15" t="n">
-        <v>5.37</v>
+        <v>5.33</v>
       </c>
       <c r="F15" t="n">
-        <v>87358.5215</v>
+        <v>266158.2332</v>
       </c>
       <c r="G15" t="n">
-        <v>5.159833333333333</v>
+        <v>5.154833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -923,28 +923,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.31</v>
+        <v>5.37</v>
       </c>
       <c r="C16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="D16" t="n">
-        <v>5.31</v>
+        <v>5.4</v>
       </c>
       <c r="E16" t="n">
-        <v>5.3</v>
+        <v>5.37</v>
       </c>
       <c r="F16" t="n">
-        <v>285183.109</v>
+        <v>87358.5215</v>
       </c>
       <c r="G16" t="n">
-        <v>5.159999999999999</v>
+        <v>5.159833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.39</v>
+        <v>5.31</v>
       </c>
       <c r="C17" t="n">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
       <c r="D17" t="n">
-        <v>5.39</v>
+        <v>5.31</v>
       </c>
       <c r="E17" t="n">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>285183.109</v>
       </c>
       <c r="G17" t="n">
-        <v>5.161166666666666</v>
+        <v>5.159999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,16 +1005,16 @@
         <v>5.39</v>
       </c>
       <c r="F18" t="n">
-        <v>39189.4017</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>5.165666666666666</v>
+        <v>5.161166666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="C19" t="n">
         <v>5.39</v>
       </c>
       <c r="D19" t="n">
-        <v>5.4</v>
+        <v>5.39</v>
       </c>
       <c r="E19" t="n">
         <v>5.39</v>
       </c>
       <c r="F19" t="n">
-        <v>1167934.602</v>
+        <v>39189.4017</v>
       </c>
       <c r="G19" t="n">
-        <v>5.170333333333332</v>
+        <v>5.165666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>5.39</v>
       </c>
       <c r="F20" t="n">
-        <v>818430.0311</v>
+        <v>1167934.602</v>
       </c>
       <c r="G20" t="n">
-        <v>5.174999999999998</v>
+        <v>5.170333333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="D21" t="n">
-        <v>5.41</v>
+        <v>5.4</v>
       </c>
       <c r="E21" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="F21" t="n">
-        <v>56760.72088724584</v>
+        <v>818430.0311</v>
       </c>
       <c r="G21" t="n">
-        <v>5.178166666666665</v>
+        <v>5.174999999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>5.41</v>
       </c>
       <c r="C22" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="D22" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="E22" t="n">
         <v>5.41</v>
       </c>
       <c r="F22" t="n">
-        <v>102533.2928191762</v>
+        <v>56760.72088724584</v>
       </c>
       <c r="G22" t="n">
-        <v>5.183333333333332</v>
+        <v>5.178166666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="C23" t="n">
         <v>5.45</v>
@@ -1177,13 +1177,13 @@
         <v>5.45</v>
       </c>
       <c r="E23" t="n">
-        <v>5.45</v>
+        <v>5.41</v>
       </c>
       <c r="F23" t="n">
-        <v>22313.3487</v>
+        <v>102533.2928191762</v>
       </c>
       <c r="G23" t="n">
-        <v>5.187666666666664</v>
+        <v>5.183333333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>5.45</v>
       </c>
       <c r="C24" t="n">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="D24" t="n">
-        <v>5.48</v>
+        <v>5.45</v>
       </c>
       <c r="E24" t="n">
-        <v>5.3</v>
+        <v>5.45</v>
       </c>
       <c r="F24" t="n">
-        <v>2414411.1258</v>
+        <v>22313.3487</v>
       </c>
       <c r="G24" t="n">
-        <v>5.192999999999999</v>
+        <v>5.187666666666664</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.46</v>
+        <v>5.45</v>
       </c>
       <c r="C25" t="n">
         <v>5.47</v>
       </c>
       <c r="D25" t="n">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="E25" t="n">
-        <v>5.46</v>
+        <v>5.3</v>
       </c>
       <c r="F25" t="n">
-        <v>62731.53216745886</v>
+        <v>2414411.1258</v>
       </c>
       <c r="G25" t="n">
-        <v>5.200833333333333</v>
+        <v>5.192999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="C26" t="n">
         <v>5.47</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.46</v>
       </c>
       <c r="D26" t="n">
         <v>5.47</v>
@@ -1285,10 +1285,10 @@
         <v>5.46</v>
       </c>
       <c r="F26" t="n">
-        <v>215030.7447</v>
+        <v>62731.53216745886</v>
       </c>
       <c r="G26" t="n">
-        <v>5.207499999999999</v>
+        <v>5.200833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.39</v>
+        <v>5.47</v>
       </c>
       <c r="C27" t="n">
-        <v>5.44</v>
+        <v>5.46</v>
       </c>
       <c r="D27" t="n">
         <v>5.47</v>
       </c>
       <c r="E27" t="n">
-        <v>5.31</v>
+        <v>5.46</v>
       </c>
       <c r="F27" t="n">
-        <v>492036.056963072</v>
+        <v>215030.7447</v>
       </c>
       <c r="G27" t="n">
-        <v>5.214833333333332</v>
+        <v>5.207499999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.43</v>
+        <v>5.39</v>
       </c>
       <c r="C28" t="n">
-        <v>5.46</v>
+        <v>5.44</v>
       </c>
       <c r="D28" t="n">
-        <v>5.46</v>
+        <v>5.47</v>
       </c>
       <c r="E28" t="n">
-        <v>5.32</v>
+        <v>5.31</v>
       </c>
       <c r="F28" t="n">
-        <v>63358.38580771558</v>
+        <v>492036.056963072</v>
       </c>
       <c r="G28" t="n">
-        <v>5.219166666666665</v>
+        <v>5.214833333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="C29" t="n">
         <v>5.46</v>
-      </c>
-      <c r="C29" t="n">
-        <v>5.36</v>
       </c>
       <c r="D29" t="n">
         <v>5.46</v>
       </c>
       <c r="E29" t="n">
-        <v>5.31</v>
+        <v>5.32</v>
       </c>
       <c r="F29" t="n">
-        <v>72897.44414308567</v>
+        <v>63358.38580771558</v>
       </c>
       <c r="G29" t="n">
-        <v>5.224333333333332</v>
+        <v>5.219166666666665</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.33</v>
+        <v>5.46</v>
       </c>
       <c r="C30" t="n">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="D30" t="n">
-        <v>5.34</v>
+        <v>5.46</v>
       </c>
       <c r="E30" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="F30" t="n">
-        <v>1438082.983</v>
+        <v>72897.44414308567</v>
       </c>
       <c r="G30" t="n">
-        <v>5.229166666666665</v>
+        <v>5.224333333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="C31" t="n">
         <v>5.34</v>
@@ -1457,13 +1457,13 @@
         <v>5.34</v>
       </c>
       <c r="E31" t="n">
-        <v>5.34</v>
+        <v>5.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>1438082.983</v>
       </c>
       <c r="G31" t="n">
-        <v>5.233833333333331</v>
+        <v>5.229166666666665</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.31</v>
+        <v>5.34</v>
       </c>
       <c r="C32" t="n">
-        <v>5.15</v>
+        <v>5.34</v>
       </c>
       <c r="D32" t="n">
-        <v>5.31</v>
+        <v>5.34</v>
       </c>
       <c r="E32" t="n">
-        <v>5.15</v>
+        <v>5.34</v>
       </c>
       <c r="F32" t="n">
-        <v>2087919.3815</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="n">
-        <v>5.235333333333331</v>
+        <v>5.233833333333331</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="C33" t="n">
-        <v>5.3</v>
+        <v>5.15</v>
       </c>
       <c r="D33" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="E33" t="n">
-        <v>5.3</v>
+        <v>5.15</v>
       </c>
       <c r="F33" t="n">
-        <v>550</v>
+        <v>2087919.3815</v>
       </c>
       <c r="G33" t="n">
-        <v>5.238333333333331</v>
+        <v>5.235333333333331</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="C34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="D34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="E34" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="F34" t="n">
-        <v>43598.101</v>
+        <v>550</v>
       </c>
       <c r="G34" t="n">
-        <v>5.238999999999998</v>
+        <v>5.238333333333331</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>5.25</v>
       </c>
       <c r="C35" t="n">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
       <c r="D35" t="n">
         <v>5.25</v>
       </c>
       <c r="E35" t="n">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
       <c r="F35" t="n">
-        <v>231627.4271</v>
+        <v>43598.101</v>
       </c>
       <c r="G35" t="n">
-        <v>5.238166666666664</v>
+        <v>5.238999999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="C36" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="D36" t="n">
-        <v>5.18</v>
+        <v>5.25</v>
       </c>
       <c r="E36" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="F36" t="n">
-        <v>7926.979</v>
+        <v>231627.4271</v>
       </c>
       <c r="G36" t="n">
-        <v>5.239499999999998</v>
+        <v>5.238166666666664</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="C37" t="n">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="D37" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="E37" t="n">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="F37" t="n">
-        <v>105613.3775</v>
+        <v>7926.979</v>
       </c>
       <c r="G37" t="n">
-        <v>5.240499999999998</v>
+        <v>5.239499999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.26</v>
+        <v>5.16</v>
       </c>
       <c r="C38" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="D38" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="E38" t="n">
-        <v>5.26</v>
+        <v>5.16</v>
       </c>
       <c r="F38" t="n">
-        <v>1430679.3081</v>
+        <v>105613.3775</v>
       </c>
       <c r="G38" t="n">
-        <v>5.242333333333332</v>
+        <v>5.240499999999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="C39" t="n">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="D39" t="n">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="E39" t="n">
-        <v>5.29</v>
+        <v>5.26</v>
       </c>
       <c r="F39" t="n">
-        <v>24200.1182</v>
+        <v>1430679.3081</v>
       </c>
       <c r="G39" t="n">
-        <v>5.245666666666666</v>
+        <v>5.242333333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="C40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="D40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="E40" t="n">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>24200.1182</v>
       </c>
       <c r="G40" t="n">
-        <v>5.248499999999999</v>
+        <v>5.245666666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="C41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="D41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="E41" t="n">
-        <v>5.3</v>
+        <v>5.36</v>
       </c>
       <c r="F41" t="n">
-        <v>1684.7114</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>5.249666666666666</v>
+        <v>5.248499999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>5.3</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3053</v>
+        <v>1684.7114</v>
       </c>
       <c r="G42" t="n">
-        <v>5.251333333333333</v>
+        <v>5.249666666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="C43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="D43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="E43" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>137.3053</v>
       </c>
       <c r="G43" t="n">
-        <v>5.2535</v>
+        <v>5.251333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>5.35</v>
       </c>
       <c r="F44" t="n">
-        <v>506.8588</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>5.256666666666666</v>
+        <v>5.2535</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.33</v>
+        <v>5.35</v>
       </c>
       <c r="C45" t="n">
         <v>5.35</v>
@@ -1947,13 +1947,13 @@
         <v>5.35</v>
       </c>
       <c r="E45" t="n">
-        <v>5.33</v>
+        <v>5.35</v>
       </c>
       <c r="F45" t="n">
-        <v>28137.03498616822</v>
+        <v>506.8588</v>
       </c>
       <c r="G45" t="n">
-        <v>5.259833333333333</v>
+        <v>5.256666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="C46" t="n">
-        <v>5.29</v>
+        <v>5.35</v>
       </c>
       <c r="D46" t="n">
-        <v>5.3</v>
+        <v>5.35</v>
       </c>
       <c r="E46" t="n">
-        <v>5.29</v>
+        <v>5.33</v>
       </c>
       <c r="F46" t="n">
-        <v>144757.556</v>
+        <v>28137.03498616822</v>
       </c>
       <c r="G46" t="n">
-        <v>5.262833333333333</v>
+        <v>5.259833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="C47" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="D47" t="n">
-        <v>5.28</v>
+        <v>5.3</v>
       </c>
       <c r="E47" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="F47" t="n">
-        <v>28137.035</v>
+        <v>144757.556</v>
       </c>
       <c r="G47" t="n">
-        <v>5.266499999999999</v>
+        <v>5.262833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="C48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="D48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="E48" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="F48" t="n">
-        <v>21930</v>
+        <v>28137.035</v>
       </c>
       <c r="G48" t="n">
-        <v>5.271999999999999</v>
+        <v>5.266499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>5.34</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>21930</v>
       </c>
       <c r="G49" t="n">
-        <v>5.276666666666666</v>
+        <v>5.271999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="C50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="D50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="E50" t="n">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="F50" t="n">
-        <v>3388.1936</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>5.281166666666666</v>
+        <v>5.276666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="C51" t="n">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="D51" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="E51" t="n">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="F51" t="n">
-        <v>670786.8859</v>
+        <v>3388.1936</v>
       </c>
       <c r="G51" t="n">
-        <v>5.282999999999999</v>
+        <v>5.281166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.17</v>
+        <v>5.28</v>
       </c>
       <c r="C52" t="n">
-        <v>5.24</v>
+        <v>5.19</v>
       </c>
       <c r="D52" t="n">
-        <v>5.24</v>
+        <v>5.28</v>
       </c>
       <c r="E52" t="n">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="F52" t="n">
-        <v>1191528.9555</v>
+        <v>670786.8859</v>
       </c>
       <c r="G52" t="n">
-        <v>5.285666666666667</v>
+        <v>5.282999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.24</v>
+        <v>5.17</v>
       </c>
       <c r="C53" t="n">
         <v>5.24</v>
@@ -2227,13 +2227,13 @@
         <v>5.24</v>
       </c>
       <c r="E53" t="n">
-        <v>5.24</v>
+        <v>5.09</v>
       </c>
       <c r="F53" t="n">
-        <v>21685.717</v>
+        <v>1191528.9555</v>
       </c>
       <c r="G53" t="n">
-        <v>5.288666666666667</v>
+        <v>5.285666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="C54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="D54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="E54" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="F54" t="n">
-        <v>707351.8783</v>
+        <v>21685.717</v>
       </c>
       <c r="G54" t="n">
-        <v>5.289666666666666</v>
+        <v>5.288666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>5.09</v>
       </c>
       <c r="C55" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="D55" t="n">
         <v>5.09</v>
       </c>
       <c r="E55" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="F55" t="n">
-        <v>203069.0817</v>
+        <v>707351.8783</v>
       </c>
       <c r="G55" t="n">
-        <v>5.2905</v>
+        <v>5.289666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.17</v>
+        <v>5.09</v>
       </c>
       <c r="C56" t="n">
-        <v>5.18</v>
+        <v>5.08</v>
       </c>
       <c r="D56" t="n">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="E56" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="F56" t="n">
-        <v>192775.2915</v>
+        <v>203069.0817</v>
       </c>
       <c r="G56" t="n">
-        <v>5.292166666666668</v>
+        <v>5.2905</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,31 +2358,35 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="C57" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="D57" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="E57" t="n">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>192775.2915</v>
       </c>
       <c r="G57" t="n">
-        <v>5.295333333333334</v>
+        <v>5.292166666666668</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K57" t="n">
+        <v>5.08</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
@@ -2393,22 +2397,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="C58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="D58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="E58" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="F58" t="n">
-        <v>9683.9288</v>
+        <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>5.294666666666667</v>
+        <v>5.295333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2421,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2438,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.17</v>
+        <v>5.09</v>
       </c>
       <c r="C59" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="D59" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="E59" t="n">
-        <v>5.17</v>
+        <v>5.09</v>
       </c>
       <c r="F59" t="n">
-        <v>18602891.009</v>
+        <v>9683.9288</v>
       </c>
       <c r="G59" t="n">
-        <v>5.296666666666667</v>
+        <v>5.294666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2462,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.09</v>
+        <v>5.17</v>
       </c>
       <c r="C60" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="D60" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="E60" t="n">
-        <v>5.09</v>
+        <v>5.17</v>
       </c>
       <c r="F60" t="n">
-        <v>284034.8952</v>
+        <v>18602891.009</v>
       </c>
       <c r="G60" t="n">
-        <v>5.296499999999999</v>
+        <v>5.296666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="C61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="D61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="E61" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>284034.8952</v>
       </c>
       <c r="G61" t="n">
-        <v>5.297</v>
+        <v>5.296499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="C62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="D62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="E62" t="n">
-        <v>5.19</v>
+        <v>5.22</v>
       </c>
       <c r="F62" t="n">
-        <v>9438.032999999999</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>5.296666666666667</v>
+        <v>5.297</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="C63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="D63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="E63" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="F63" t="n">
-        <v>13875.04835589942</v>
+        <v>9438.032999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>5.295500000000001</v>
+        <v>5.296666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="C64" t="n">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="D64" t="n">
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="E64" t="n">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="F64" t="n">
-        <v>277955.2069</v>
+        <v>13875.04835589942</v>
       </c>
       <c r="G64" t="n">
-        <v>5.293000000000001</v>
+        <v>5.295500000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C65" t="n">
         <v>5.1</v>
       </c>
       <c r="D65" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="E65" t="n">
         <v>5.1</v>
       </c>
       <c r="F65" t="n">
-        <v>21528.7063</v>
+        <v>277955.2069</v>
       </c>
       <c r="G65" t="n">
-        <v>5.290500000000001</v>
+        <v>5.293000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2701,10 @@
         <v>5.1</v>
       </c>
       <c r="F66" t="n">
-        <v>4119.2708</v>
+        <v>21528.7063</v>
       </c>
       <c r="G66" t="n">
-        <v>5.288333333333335</v>
+        <v>5.290500000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2727,19 @@
         <v>5.1</v>
       </c>
       <c r="C67" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
       <c r="D67" t="n">
-        <v>5.19</v>
+        <v>5.1</v>
       </c>
       <c r="E67" t="n">
         <v>5.1</v>
       </c>
       <c r="F67" t="n">
-        <v>16918743.5368</v>
+        <v>4119.2708</v>
       </c>
       <c r="G67" t="n">
-        <v>5.287666666666667</v>
+        <v>5.288333333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.13</v>
+        <v>5.1</v>
       </c>
       <c r="C68" t="n">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="D68" t="n">
-        <v>5.13</v>
+        <v>5.19</v>
       </c>
       <c r="E68" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F68" t="n">
-        <v>97017.5803</v>
+        <v>16918743.5368</v>
       </c>
       <c r="G68" t="n">
-        <v>5.285</v>
+        <v>5.287666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.19</v>
+        <v>5.13</v>
       </c>
       <c r="C69" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="D69" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="E69" t="n">
-        <v>5.19</v>
+        <v>5.09</v>
       </c>
       <c r="F69" t="n">
-        <v>111</v>
+        <v>97017.5803</v>
       </c>
       <c r="G69" t="n">
-        <v>5.284000000000002</v>
+        <v>5.285</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2829,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.22</v>
+        <v>5.19</v>
       </c>
       <c r="C70" t="n">
         <v>5.22</v>
@@ -2822,13 +2838,13 @@
         <v>5.22</v>
       </c>
       <c r="E70" t="n">
-        <v>5.22</v>
+        <v>5.19</v>
       </c>
       <c r="F70" t="n">
-        <v>40091.9177</v>
+        <v>111</v>
       </c>
       <c r="G70" t="n">
-        <v>5.282666666666668</v>
+        <v>5.284000000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2864,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="C71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="D71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="E71" t="n">
-        <v>5.21</v>
+        <v>5.22</v>
       </c>
       <c r="F71" t="n">
-        <v>980</v>
+        <v>40091.9177</v>
       </c>
       <c r="G71" t="n">
-        <v>5.280666666666668</v>
+        <v>5.282666666666668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="C72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="D72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="E72" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="F72" t="n">
-        <v>13893.6102</v>
+        <v>980</v>
       </c>
       <c r="G72" t="n">
-        <v>5.278166666666667</v>
+        <v>5.280666666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="C73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="D73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="E73" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="F73" t="n">
-        <v>13100</v>
+        <v>13893.6102</v>
       </c>
       <c r="G73" t="n">
-        <v>5.275500000000002</v>
+        <v>5.278166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="C74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="D74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="E74" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="F74" t="n">
-        <v>13009.4994</v>
+        <v>13100</v>
       </c>
       <c r="G74" t="n">
-        <v>5.273000000000001</v>
+        <v>5.275500000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.14</v>
+        <v>5.18</v>
       </c>
       <c r="C75" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="D75" t="n">
-        <v>5.14</v>
+        <v>5.18</v>
       </c>
       <c r="E75" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="F75" t="n">
-        <v>460674.5494</v>
+        <v>13009.4994</v>
       </c>
       <c r="G75" t="n">
-        <v>5.267833333333335</v>
+        <v>5.273000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="C76" t="n">
-        <v>5.19</v>
+        <v>5.09</v>
       </c>
       <c r="D76" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="E76" t="n">
-        <v>5.13</v>
+        <v>5.09</v>
       </c>
       <c r="F76" t="n">
-        <v>64626.60670520231</v>
+        <v>460674.5494</v>
       </c>
       <c r="G76" t="n">
-        <v>5.266000000000002</v>
+        <v>5.267833333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C77" t="n">
         <v>5.19</v>
       </c>
-      <c r="C77" t="n">
-        <v>5.15</v>
-      </c>
       <c r="D77" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="E77" t="n">
-        <v>5.15</v>
+        <v>5.13</v>
       </c>
       <c r="F77" t="n">
-        <v>34907.76317541189</v>
+        <v>64626.60670520231</v>
       </c>
       <c r="G77" t="n">
-        <v>5.262000000000001</v>
+        <v>5.266000000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="C78" t="n">
-        <v>5.14</v>
+        <v>5.15</v>
       </c>
       <c r="D78" t="n">
         <v>5.21</v>
       </c>
       <c r="E78" t="n">
-        <v>5.14</v>
+        <v>5.15</v>
       </c>
       <c r="F78" t="n">
-        <v>28436.4074</v>
+        <v>34907.76317541189</v>
       </c>
       <c r="G78" t="n">
-        <v>5.257833333333335</v>
+        <v>5.262000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="C79" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="D79" t="n">
-        <v>5.2</v>
+        <v>5.21</v>
       </c>
       <c r="E79" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>28436.4074</v>
       </c>
       <c r="G79" t="n">
-        <v>5.254666666666668</v>
+        <v>5.257833333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="C80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="D80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="E80" t="n">
-        <v>5.11</v>
+        <v>5.2</v>
       </c>
       <c r="F80" t="n">
-        <v>9347.338299999999</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>5.250000000000002</v>
+        <v>5.254666666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3217,19 @@
         <v>5.11</v>
       </c>
       <c r="C81" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="D81" t="n">
         <v>5.11</v>
       </c>
       <c r="E81" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="F81" t="n">
-        <v>118268.3505</v>
+        <v>9347.338299999999</v>
       </c>
       <c r="G81" t="n">
-        <v>5.244833333333335</v>
+        <v>5.250000000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="C82" t="n">
         <v>5.1</v>
       </c>
       <c r="D82" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="E82" t="n">
         <v>5.1</v>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>118268.3505</v>
       </c>
       <c r="G82" t="n">
-        <v>5.239000000000003</v>
+        <v>5.244833333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="D83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="E83" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F83" t="n">
-        <v>71000</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>5.233000000000002</v>
+        <v>5.239000000000003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3331,10 @@
         <v>5.09</v>
       </c>
       <c r="F84" t="n">
-        <v>43316.9365</v>
+        <v>71000</v>
       </c>
       <c r="G84" t="n">
-        <v>5.226666666666668</v>
+        <v>5.233000000000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="D85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="E85" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="F85" t="n">
-        <v>9224.914500000001</v>
+        <v>43316.9365</v>
       </c>
       <c r="G85" t="n">
-        <v>5.220500000000001</v>
+        <v>5.226666666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="C86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="D86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="E86" t="n">
-        <v>5.11</v>
+        <v>5.1</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>9224.914500000001</v>
       </c>
       <c r="G86" t="n">
-        <v>5.214666666666669</v>
+        <v>5.220500000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="C87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="D87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="E87" t="n">
-        <v>5.09</v>
+        <v>5.11</v>
       </c>
       <c r="F87" t="n">
-        <v>26323.0759</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>5.208833333333335</v>
+        <v>5.214666666666669</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3462,19 @@
         <v>5.09</v>
       </c>
       <c r="C88" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="D88" t="n">
         <v>5.09</v>
       </c>
       <c r="E88" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="F88" t="n">
-        <v>68689.71219999999</v>
+        <v>26323.0759</v>
       </c>
       <c r="G88" t="n">
-        <v>5.202333333333335</v>
+        <v>5.208833333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C89" t="n">
         <v>5.07</v>
       </c>
-      <c r="C89" t="n">
-        <v>5.06</v>
-      </c>
       <c r="D89" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E89" t="n">
         <v>5.07</v>
       </c>
-      <c r="E89" t="n">
-        <v>5.06</v>
-      </c>
       <c r="F89" t="n">
-        <v>275699.6799</v>
+        <v>68689.71219999999</v>
       </c>
       <c r="G89" t="n">
-        <v>5.197333333333335</v>
+        <v>5.202333333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3532,19 @@
         <v>5.07</v>
       </c>
       <c r="C90" t="n">
-        <v>5.07</v>
+        <v>5.06</v>
       </c>
       <c r="D90" t="n">
         <v>5.07</v>
       </c>
       <c r="E90" t="n">
-        <v>5.07</v>
+        <v>5.06</v>
       </c>
       <c r="F90" t="n">
-        <v>19128.5023</v>
+        <v>275699.6799</v>
       </c>
       <c r="G90" t="n">
-        <v>5.192833333333335</v>
+        <v>5.197333333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3576,10 @@
         <v>5.07</v>
       </c>
       <c r="F91" t="n">
-        <v>227750.8093</v>
+        <v>19128.5023</v>
       </c>
       <c r="G91" t="n">
-        <v>5.188333333333335</v>
+        <v>5.192833333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3602,19 @@
         <v>5.07</v>
       </c>
       <c r="C92" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="D92" t="n">
         <v>5.07</v>
       </c>
       <c r="E92" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="F92" t="n">
-        <v>257456.4864</v>
+        <v>227750.8093</v>
       </c>
       <c r="G92" t="n">
-        <v>5.186833333333336</v>
+        <v>5.188333333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="C93" t="n">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="D93" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="E93" t="n">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>257456.4864</v>
       </c>
       <c r="G93" t="n">
-        <v>5.184166666666669</v>
+        <v>5.186833333333336</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="C94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="D94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="F94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G94" t="n">
-        <v>5.181500000000002</v>
+        <v>5.184166666666669</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="C95" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="D95" t="n">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="E95" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="F95" t="n">
-        <v>161735.4703</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>5.180166666666668</v>
+        <v>5.181500000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="C96" t="n">
         <v>5.07</v>
       </c>
       <c r="D96" t="n">
-        <v>5.07</v>
+        <v>5.08</v>
       </c>
       <c r="E96" t="n">
         <v>5.07</v>
       </c>
       <c r="F96" t="n">
-        <v>29034.8646</v>
+        <v>161735.4703</v>
       </c>
       <c r="G96" t="n">
-        <v>5.178500000000001</v>
+        <v>5.180166666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3786,10 @@
         <v>5.07</v>
       </c>
       <c r="F97" t="n">
-        <v>91711.7864</v>
+        <v>29034.8646</v>
       </c>
       <c r="G97" t="n">
-        <v>5.175500000000001</v>
+        <v>5.178500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3821,10 @@
         <v>5.07</v>
       </c>
       <c r="F98" t="n">
-        <v>26683.13</v>
+        <v>91711.7864</v>
       </c>
       <c r="G98" t="n">
-        <v>5.171666666666668</v>
+        <v>5.175500000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3856,10 @@
         <v>5.07</v>
       </c>
       <c r="F99" t="n">
-        <v>29277.5874</v>
+        <v>26683.13</v>
       </c>
       <c r="G99" t="n">
-        <v>5.168000000000001</v>
+        <v>5.171666666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3882,19 @@
         <v>5.07</v>
       </c>
       <c r="C100" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="D100" t="n">
         <v>5.07</v>
       </c>
       <c r="E100" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="F100" t="n">
-        <v>289012.8899</v>
+        <v>29277.5874</v>
       </c>
       <c r="G100" t="n">
-        <v>5.163</v>
+        <v>5.168000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="C101" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="D101" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="E101" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>289012.8899</v>
       </c>
       <c r="G101" t="n">
-        <v>5.1595</v>
+        <v>5.163</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="C102" t="n">
-        <v>5.05</v>
+        <v>5.09</v>
       </c>
       <c r="D102" t="n">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="E102" t="n">
-        <v>5.05</v>
+        <v>5.09</v>
       </c>
       <c r="F102" t="n">
-        <v>2428893.8819</v>
+        <v>500</v>
       </c>
       <c r="G102" t="n">
-        <v>5.155333333333333</v>
+        <v>5.1595</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C103" t="n">
         <v>5.05</v>
       </c>
-      <c r="C103" t="n">
-        <v>5</v>
-      </c>
       <c r="D103" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E103" t="n">
         <v>5.05</v>
       </c>
-      <c r="E103" t="n">
-        <v>5</v>
-      </c>
       <c r="F103" t="n">
-        <v>603149.4020999999</v>
+        <v>2428893.8819</v>
       </c>
       <c r="G103" t="n">
-        <v>5.1495</v>
+        <v>5.155333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.01</v>
+        <v>5.05</v>
       </c>
       <c r="C104" t="n">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
         <v>5.05</v>
       </c>
       <c r="E104" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>244182.2601</v>
+        <v>603149.4020999999</v>
       </c>
       <c r="G104" t="n">
-        <v>5.144499999999999</v>
+        <v>5.1495</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="C105" t="n">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="D105" t="n">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="E105" t="n">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="F105" t="n">
-        <v>540.0486</v>
+        <v>244182.2601</v>
       </c>
       <c r="G105" t="n">
-        <v>5.139333333333332</v>
+        <v>5.144499999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="C106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="D106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="E106" t="n">
-        <v>5.01</v>
+        <v>5.04</v>
       </c>
       <c r="F106" t="n">
-        <v>3306.769</v>
+        <v>540.0486</v>
       </c>
       <c r="G106" t="n">
-        <v>5.134666666666665</v>
+        <v>5.139333333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4136,10 @@
         <v>5.01</v>
       </c>
       <c r="F107" t="n">
-        <v>157619.5041</v>
+        <v>3306.769</v>
       </c>
       <c r="G107" t="n">
-        <v>5.130166666666666</v>
+        <v>5.134666666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4171,10 @@
         <v>5.01</v>
       </c>
       <c r="F108" t="n">
-        <v>81115.63</v>
+        <v>157619.5041</v>
       </c>
       <c r="G108" t="n">
-        <v>5.124666666666666</v>
+        <v>5.130166666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4206,10 @@
         <v>5.01</v>
       </c>
       <c r="F109" t="n">
-        <v>195279.2668</v>
+        <v>81115.63</v>
       </c>
       <c r="G109" t="n">
-        <v>5.119166666666667</v>
+        <v>5.124666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,19 +4241,23 @@
         <v>5.01</v>
       </c>
       <c r="F110" t="n">
-        <v>157718.3865</v>
+        <v>195279.2668</v>
       </c>
       <c r="G110" t="n">
-        <v>5.114499999999999</v>
+        <v>5.119166666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="K110" t="n">
+        <v>5.01</v>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
@@ -4260,10 +4280,10 @@
         <v>5.01</v>
       </c>
       <c r="F111" t="n">
-        <v>44093.6042</v>
+        <v>157718.3865</v>
       </c>
       <c r="G111" t="n">
-        <v>5.111499999999999</v>
+        <v>5.114499999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4286,19 +4312,19 @@
         <v>5.01</v>
       </c>
       <c r="C112" t="n">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="D112" t="n">
         <v>5.01</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="F112" t="n">
-        <v>44193.6042</v>
+        <v>44093.6042</v>
       </c>
       <c r="G112" t="n">
-        <v>5.107499999999999</v>
+        <v>5.111499999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4321,32 +4353,28 @@
         <v>5.01</v>
       </c>
       <c r="C113" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
         <v>5.01</v>
       </c>
       <c r="E113" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>26811.97</v>
+        <v>44193.6042</v>
       </c>
       <c r="G113" t="n">
-        <v>5.103666666666665</v>
+        <v>5.107499999999999</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>5</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
@@ -4360,37 +4388,29 @@
         <v>5.01</v>
       </c>
       <c r="C114" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="D114" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="E114" t="n">
         <v>5.01</v>
       </c>
       <c r="F114" t="n">
-        <v>260680.7773916505</v>
+        <v>26811.97</v>
       </c>
       <c r="G114" t="n">
-        <v>5.104666666666665</v>
+        <v>5.103666666666665</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4400,7 +4420,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="C115" t="n">
         <v>5.15</v>
@@ -4409,31 +4429,23 @@
         <v>5.15</v>
       </c>
       <c r="E115" t="n">
-        <v>5.15</v>
+        <v>5.01</v>
       </c>
       <c r="F115" t="n">
-        <v>75258.05825242719</v>
+        <v>260680.7773916505</v>
       </c>
       <c r="G115" t="n">
-        <v>5.105833333333332</v>
+        <v>5.104666666666665</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4446,19 +4458,19 @@
         <v>5.15</v>
       </c>
       <c r="C116" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="D116" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="E116" t="n">
         <v>5.15</v>
       </c>
       <c r="F116" t="n">
-        <v>34025.25111542329</v>
+        <v>75258.05825242719</v>
       </c>
       <c r="G116" t="n">
-        <v>5.106333333333331</v>
+        <v>5.105833333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4478,7 +4490,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="C117" t="n">
         <v>5.21</v>
@@ -4487,13 +4499,13 @@
         <v>5.21</v>
       </c>
       <c r="E117" t="n">
-        <v>5.21</v>
+        <v>5.15</v>
       </c>
       <c r="F117" t="n">
-        <v>5159.117082533589</v>
+        <v>34025.25111542329</v>
       </c>
       <c r="G117" t="n">
-        <v>5.105666666666664</v>
+        <v>5.106333333333331</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4513,22 +4525,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="C118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="D118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="E118" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="F118" t="n">
-        <v>10392.67822736031</v>
+        <v>5159.117082533589</v>
       </c>
       <c r="G118" t="n">
-        <v>5.107333333333331</v>
+        <v>5.105666666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4560,10 +4572,10 @@
         <v>5.19</v>
       </c>
       <c r="F119" t="n">
-        <v>5196.339113680154</v>
+        <v>10392.67822736031</v>
       </c>
       <c r="G119" t="n">
-        <v>5.106333333333331</v>
+        <v>5.107333333333331</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4583,22 +4595,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="C120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="D120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="E120" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="F120" t="n">
-        <v>6868.3722</v>
+        <v>5196.339113680154</v>
       </c>
       <c r="G120" t="n">
-        <v>5.106499999999999</v>
+        <v>5.106333333333331</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4618,22 +4630,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="C121" t="n">
-        <v>5.01</v>
+        <v>5.1</v>
       </c>
       <c r="D121" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="E121" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F121" t="n">
-        <v>635234.5299</v>
+        <v>6868.3722</v>
       </c>
       <c r="G121" t="n">
-        <v>5.102999999999998</v>
+        <v>5.106499999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4653,22 +4665,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.08</v>
+        <v>5.05</v>
       </c>
       <c r="C122" t="n">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="D122" t="n">
-        <v>5.1</v>
+        <v>5.05</v>
       </c>
       <c r="E122" t="n">
-        <v>5.08</v>
+        <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>106701.0676</v>
+        <v>635234.5299</v>
       </c>
       <c r="G122" t="n">
-        <v>5.101499999999999</v>
+        <v>5.102999999999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4688,7 +4700,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.03</v>
+        <v>5.08</v>
       </c>
       <c r="C123" t="n">
         <v>5.1</v>
@@ -4697,13 +4709,13 @@
         <v>5.1</v>
       </c>
       <c r="E123" t="n">
-        <v>5.03</v>
+        <v>5.08</v>
       </c>
       <c r="F123" t="n">
-        <v>283.3905</v>
+        <v>106701.0676</v>
       </c>
       <c r="G123" t="n">
-        <v>5.100333333333332</v>
+        <v>5.101499999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4723,22 +4735,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.02</v>
+        <v>5.03</v>
       </c>
       <c r="C124" t="n">
-        <v>5.02</v>
+        <v>5.1</v>
       </c>
       <c r="D124" t="n">
-        <v>5.02</v>
+        <v>5.1</v>
       </c>
       <c r="E124" t="n">
-        <v>5.02</v>
+        <v>5.03</v>
       </c>
       <c r="F124" t="n">
-        <v>13385.2317</v>
+        <v>283.3905</v>
       </c>
       <c r="G124" t="n">
-        <v>5.098999999999998</v>
+        <v>5.100333333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4758,22 +4770,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="C125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="D125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="E125" t="n">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="F125" t="n">
-        <v>555</v>
+        <v>13385.2317</v>
       </c>
       <c r="G125" t="n">
-        <v>5.098833333333331</v>
+        <v>5.098999999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4793,22 +4805,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="C126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="D126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="E126" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="F126" t="n">
-        <v>115098.9665</v>
+        <v>555</v>
       </c>
       <c r="G126" t="n">
-        <v>5.097499999999997</v>
+        <v>5.098833333333331</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4840,10 +4852,10 @@
         <v>5.02</v>
       </c>
       <c r="F127" t="n">
-        <v>49875</v>
+        <v>115098.9665</v>
       </c>
       <c r="G127" t="n">
-        <v>5.094666666666663</v>
+        <v>5.097499999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4863,22 +4875,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="C128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="D128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="E128" t="n">
-        <v>5.04</v>
+        <v>5.02</v>
       </c>
       <c r="F128" t="n">
-        <v>1130</v>
+        <v>49875</v>
       </c>
       <c r="G128" t="n">
-        <v>5.093833333333331</v>
+        <v>5.094666666666663</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4898,22 +4910,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="C129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="D129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="E129" t="n">
-        <v>5.02</v>
+        <v>5.04</v>
       </c>
       <c r="F129" t="n">
-        <v>44211.414</v>
+        <v>1130</v>
       </c>
       <c r="G129" t="n">
-        <v>5.090499999999996</v>
+        <v>5.093833333333331</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4933,22 +4945,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="C130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="D130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="E130" t="n">
-        <v>5.03</v>
+        <v>5.02</v>
       </c>
       <c r="F130" t="n">
-        <v>1651.2643</v>
+        <v>44211.414</v>
       </c>
       <c r="G130" t="n">
-        <v>5.087333333333329</v>
+        <v>5.090499999999996</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4980,10 +4992,10 @@
         <v>5.03</v>
       </c>
       <c r="F131" t="n">
-        <v>315.0951</v>
+        <v>1651.2643</v>
       </c>
       <c r="G131" t="n">
-        <v>5.084333333333329</v>
+        <v>5.087333333333329</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5015,10 +5027,10 @@
         <v>5.03</v>
       </c>
       <c r="F132" t="n">
-        <v>100</v>
+        <v>315.0951</v>
       </c>
       <c r="G132" t="n">
-        <v>5.081499999999995</v>
+        <v>5.084333333333329</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5038,22 +5050,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="C133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="D133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="E133" t="n">
-        <v>5.08</v>
+        <v>5.03</v>
       </c>
       <c r="F133" t="n">
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>5.079999999999995</v>
+        <v>5.081499999999995</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5076,19 +5088,19 @@
         <v>5.08</v>
       </c>
       <c r="C134" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="D134" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="E134" t="n">
         <v>5.08</v>
       </c>
       <c r="F134" t="n">
-        <v>102431.9629</v>
+        <v>100</v>
       </c>
       <c r="G134" t="n">
-        <v>5.078666666666662</v>
+        <v>5.079999999999995</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5108,7 +5120,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="C135" t="n">
         <v>5.1</v>
@@ -5117,13 +5129,13 @@
         <v>5.1</v>
       </c>
       <c r="E135" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="F135" t="n">
-        <v>23793.9683</v>
+        <v>102431.9629</v>
       </c>
       <c r="G135" t="n">
-        <v>5.078833333333329</v>
+        <v>5.078666666666662</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5143,22 +5155,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="D136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="E136" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F136" t="n">
-        <v>2890.9453</v>
+        <v>23793.9683</v>
       </c>
       <c r="G136" t="n">
-        <v>5.077166666666661</v>
+        <v>5.078833333333329</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5190,10 +5202,10 @@
         <v>5.09</v>
       </c>
       <c r="F137" t="n">
-        <v>2601.8507</v>
+        <v>2890.9453</v>
       </c>
       <c r="G137" t="n">
-        <v>5.076166666666662</v>
+        <v>5.077166666666661</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5225,10 +5237,10 @@
         <v>5.09</v>
       </c>
       <c r="F138" t="n">
-        <v>2398.1493</v>
+        <v>2601.8507</v>
       </c>
       <c r="G138" t="n">
-        <v>5.075333333333329</v>
+        <v>5.076166666666662</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5248,22 +5260,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="C139" t="n">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="D139" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="F139" t="n">
-        <v>73154.7945</v>
+        <v>2398.1493</v>
       </c>
       <c r="G139" t="n">
-        <v>5.071999999999995</v>
+        <v>5.075333333333329</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5283,22 +5295,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.05</v>
+        <v>5.03</v>
       </c>
       <c r="C140" t="n">
-        <v>5.06</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>5.06</v>
+        <v>5.03</v>
       </c>
       <c r="E140" t="n">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="F140" t="n">
-        <v>18960319.7461</v>
+        <v>73154.7945</v>
       </c>
       <c r="G140" t="n">
-        <v>5.071166666666661</v>
+        <v>5.071999999999995</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5318,7 +5330,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.06</v>
+        <v>5.05</v>
       </c>
       <c r="C141" t="n">
         <v>5.06</v>
@@ -5327,13 +5339,13 @@
         <v>5.06</v>
       </c>
       <c r="E141" t="n">
-        <v>5.06</v>
+        <v>5.05</v>
       </c>
       <c r="F141" t="n">
-        <v>18500000</v>
+        <v>18960319.7461</v>
       </c>
       <c r="G141" t="n">
-        <v>5.070499999999995</v>
+        <v>5.071166666666661</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5353,7 +5365,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="C142" t="n">
         <v>5.06</v>
@@ -5362,13 +5374,13 @@
         <v>5.06</v>
       </c>
       <c r="E142" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="F142" t="n">
-        <v>18133351.5734</v>
+        <v>18500000</v>
       </c>
       <c r="G142" t="n">
-        <v>5.069833333333327</v>
+        <v>5.070499999999995</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5391,19 +5403,19 @@
         <v>5.04</v>
       </c>
       <c r="C143" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="D143" t="n">
-        <v>5.04</v>
+        <v>5.06</v>
       </c>
       <c r="E143" t="n">
         <v>5.04</v>
       </c>
       <c r="F143" t="n">
-        <v>6695.5047</v>
+        <v>18133351.5734</v>
       </c>
       <c r="G143" t="n">
-        <v>5.068999999999995</v>
+        <v>5.069833333333327</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5423,22 +5435,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="C144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="D144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="E144" t="n">
-        <v>5.07</v>
+        <v>5.04</v>
       </c>
       <c r="F144" t="n">
-        <v>9300000</v>
+        <v>6695.5047</v>
       </c>
       <c r="G144" t="n">
-        <v>5.068666666666662</v>
+        <v>5.068999999999995</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5470,10 +5482,10 @@
         <v>5.07</v>
       </c>
       <c r="F145" t="n">
-        <v>9200000</v>
+        <v>9300000</v>
       </c>
       <c r="G145" t="n">
-        <v>5.068166666666661</v>
+        <v>5.068666666666662</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5493,22 +5505,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="C146" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="D146" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="E146" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="F146" t="n">
-        <v>257456.0326</v>
+        <v>9200000</v>
       </c>
       <c r="G146" t="n">
-        <v>5.067999999999995</v>
+        <v>5.068166666666661</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5528,7 +5540,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C147" t="n">
         <v>5.1</v>
@@ -5537,13 +5549,13 @@
         <v>5.1</v>
       </c>
       <c r="E147" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="F147" t="n">
-        <v>3873.4247</v>
+        <v>257456.0326</v>
       </c>
       <c r="G147" t="n">
-        <v>5.068166666666662</v>
+        <v>5.067999999999995</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5563,22 +5575,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="C148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="D148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="E148" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="F148" t="n">
-        <v>6854.1642</v>
+        <v>3873.4247</v>
       </c>
       <c r="G148" t="n">
-        <v>5.069499999999995</v>
+        <v>5.068166666666662</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5598,22 +5610,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="C149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="D149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="E149" t="n">
-        <v>5.19</v>
+        <v>5.15</v>
       </c>
       <c r="F149" t="n">
-        <v>17653.993</v>
+        <v>6854.1642</v>
       </c>
       <c r="G149" t="n">
-        <v>5.071666666666662</v>
+        <v>5.069499999999995</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5636,19 +5648,19 @@
         <v>5.19</v>
       </c>
       <c r="C150" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="D150" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="E150" t="n">
         <v>5.19</v>
       </c>
       <c r="F150" t="n">
-        <v>187707.3479909615</v>
+        <v>17653.993</v>
       </c>
       <c r="G150" t="n">
-        <v>5.073833333333329</v>
+        <v>5.071666666666662</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5668,22 +5680,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="C151" t="n">
         <v>5.2</v>
       </c>
-      <c r="C151" t="n">
-        <v>5.21</v>
-      </c>
       <c r="D151" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="E151" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="F151" t="n">
-        <v>162206.9015314953</v>
+        <v>187707.3479909615</v>
       </c>
       <c r="G151" t="n">
-        <v>5.076166666666662</v>
+        <v>5.073833333333329</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5703,7 +5715,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="C152" t="n">
         <v>5.21</v>
@@ -5712,13 +5724,13 @@
         <v>5.21</v>
       </c>
       <c r="E152" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="F152" t="n">
-        <v>37506.00767754319</v>
+        <v>162206.9015314953</v>
       </c>
       <c r="G152" t="n">
-        <v>5.078666666666662</v>
+        <v>5.076166666666662</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5738,22 +5750,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="C153" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="D153" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="E153" t="n">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="F153" t="n">
-        <v>40212.1614</v>
+        <v>37506.00767754319</v>
       </c>
       <c r="G153" t="n">
-        <v>5.080166666666662</v>
+        <v>5.078666666666662</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5773,22 +5785,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="C154" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="D154" t="n">
-        <v>5.25</v>
+        <v>5.23</v>
       </c>
       <c r="E154" t="n">
-        <v>5.25</v>
+        <v>5.22</v>
       </c>
       <c r="F154" t="n">
-        <v>17176.17285714286</v>
+        <v>40212.1614</v>
       </c>
       <c r="G154" t="n">
-        <v>5.082833333333329</v>
+        <v>5.080166666666662</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5811,19 +5823,19 @@
         <v>5.25</v>
       </c>
       <c r="C155" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="D155" t="n">
-        <v>5.3</v>
+        <v>5.25</v>
       </c>
       <c r="E155" t="n">
         <v>5.25</v>
       </c>
       <c r="F155" t="n">
-        <v>963301.9689299294</v>
+        <v>17176.17285714286</v>
       </c>
       <c r="G155" t="n">
-        <v>5.086666666666662</v>
+        <v>5.082833333333329</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5843,7 +5855,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.29</v>
+        <v>5.25</v>
       </c>
       <c r="C156" t="n">
         <v>5.3</v>
@@ -5852,13 +5864,13 @@
         <v>5.3</v>
       </c>
       <c r="E156" t="n">
-        <v>5.29</v>
+        <v>5.25</v>
       </c>
       <c r="F156" t="n">
-        <v>321601.6844</v>
+        <v>963301.9689299294</v>
       </c>
       <c r="G156" t="n">
-        <v>5.090499999999996</v>
+        <v>5.086666666666662</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5878,22 +5890,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C157" t="n">
         <v>5.3</v>
       </c>
-      <c r="C157" t="n">
-        <v>5.31</v>
-      </c>
       <c r="D157" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="E157" t="n">
-        <v>5.3</v>
+        <v>5.29</v>
       </c>
       <c r="F157" t="n">
-        <v>1781.790687594967</v>
+        <v>321601.6844</v>
       </c>
       <c r="G157" t="n">
-        <v>5.094499999999996</v>
+        <v>5.090499999999996</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5913,7 +5925,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="C158" t="n">
         <v>5.31</v>
@@ -5922,13 +5934,13 @@
         <v>5.31</v>
       </c>
       <c r="E158" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="F158" t="n">
-        <v>20000</v>
+        <v>1781.790687594967</v>
       </c>
       <c r="G158" t="n">
-        <v>5.098499999999997</v>
+        <v>5.094499999999996</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5948,22 +5960,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="C159" t="n">
-        <v>5.15</v>
+        <v>5.31</v>
       </c>
       <c r="D159" t="n">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="E159" t="n">
-        <v>5.15</v>
+        <v>5.31</v>
       </c>
       <c r="F159" t="n">
-        <v>371097.2558</v>
+        <v>20000</v>
       </c>
       <c r="G159" t="n">
-        <v>5.09983333333333</v>
+        <v>5.098499999999997</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5983,28 +5995,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="C160" t="n">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="D160" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="E160" t="n">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="F160" t="n">
-        <v>511.0454</v>
+        <v>371097.2558</v>
       </c>
       <c r="G160" t="n">
-        <v>5.101499999999997</v>
+        <v>5.09983333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6030,10 +6042,10 @@
         <v>5.16</v>
       </c>
       <c r="F161" t="n">
-        <v>6709.5632</v>
+        <v>511.0454</v>
       </c>
       <c r="G161" t="n">
-        <v>5.102666666666664</v>
+        <v>5.101499999999997</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6053,22 +6065,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="C162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="D162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="E162" t="n">
-        <v>5.22</v>
+        <v>5.16</v>
       </c>
       <c r="F162" t="n">
-        <v>3842.4154</v>
+        <v>6709.5632</v>
       </c>
       <c r="G162" t="n">
-        <v>5.105499999999997</v>
+        <v>5.102666666666664</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6091,19 +6103,19 @@
         <v>5.22</v>
       </c>
       <c r="C163" t="n">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="D163" t="n">
         <v>5.22</v>
       </c>
       <c r="E163" t="n">
-        <v>5.2</v>
+        <v>5.22</v>
       </c>
       <c r="F163" t="n">
-        <v>34624.8581</v>
+        <v>3842.4154</v>
       </c>
       <c r="G163" t="n">
-        <v>5.108833333333331</v>
+        <v>5.105499999999997</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6123,22 +6135,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="C164" t="n">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="D164" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="E164" t="n">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="F164" t="n">
-        <v>4268.3266</v>
+        <v>34624.8581</v>
       </c>
       <c r="G164" t="n">
-        <v>5.110999999999998</v>
+        <v>5.108833333333331</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6170,10 +6182,10 @@
         <v>5.18</v>
       </c>
       <c r="F165" t="n">
-        <v>20000</v>
+        <v>4268.3266</v>
       </c>
       <c r="G165" t="n">
-        <v>5.113333333333331</v>
+        <v>5.110999999999998</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6193,22 +6205,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="C166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="D166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="E166" t="n">
-        <v>5.17</v>
+        <v>5.18</v>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="G166" t="n">
-        <v>5.115999999999998</v>
+        <v>5.113333333333331</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6231,19 +6243,19 @@
         <v>5.17</v>
       </c>
       <c r="C167" t="n">
-        <v>5.15</v>
+        <v>5.17</v>
       </c>
       <c r="D167" t="n">
         <v>5.17</v>
       </c>
       <c r="E167" t="n">
-        <v>5.15</v>
+        <v>5.17</v>
       </c>
       <c r="F167" t="n">
-        <v>370000.95</v>
+        <v>200</v>
       </c>
       <c r="G167" t="n">
-        <v>5.118333333333331</v>
+        <v>5.115999999999998</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6263,22 +6275,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="C168" t="n">
         <v>5.15</v>
       </c>
       <c r="D168" t="n">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
       <c r="E168" t="n">
         <v>5.15</v>
       </c>
       <c r="F168" t="n">
-        <v>621142.2058</v>
+        <v>370000.95</v>
       </c>
       <c r="G168" t="n">
-        <v>5.120666666666664</v>
+        <v>5.118333333333331</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6298,22 +6310,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="C169" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="D169" t="n">
-        <v>5.1</v>
+        <v>5.16</v>
       </c>
       <c r="E169" t="n">
-        <v>5.1</v>
+        <v>5.15</v>
       </c>
       <c r="F169" t="n">
-        <v>42963.185</v>
+        <v>621142.2058</v>
       </c>
       <c r="G169" t="n">
-        <v>5.122166666666664</v>
+        <v>5.120666666666664</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6333,22 +6345,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.12</v>
+        <v>5.1</v>
       </c>
       <c r="C170" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="D170" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="E170" t="n">
-        <v>5.12</v>
+        <v>5.1</v>
       </c>
       <c r="F170" t="n">
-        <v>340000</v>
+        <v>42963.185</v>
       </c>
       <c r="G170" t="n">
-        <v>5.124499999999998</v>
+        <v>5.122166666666664</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6368,7 +6380,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.15</v>
+        <v>5.12</v>
       </c>
       <c r="C171" t="n">
         <v>5.15</v>
@@ -6377,13 +6389,13 @@
         <v>5.15</v>
       </c>
       <c r="E171" t="n">
-        <v>5.15</v>
+        <v>5.12</v>
       </c>
       <c r="F171" t="n">
-        <v>630517.5797999999</v>
+        <v>340000</v>
       </c>
       <c r="G171" t="n">
-        <v>5.126833333333331</v>
+        <v>5.124499999999998</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6398,6 +6410,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F172" t="n">
+        <v>630517.5797999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.126833333333331</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.34</v>
+        <v>5.17</v>
       </c>
       <c r="C2" t="n">
-        <v>5.33</v>
+        <v>5.21</v>
       </c>
       <c r="D2" t="n">
-        <v>5.34</v>
+        <v>5.21</v>
       </c>
       <c r="E2" t="n">
-        <v>5.33</v>
+        <v>5.17</v>
       </c>
       <c r="F2" t="n">
-        <v>266158.2332</v>
+        <v>509956.1009</v>
       </c>
       <c r="G2" t="n">
-        <v>-3548272.892118166</v>
+        <v>2172611.252311515</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="C3" t="n">
-        <v>5.4</v>
+        <v>5.17</v>
       </c>
       <c r="D3" t="n">
-        <v>5.4</v>
+        <v>5.23</v>
       </c>
       <c r="E3" t="n">
-        <v>5.37</v>
+        <v>5.17</v>
       </c>
       <c r="F3" t="n">
-        <v>87358.5215</v>
+        <v>1523072.1632</v>
       </c>
       <c r="G3" t="n">
-        <v>-3460914.370618166</v>
+        <v>649539.0891115151</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>5.21</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.31</v>
+        <v>5.22</v>
       </c>
       <c r="C4" t="n">
-        <v>5.3</v>
+        <v>5.22</v>
       </c>
       <c r="D4" t="n">
-        <v>5.31</v>
+        <v>5.22</v>
       </c>
       <c r="E4" t="n">
-        <v>5.3</v>
+        <v>5.22</v>
       </c>
       <c r="F4" t="n">
-        <v>285183.109</v>
+        <v>128972.9727</v>
       </c>
       <c r="G4" t="n">
-        <v>-3746097.479618166</v>
+        <v>778512.0618115151</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5.17</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.39</v>
+        <v>5.24</v>
       </c>
       <c r="C5" t="n">
-        <v>5.39</v>
+        <v>5.28</v>
       </c>
       <c r="D5" t="n">
-        <v>5.39</v>
+        <v>5.28</v>
       </c>
       <c r="E5" t="n">
-        <v>5.39</v>
+        <v>5.24</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>256908.4415</v>
       </c>
       <c r="G5" t="n">
-        <v>-3745997.479618166</v>
+        <v>1035420.503311515</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5.22</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.39</v>
+        <v>5.28</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39</v>
+        <v>5.32</v>
       </c>
       <c r="D6" t="n">
-        <v>5.39</v>
+        <v>5.32</v>
       </c>
       <c r="E6" t="n">
-        <v>5.39</v>
+        <v>5.28</v>
       </c>
       <c r="F6" t="n">
-        <v>39189.4017</v>
+        <v>972837.7179</v>
       </c>
       <c r="G6" t="n">
-        <v>-3745997.479618166</v>
+        <v>2008258.221211515</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +625,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.4</v>
+        <v>5.31</v>
       </c>
       <c r="C7" t="n">
-        <v>5.39</v>
+        <v>5.34</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4</v>
+        <v>5.34</v>
       </c>
       <c r="E7" t="n">
-        <v>5.39</v>
+        <v>5.31</v>
       </c>
       <c r="F7" t="n">
-        <v>1167934.602</v>
+        <v>90000</v>
       </c>
       <c r="G7" t="n">
-        <v>-3745997.479618166</v>
+        <v>2098258.221211515</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +665,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +680,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.4</v>
+        <v>5.23</v>
       </c>
       <c r="C8" t="n">
-        <v>5.39</v>
+        <v>5.22</v>
       </c>
       <c r="D8" t="n">
-        <v>5.4</v>
+        <v>5.23</v>
       </c>
       <c r="E8" t="n">
-        <v>5.39</v>
+        <v>5.22</v>
       </c>
       <c r="F8" t="n">
-        <v>818430.0311</v>
+        <v>57568.7917</v>
       </c>
       <c r="G8" t="n">
-        <v>-3745997.479618166</v>
+        <v>2040689.429511515</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +705,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +720,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.41</v>
+        <v>5.33</v>
       </c>
       <c r="C9" t="n">
-        <v>5.41</v>
+        <v>5.24</v>
       </c>
       <c r="D9" t="n">
-        <v>5.41</v>
+        <v>5.33</v>
       </c>
       <c r="E9" t="n">
-        <v>5.41</v>
+        <v>5.24</v>
       </c>
       <c r="F9" t="n">
-        <v>56760.72088724584</v>
+        <v>20141.849</v>
       </c>
       <c r="G9" t="n">
-        <v>-3689236.75873092</v>
+        <v>2060831.278511515</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.22</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +762,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.41</v>
+        <v>5.23</v>
       </c>
       <c r="C10" t="n">
-        <v>5.45</v>
+        <v>5.31</v>
       </c>
       <c r="D10" t="n">
-        <v>5.45</v>
+        <v>5.31</v>
       </c>
       <c r="E10" t="n">
-        <v>5.41</v>
+        <v>5.23</v>
       </c>
       <c r="F10" t="n">
-        <v>102533.2928191762</v>
+        <v>74150.60249999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-3586703.465911744</v>
+        <v>2134981.881011515</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +787,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +802,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.45</v>
+        <v>5.32</v>
       </c>
       <c r="C11" t="n">
-        <v>5.45</v>
+        <v>5.33</v>
       </c>
       <c r="D11" t="n">
-        <v>5.45</v>
+        <v>5.33</v>
       </c>
       <c r="E11" t="n">
-        <v>5.45</v>
+        <v>5.32</v>
       </c>
       <c r="F11" t="n">
-        <v>22313.3487</v>
+        <v>44656.0181</v>
       </c>
       <c r="G11" t="n">
-        <v>-3586703.465911744</v>
+        <v>2179637.899111515</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -787,7 +827,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +842,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.45</v>
+        <v>5.33</v>
       </c>
       <c r="C12" t="n">
-        <v>5.47</v>
+        <v>5.37</v>
       </c>
       <c r="D12" t="n">
-        <v>5.48</v>
+        <v>5.37</v>
       </c>
       <c r="E12" t="n">
-        <v>5.3</v>
+        <v>5.33</v>
       </c>
       <c r="F12" t="n">
-        <v>2414411.1258</v>
+        <v>1213249.9614</v>
       </c>
       <c r="G12" t="n">
-        <v>-1172292.340111744</v>
+        <v>3392887.860511515</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -823,7 +867,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +882,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.46</v>
+        <v>5.38</v>
       </c>
       <c r="C13" t="n">
-        <v>5.47</v>
+        <v>5.4</v>
       </c>
       <c r="D13" t="n">
-        <v>5.47</v>
+        <v>5.41</v>
       </c>
       <c r="E13" t="n">
-        <v>5.46</v>
+        <v>5.38</v>
       </c>
       <c r="F13" t="n">
-        <v>62731.53216745886</v>
+        <v>544333.8588548984</v>
       </c>
       <c r="G13" t="n">
-        <v>-1172292.340111744</v>
+        <v>3937221.719366414</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +907,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +922,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.47</v>
+        <v>5.4</v>
       </c>
       <c r="C14" t="n">
-        <v>5.46</v>
+        <v>5.1</v>
       </c>
       <c r="D14" t="n">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
       <c r="E14" t="n">
-        <v>5.46</v>
+        <v>5.1</v>
       </c>
       <c r="F14" t="n">
-        <v>215030.7447</v>
+        <v>571726.4300668328</v>
       </c>
       <c r="G14" t="n">
-        <v>-1387323.084811744</v>
+        <v>3365495.289299581</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +947,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +962,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.44</v>
+        <v>5.29</v>
       </c>
       <c r="D15" t="n">
-        <v>5.47</v>
+        <v>5.3</v>
       </c>
       <c r="E15" t="n">
-        <v>5.31</v>
+        <v>5.22</v>
       </c>
       <c r="F15" t="n">
-        <v>492036.056963072</v>
+        <v>18291.0081</v>
       </c>
       <c r="G15" t="n">
-        <v>-1879359.141774816</v>
+        <v>3383786.297399581</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1002,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.43</v>
+        <v>5.3</v>
       </c>
       <c r="C16" t="n">
-        <v>5.46</v>
+        <v>5.32</v>
       </c>
       <c r="D16" t="n">
-        <v>5.46</v>
+        <v>5.39</v>
       </c>
       <c r="E16" t="n">
-        <v>5.32</v>
+        <v>5.24</v>
       </c>
       <c r="F16" t="n">
-        <v>63358.38580771558</v>
+        <v>73978.01029999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-1816000.7559671</v>
+        <v>3457764.307699581</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1042,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.46</v>
+        <v>5.28</v>
       </c>
       <c r="C17" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="D17" t="n">
-        <v>5.46</v>
+        <v>5.28</v>
       </c>
       <c r="E17" t="n">
-        <v>5.31</v>
+        <v>5.11</v>
       </c>
       <c r="F17" t="n">
-        <v>72897.44414308567</v>
+        <v>371105.4172</v>
       </c>
       <c r="G17" t="n">
-        <v>-1888898.200110186</v>
+        <v>3086658.890499581</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1082,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.33</v>
+        <v>5.12</v>
       </c>
       <c r="C18" t="n">
-        <v>5.34</v>
+        <v>5.11</v>
       </c>
       <c r="D18" t="n">
-        <v>5.34</v>
+        <v>5.12</v>
       </c>
       <c r="E18" t="n">
-        <v>5.3</v>
+        <v>5.11</v>
       </c>
       <c r="F18" t="n">
-        <v>1438082.983</v>
+        <v>359757.4016</v>
       </c>
       <c r="G18" t="n">
-        <v>-3326981.183110186</v>
+        <v>2726901.488899581</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1122,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.34</v>
+        <v>5.1</v>
       </c>
       <c r="C19" t="n">
-        <v>5.34</v>
+        <v>5.11</v>
       </c>
       <c r="D19" t="n">
-        <v>5.34</v>
+        <v>5.11</v>
       </c>
       <c r="E19" t="n">
-        <v>5.34</v>
+        <v>5.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1200</v>
+        <v>218985.634</v>
       </c>
       <c r="G19" t="n">
-        <v>-3326981.183110186</v>
+        <v>2726901.488899581</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1162,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.31</v>
+        <v>5.11</v>
       </c>
       <c r="C20" t="n">
-        <v>5.15</v>
+        <v>5.22</v>
       </c>
       <c r="D20" t="n">
-        <v>5.31</v>
+        <v>5.22</v>
       </c>
       <c r="E20" t="n">
-        <v>5.15</v>
+        <v>5.11</v>
       </c>
       <c r="F20" t="n">
-        <v>2087919.3815</v>
+        <v>226994.9647</v>
       </c>
       <c r="G20" t="n">
-        <v>-5414900.564610186</v>
+        <v>2953896.453599581</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1187,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1202,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.3</v>
+        <v>5.14</v>
       </c>
       <c r="C21" t="n">
-        <v>5.3</v>
+        <v>5.14</v>
       </c>
       <c r="D21" t="n">
-        <v>5.3</v>
+        <v>5.14</v>
       </c>
       <c r="E21" t="n">
-        <v>5.3</v>
+        <v>5.14</v>
       </c>
       <c r="F21" t="n">
-        <v>550</v>
+        <v>5376.4322</v>
       </c>
       <c r="G21" t="n">
-        <v>-5414350.564610186</v>
+        <v>2948520.021399581</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1227,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1242,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="C22" t="n">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="D22" t="n">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="E22" t="n">
-        <v>5.25</v>
+        <v>5.19</v>
       </c>
       <c r="F22" t="n">
-        <v>43598.101</v>
+        <v>5298.0785</v>
       </c>
       <c r="G22" t="n">
-        <v>-5457948.665610186</v>
+        <v>2953818.099899581</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1267,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="C23" t="n">
         <v>5.15</v>
       </c>
       <c r="D23" t="n">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="E23" t="n">
         <v>5.15</v>
       </c>
       <c r="F23" t="n">
-        <v>231627.4271</v>
+        <v>42147.5133</v>
       </c>
       <c r="G23" t="n">
-        <v>-5689576.092710186</v>
+        <v>2911670.58659958</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1307,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1322,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="C24" t="n">
-        <v>5.17</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="E24" t="n">
-        <v>5.17</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>7926.979</v>
+        <v>3804469.3415</v>
       </c>
       <c r="G24" t="n">
-        <v>-5681649.113710186</v>
+        <v>-892798.7549004196</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1347,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1362,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="C25" t="n">
-        <v>5.25</v>
+        <v>5.06</v>
       </c>
       <c r="D25" t="n">
-        <v>5.25</v>
+        <v>5.06</v>
       </c>
       <c r="E25" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="F25" t="n">
-        <v>105613.3775</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>-5576035.736210185</v>
+        <v>-892698.7549004196</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1387,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.26</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>5.3</v>
+        <v>5.05</v>
       </c>
       <c r="E26" t="n">
-        <v>5.26</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>1430679.3081</v>
+        <v>15363.0439</v>
       </c>
       <c r="G26" t="n">
-        <v>-4145356.428110185</v>
+        <v>-908061.7988004197</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1427,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1442,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.29</v>
+        <v>4.99</v>
       </c>
       <c r="C27" t="n">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="D27" t="n">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="E27" t="n">
-        <v>5.29</v>
+        <v>4.99</v>
       </c>
       <c r="F27" t="n">
-        <v>24200.1182</v>
+        <v>97072.2761473077</v>
       </c>
       <c r="G27" t="n">
-        <v>-4169556.546310185</v>
+        <v>-810989.522653112</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1484,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="C28" t="n">
-        <v>5.36</v>
+        <v>5.05</v>
       </c>
       <c r="D28" t="n">
-        <v>5.36</v>
+        <v>5.05</v>
       </c>
       <c r="E28" t="n">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>87782.91089108911</v>
       </c>
       <c r="G28" t="n">
-        <v>-4169456.546310185</v>
+        <v>-898772.4335442011</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1509,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1524,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.3</v>
+        <v>5.05</v>
       </c>
       <c r="C29" t="n">
-        <v>5.3</v>
+        <v>5.05</v>
       </c>
       <c r="D29" t="n">
-        <v>5.3</v>
+        <v>5.05</v>
       </c>
       <c r="E29" t="n">
-        <v>5.3</v>
+        <v>5.05</v>
       </c>
       <c r="F29" t="n">
-        <v>1684.7114</v>
+        <v>87494.65346534654</v>
       </c>
       <c r="G29" t="n">
-        <v>-4171141.257710185</v>
+        <v>-898772.4335442011</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.05</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1566,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.3</v>
+        <v>5.04</v>
       </c>
       <c r="C30" t="n">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="D30" t="n">
-        <v>5.3</v>
+        <v>5.06</v>
       </c>
       <c r="E30" t="n">
-        <v>5.3</v>
+        <v>5.04</v>
       </c>
       <c r="F30" t="n">
-        <v>137.3053</v>
+        <v>210455.5922</v>
       </c>
       <c r="G30" t="n">
-        <v>-4171141.257710185</v>
+        <v>-688316.841344201</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1606,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.35</v>
+        <v>5.05</v>
       </c>
       <c r="C31" t="n">
-        <v>5.35</v>
+        <v>5.06</v>
       </c>
       <c r="D31" t="n">
-        <v>5.35</v>
+        <v>5.06</v>
       </c>
       <c r="E31" t="n">
-        <v>5.35</v>
+        <v>5.05</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>453030.1596</v>
       </c>
       <c r="G31" t="n">
-        <v>-4171041.257710185</v>
+        <v>-688316.841344201</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1631,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1646,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.35</v>
+        <v>5.12</v>
       </c>
       <c r="C32" t="n">
-        <v>5.35</v>
+        <v>5.12</v>
       </c>
       <c r="D32" t="n">
-        <v>5.35</v>
+        <v>5.12</v>
       </c>
       <c r="E32" t="n">
-        <v>5.35</v>
+        <v>5.12</v>
       </c>
       <c r="F32" t="n">
-        <v>506.8588</v>
+        <v>1153.8269</v>
       </c>
       <c r="G32" t="n">
-        <v>-4171041.257710185</v>
+        <v>-687163.014444201</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1686,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.33</v>
+        <v>5.14</v>
       </c>
       <c r="C33" t="n">
-        <v>5.35</v>
+        <v>5.21</v>
       </c>
       <c r="D33" t="n">
-        <v>5.35</v>
+        <v>5.21</v>
       </c>
       <c r="E33" t="n">
-        <v>5.33</v>
+        <v>5.14</v>
       </c>
       <c r="F33" t="n">
-        <v>28137.03498616822</v>
+        <v>63513.6932</v>
       </c>
       <c r="G33" t="n">
-        <v>-4171041.257710185</v>
+        <v>-623649.321244201</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1726,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C34" t="n">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="D34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="E34" t="n">
-        <v>5.29</v>
+        <v>5.2</v>
       </c>
       <c r="F34" t="n">
-        <v>144757.556</v>
+        <v>106933.9267</v>
       </c>
       <c r="G34" t="n">
-        <v>-4315798.813710185</v>
+        <v>-730583.247944201</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1766,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.28</v>
+        <v>5.09</v>
       </c>
       <c r="C35" t="n">
-        <v>5.28</v>
+        <v>5.09</v>
       </c>
       <c r="D35" t="n">
-        <v>5.28</v>
+        <v>5.09</v>
       </c>
       <c r="E35" t="n">
-        <v>5.28</v>
+        <v>5.09</v>
       </c>
       <c r="F35" t="n">
-        <v>28137.035</v>
+        <v>73203.50930000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-4343935.848710185</v>
+        <v>-803786.757244201</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1806,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="C36" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="D36" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="E36" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="F36" t="n">
-        <v>21930</v>
+        <v>563808.1651</v>
       </c>
       <c r="G36" t="n">
-        <v>-4322005.848710185</v>
+        <v>-239978.592144201</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1846,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="C37" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="D37" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="E37" t="n">
-        <v>5.34</v>
+        <v>5.19</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>178775.5922</v>
       </c>
       <c r="G37" t="n">
-        <v>-4322005.848710185</v>
+        <v>-239978.592144201</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1886,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="C38" t="n">
-        <v>5.29</v>
+        <v>5.09</v>
       </c>
       <c r="D38" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="E38" t="n">
-        <v>5.29</v>
+        <v>5.09</v>
       </c>
       <c r="F38" t="n">
-        <v>3388.1936</v>
+        <v>108159.3455</v>
       </c>
       <c r="G38" t="n">
-        <v>-4325394.042310185</v>
+        <v>-348137.937644201</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1926,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.28</v>
+        <v>5.19</v>
       </c>
       <c r="C39" t="n">
         <v>5.19</v>
       </c>
       <c r="D39" t="n">
-        <v>5.28</v>
+        <v>5.19</v>
       </c>
       <c r="E39" t="n">
         <v>5.19</v>
       </c>
       <c r="F39" t="n">
-        <v>670786.8859</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>-4996180.928210185</v>
+        <v>-348037.937644201</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1966,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="C40" t="n">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
       <c r="D40" t="n">
-        <v>5.24</v>
+        <v>5.23</v>
       </c>
       <c r="E40" t="n">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="F40" t="n">
-        <v>1191528.9555</v>
+        <v>76681.06379196941</v>
       </c>
       <c r="G40" t="n">
-        <v>-3804651.972710185</v>
+        <v>-271356.8738522317</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2006,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="C41" t="n">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="D41" t="n">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="E41" t="n">
-        <v>5.24</v>
+        <v>5.2</v>
       </c>
       <c r="F41" t="n">
-        <v>21685.717</v>
+        <v>74.52042307692308</v>
       </c>
       <c r="G41" t="n">
-        <v>-3804651.972710185</v>
+        <v>-271431.3942753086</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1867,7 +2031,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2046,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.09</v>
+        <v>5.2</v>
       </c>
       <c r="C42" t="n">
-        <v>5.09</v>
+        <v>5.22</v>
       </c>
       <c r="D42" t="n">
-        <v>5.09</v>
+        <v>5.22</v>
       </c>
       <c r="E42" t="n">
-        <v>5.09</v>
+        <v>5.2</v>
       </c>
       <c r="F42" t="n">
-        <v>707351.8783</v>
+        <v>89347.1531</v>
       </c>
       <c r="G42" t="n">
-        <v>-4512003.851010185</v>
+        <v>-182084.2411753086</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2086,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.09</v>
+        <v>5.16</v>
       </c>
       <c r="C43" t="n">
-        <v>5.08</v>
+        <v>5.16</v>
       </c>
       <c r="D43" t="n">
-        <v>5.09</v>
+        <v>5.16</v>
       </c>
       <c r="E43" t="n">
-        <v>5.08</v>
+        <v>5.16</v>
       </c>
       <c r="F43" t="n">
-        <v>203069.0817</v>
+        <v>46037.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-4715072.932710185</v>
+        <v>-228121.7411753086</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2111,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2126,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="C44" t="n">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="D44" t="n">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="E44" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="F44" t="n">
-        <v>192775.2915</v>
+        <v>79299.2277</v>
       </c>
       <c r="G44" t="n">
-        <v>-4522297.641210184</v>
+        <v>-228121.7411753086</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2151,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2166,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="C45" t="n">
-        <v>5.25</v>
+        <v>5.11</v>
       </c>
       <c r="D45" t="n">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="E45" t="n">
-        <v>5.25</v>
+        <v>5.11</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>533.1882000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>-4522197.641210184</v>
+        <v>-228654.9293753086</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2191,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2206,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="C46" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="D46" t="n">
-        <v>5.09</v>
+        <v>5.07</v>
       </c>
       <c r="E46" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="F46" t="n">
-        <v>9683.9288</v>
+        <v>21602.7852</v>
       </c>
       <c r="G46" t="n">
-        <v>-4531881.570010184</v>
+        <v>-250257.7145753086</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2231,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2246,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.17</v>
+        <v>5.06</v>
       </c>
       <c r="C47" t="n">
-        <v>5.25</v>
+        <v>5.01</v>
       </c>
       <c r="D47" t="n">
-        <v>5.25</v>
+        <v>5.06</v>
       </c>
       <c r="E47" t="n">
-        <v>5.17</v>
+        <v>5.01</v>
       </c>
       <c r="F47" t="n">
-        <v>18602891.009</v>
+        <v>644210.0097000001</v>
       </c>
       <c r="G47" t="n">
-        <v>14071009.43898981</v>
+        <v>-894467.7242753087</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2271,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,32 +2286,38 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.09</v>
+        <v>5.05</v>
       </c>
       <c r="C48" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="D48" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="E48" t="n">
-        <v>5.09</v>
+        <v>5.05</v>
       </c>
       <c r="F48" t="n">
-        <v>284034.8952</v>
+        <v>89385.0926</v>
       </c>
       <c r="G48" t="n">
-        <v>13786974.54378982</v>
+        <v>-805082.6316753087</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.01</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2328,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.22</v>
+        <v>5.02</v>
       </c>
       <c r="C49" t="n">
-        <v>5.22</v>
+        <v>5.02</v>
       </c>
       <c r="D49" t="n">
-        <v>5.22</v>
+        <v>5.02</v>
       </c>
       <c r="E49" t="n">
-        <v>5.22</v>
+        <v>5.02</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>1541.1088</v>
       </c>
       <c r="G49" t="n">
-        <v>13787074.54378982</v>
+        <v>-806623.7404753087</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.06</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2370,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="C50" t="n">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="D50" t="n">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="E50" t="n">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="F50" t="n">
-        <v>9438.032999999999</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>13777636.51078982</v>
+        <v>-806523.7404753087</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.02</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2412,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="C51" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="D51" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="E51" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="F51" t="n">
-        <v>13875.04835589942</v>
+        <v>582.1917</v>
       </c>
       <c r="G51" t="n">
-        <v>13763761.46243392</v>
+        <v>-806523.7404753087</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.08</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2454,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.12</v>
+        <v>5.09</v>
       </c>
       <c r="C52" t="n">
-        <v>5.1</v>
+        <v>5.06</v>
       </c>
       <c r="D52" t="n">
-        <v>5.12</v>
+        <v>5.09</v>
       </c>
       <c r="E52" t="n">
-        <v>5.1</v>
+        <v>5.06</v>
       </c>
       <c r="F52" t="n">
-        <v>277955.2069</v>
+        <v>1641.1088</v>
       </c>
       <c r="G52" t="n">
-        <v>13485806.25553392</v>
+        <v>-808164.8492753088</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2479,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2494,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="C53" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="D53" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="E53" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="F53" t="n">
-        <v>21528.7063</v>
+        <v>8395.2022</v>
       </c>
       <c r="G53" t="n">
-        <v>13485806.25553392</v>
+        <v>-816560.0514753088</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2299,7 +2519,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2534,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="C54" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="D54" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="E54" t="n">
-        <v>5.1</v>
+        <v>5.03</v>
       </c>
       <c r="F54" t="n">
-        <v>4119.2708</v>
+        <v>8395.2022</v>
       </c>
       <c r="G54" t="n">
-        <v>13485806.25553392</v>
+        <v>-816560.0514753088</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2335,7 +2559,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2574,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="C55" t="n">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="D55" t="n">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="E55" t="n">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="F55" t="n">
-        <v>16918743.5368</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>30404549.79233392</v>
+        <v>-816460.0514753088</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,7 +2599,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2614,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
       <c r="C56" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="D56" t="n">
-        <v>5.13</v>
+        <v>5.06</v>
       </c>
       <c r="E56" t="n">
-        <v>5.09</v>
+        <v>5.06</v>
       </c>
       <c r="F56" t="n">
-        <v>97017.5803</v>
+        <v>20645068.4303</v>
       </c>
       <c r="G56" t="n">
-        <v>30307532.21203392</v>
+        <v>-21461528.48177531</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2407,7 +2639,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2654,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.19</v>
+        <v>5.09</v>
       </c>
       <c r="C57" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="D57" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="E57" t="n">
-        <v>5.19</v>
+        <v>5.09</v>
       </c>
       <c r="F57" t="n">
-        <v>111</v>
+        <v>12170256.3393</v>
       </c>
       <c r="G57" t="n">
-        <v>30307643.21203392</v>
+        <v>-9291272.142475311</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2443,7 +2679,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2694,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="C58" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="D58" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="E58" t="n">
-        <v>5.22</v>
+        <v>5.13</v>
       </c>
       <c r="F58" t="n">
-        <v>40091.9177</v>
+        <v>311898.0193</v>
       </c>
       <c r="G58" t="n">
-        <v>30307643.21203392</v>
+        <v>-9291272.142475311</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2479,7 +2719,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2734,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="C59" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="D59" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="E59" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="F59" t="n">
-        <v>980</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>30306663.21203392</v>
+        <v>-9293272.142475311</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2759,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2774,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="C60" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="D60" t="n">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="E60" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="F60" t="n">
-        <v>13893.6102</v>
+        <v>114420.1826</v>
       </c>
       <c r="G60" t="n">
-        <v>30292769.60183392</v>
+        <v>-9178851.95987531</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2799,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2814,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="C61" t="n">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="D61" t="n">
-        <v>5.17</v>
+        <v>5.21</v>
       </c>
       <c r="E61" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="F61" t="n">
-        <v>13100</v>
+        <v>82330.1826</v>
       </c>
       <c r="G61" t="n">
-        <v>30279669.60183392</v>
+        <v>-9096521.777275309</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2839,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2854,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.18</v>
+        <v>5.22</v>
       </c>
       <c r="C62" t="n">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="D62" t="n">
-        <v>5.18</v>
+        <v>5.24</v>
       </c>
       <c r="E62" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="F62" t="n">
-        <v>13009.4994</v>
+        <v>461223.2298582061</v>
       </c>
       <c r="G62" t="n">
-        <v>30292679.10123392</v>
+        <v>-8635298.547417102</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2879,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2894,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.14</v>
+        <v>5.24</v>
       </c>
       <c r="C63" t="n">
-        <v>5.09</v>
+        <v>5.25</v>
       </c>
       <c r="D63" t="n">
-        <v>5.14</v>
+        <v>5.25</v>
       </c>
       <c r="E63" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="F63" t="n">
-        <v>460674.5494</v>
+        <v>3808540.323637032</v>
       </c>
       <c r="G63" t="n">
-        <v>29832004.55183392</v>
+        <v>-4826758.22378007</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2919,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2934,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="C64" t="n">
-        <v>5.19</v>
+        <v>5.25</v>
       </c>
       <c r="D64" t="n">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="E64" t="n">
-        <v>5.13</v>
+        <v>5.25</v>
       </c>
       <c r="F64" t="n">
-        <v>64626.60670520231</v>
+        <v>80614.43054285714</v>
       </c>
       <c r="G64" t="n">
-        <v>29896631.15853912</v>
+        <v>-4826758.22378007</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2959,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2974,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.19</v>
+        <v>5.23</v>
       </c>
       <c r="C65" t="n">
-        <v>5.15</v>
+        <v>5.23</v>
       </c>
       <c r="D65" t="n">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="E65" t="n">
-        <v>5.15</v>
+        <v>5.23</v>
       </c>
       <c r="F65" t="n">
-        <v>34907.76317541189</v>
+        <v>14533.4775</v>
       </c>
       <c r="G65" t="n">
-        <v>29861723.39536371</v>
+        <v>-4841291.70128007</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2999,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3014,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="C66" t="n">
-        <v>5.14</v>
+        <v>5.23</v>
       </c>
       <c r="D66" t="n">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="E66" t="n">
-        <v>5.14</v>
+        <v>5.23</v>
       </c>
       <c r="F66" t="n">
-        <v>28436.4074</v>
+        <v>82484.10279999999</v>
       </c>
       <c r="G66" t="n">
-        <v>29833286.98796371</v>
+        <v>-4841291.70128007</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3039,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3054,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="C67" t="n">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="D67" t="n">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="E67" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>1397497.919261905</v>
       </c>
       <c r="G67" t="n">
-        <v>29833386.98796371</v>
+        <v>-3443793.782018166</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3079,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3094,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.11</v>
+        <v>5.25</v>
       </c>
       <c r="C68" t="n">
-        <v>5.11</v>
+        <v>5.28</v>
       </c>
       <c r="D68" t="n">
-        <v>5.11</v>
+        <v>5.28</v>
       </c>
       <c r="E68" t="n">
-        <v>5.11</v>
+        <v>5.25</v>
       </c>
       <c r="F68" t="n">
-        <v>9347.338299999999</v>
+        <v>43228.7388</v>
       </c>
       <c r="G68" t="n">
-        <v>29824039.64966371</v>
+        <v>-3400565.043218166</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3119,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,36 +3134,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.11</v>
+        <v>5.27</v>
       </c>
       <c r="C69" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D69" t="n">
-        <v>5.11</v>
+        <v>5.3</v>
       </c>
       <c r="E69" t="n">
-        <v>5.1</v>
+        <v>5.27</v>
       </c>
       <c r="F69" t="n">
-        <v>118268.3505</v>
+        <v>361207.3103</v>
       </c>
       <c r="G69" t="n">
-        <v>29705771.29916371</v>
+        <v>-3039357.732918166</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.11</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2892,32 +3174,30 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.1</v>
+        <v>5.33</v>
       </c>
       <c r="C70" t="n">
-        <v>5.1</v>
+        <v>5.33</v>
       </c>
       <c r="D70" t="n">
-        <v>5.1</v>
+        <v>5.33</v>
       </c>
       <c r="E70" t="n">
-        <v>5.1</v>
+        <v>5.33</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>87195.41959999999</v>
       </c>
       <c r="G70" t="n">
-        <v>29705771.29916371</v>
+        <v>-2952162.313318165</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -2934,32 +3214,30 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.09</v>
+        <v>5.33</v>
       </c>
       <c r="C71" t="n">
-        <v>5.09</v>
+        <v>5.35</v>
       </c>
       <c r="D71" t="n">
-        <v>5.09</v>
+        <v>5.35</v>
       </c>
       <c r="E71" t="n">
-        <v>5.09</v>
+        <v>5.33</v>
       </c>
       <c r="F71" t="n">
-        <v>71000</v>
+        <v>32069.5338</v>
       </c>
       <c r="G71" t="n">
-        <v>29634771.29916371</v>
+        <v>-2920092.779518166</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -2976,32 +3254,30 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.09</v>
+        <v>5.35</v>
       </c>
       <c r="C72" t="n">
-        <v>5.09</v>
+        <v>5.33</v>
       </c>
       <c r="D72" t="n">
-        <v>5.09</v>
+        <v>5.4</v>
       </c>
       <c r="E72" t="n">
-        <v>5.09</v>
+        <v>5.33</v>
       </c>
       <c r="F72" t="n">
-        <v>43316.9365</v>
+        <v>628180.1126</v>
       </c>
       <c r="G72" t="n">
-        <v>29634771.29916371</v>
+        <v>-3548272.892118166</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3018,32 +3294,30 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="C73" t="n">
-        <v>5.1</v>
+        <v>5.33</v>
       </c>
       <c r="D73" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="E73" t="n">
-        <v>5.1</v>
+        <v>5.33</v>
       </c>
       <c r="F73" t="n">
-        <v>9224.914500000001</v>
+        <v>266158.2332</v>
       </c>
       <c r="G73" t="n">
-        <v>29643996.21366371</v>
+        <v>-3548272.892118166</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3060,32 +3334,30 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.11</v>
+        <v>5.37</v>
       </c>
       <c r="C74" t="n">
-        <v>5.11</v>
+        <v>5.4</v>
       </c>
       <c r="D74" t="n">
-        <v>5.11</v>
+        <v>5.4</v>
       </c>
       <c r="E74" t="n">
-        <v>5.11</v>
+        <v>5.37</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>87358.5215</v>
       </c>
       <c r="G74" t="n">
-        <v>29644096.21366371</v>
+        <v>-3460914.370618166</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3102,32 +3374,30 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.09</v>
+        <v>5.31</v>
       </c>
       <c r="C75" t="n">
-        <v>5.09</v>
+        <v>5.3</v>
       </c>
       <c r="D75" t="n">
-        <v>5.09</v>
+        <v>5.31</v>
       </c>
       <c r="E75" t="n">
-        <v>5.09</v>
+        <v>5.3</v>
       </c>
       <c r="F75" t="n">
-        <v>26323.0759</v>
+        <v>285183.109</v>
       </c>
       <c r="G75" t="n">
-        <v>29617773.13776371</v>
+        <v>-3746097.479618166</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5.11</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3144,32 +3414,30 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.09</v>
+        <v>5.39</v>
       </c>
       <c r="C76" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="D76" t="n">
-        <v>5.09</v>
+        <v>5.39</v>
       </c>
       <c r="E76" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="F76" t="n">
-        <v>68689.71219999999</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>29549083.42556371</v>
+        <v>-3745997.479618166</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3186,32 +3454,30 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="C77" t="n">
-        <v>5.06</v>
+        <v>5.39</v>
       </c>
       <c r="D77" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="E77" t="n">
-        <v>5.06</v>
+        <v>5.39</v>
       </c>
       <c r="F77" t="n">
-        <v>275699.6799</v>
+        <v>39189.4017</v>
       </c>
       <c r="G77" t="n">
-        <v>29273383.74566371</v>
+        <v>-3745997.479618166</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3228,32 +3494,30 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.07</v>
+        <v>5.4</v>
       </c>
       <c r="C78" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="D78" t="n">
-        <v>5.07</v>
+        <v>5.4</v>
       </c>
       <c r="E78" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="F78" t="n">
-        <v>19128.5023</v>
+        <v>1167934.602</v>
       </c>
       <c r="G78" t="n">
-        <v>29292512.24796371</v>
+        <v>-3745997.479618166</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>5.06</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3270,32 +3534,30 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.07</v>
+        <v>5.4</v>
       </c>
       <c r="C79" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="D79" t="n">
-        <v>5.07</v>
+        <v>5.4</v>
       </c>
       <c r="E79" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="F79" t="n">
-        <v>227750.8093</v>
+        <v>818430.0311</v>
       </c>
       <c r="G79" t="n">
-        <v>29292512.24796371</v>
+        <v>-3745997.479618166</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3312,32 +3574,30 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.07</v>
+        <v>5.41</v>
       </c>
       <c r="C80" t="n">
-        <v>5.06</v>
+        <v>5.41</v>
       </c>
       <c r="D80" t="n">
-        <v>5.07</v>
+        <v>5.41</v>
       </c>
       <c r="E80" t="n">
-        <v>5.06</v>
+        <v>5.41</v>
       </c>
       <c r="F80" t="n">
-        <v>257456.4864</v>
+        <v>56760.72088724584</v>
       </c>
       <c r="G80" t="n">
-        <v>29035055.76156371</v>
+        <v>-3689236.75873092</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3354,32 +3614,30 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.14</v>
+        <v>5.41</v>
       </c>
       <c r="C81" t="n">
-        <v>5.14</v>
+        <v>5.45</v>
       </c>
       <c r="D81" t="n">
-        <v>5.14</v>
+        <v>5.45</v>
       </c>
       <c r="E81" t="n">
-        <v>5.14</v>
+        <v>5.41</v>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>102533.2928191762</v>
       </c>
       <c r="G81" t="n">
-        <v>29035355.76156371</v>
+        <v>-3586703.465911744</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>5.06</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3396,32 +3654,30 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.09</v>
+        <v>5.45</v>
       </c>
       <c r="C82" t="n">
-        <v>5.09</v>
+        <v>5.45</v>
       </c>
       <c r="D82" t="n">
-        <v>5.09</v>
+        <v>5.45</v>
       </c>
       <c r="E82" t="n">
-        <v>5.09</v>
+        <v>5.45</v>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>22313.3487</v>
       </c>
       <c r="G82" t="n">
-        <v>29035155.76156371</v>
+        <v>-3586703.465911744</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>5.14</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
@@ -3438,32 +3694,30 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.08</v>
+        <v>5.45</v>
       </c>
       <c r="C83" t="n">
-        <v>5.07</v>
+        <v>5.47</v>
       </c>
       <c r="D83" t="n">
-        <v>5.08</v>
+        <v>5.48</v>
       </c>
       <c r="E83" t="n">
-        <v>5.07</v>
+        <v>5.3</v>
       </c>
       <c r="F83" t="n">
-        <v>161735.4703</v>
+        <v>2414411.1258</v>
       </c>
       <c r="G83" t="n">
-        <v>28873420.29126371</v>
+        <v>-1172292.340111744</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3480,32 +3734,30 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="C84" t="n">
-        <v>5.07</v>
+        <v>5.47</v>
       </c>
       <c r="D84" t="n">
-        <v>5.07</v>
+        <v>5.47</v>
       </c>
       <c r="E84" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="F84" t="n">
-        <v>29034.8646</v>
+        <v>62731.53216745886</v>
       </c>
       <c r="G84" t="n">
-        <v>28873420.29126371</v>
+        <v>-1172292.340111744</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -3522,32 +3774,30 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.07</v>
+        <v>5.47</v>
       </c>
       <c r="C85" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="D85" t="n">
-        <v>5.07</v>
+        <v>5.47</v>
       </c>
       <c r="E85" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="F85" t="n">
-        <v>91711.7864</v>
+        <v>215030.7447</v>
       </c>
       <c r="G85" t="n">
-        <v>28873420.29126371</v>
+        <v>-1387323.084811744</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3564,32 +3814,30 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.07</v>
+        <v>5.39</v>
       </c>
       <c r="C86" t="n">
-        <v>5.07</v>
+        <v>5.44</v>
       </c>
       <c r="D86" t="n">
-        <v>5.07</v>
+        <v>5.47</v>
       </c>
       <c r="E86" t="n">
-        <v>5.07</v>
+        <v>5.31</v>
       </c>
       <c r="F86" t="n">
-        <v>26683.13</v>
+        <v>492036.056963072</v>
       </c>
       <c r="G86" t="n">
-        <v>28873420.29126371</v>
+        <v>-1879359.141774816</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -3606,32 +3854,30 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.07</v>
+        <v>5.43</v>
       </c>
       <c r="C87" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="D87" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="E87" t="n">
-        <v>5.07</v>
+        <v>5.32</v>
       </c>
       <c r="F87" t="n">
-        <v>29277.5874</v>
+        <v>63358.38580771558</v>
       </c>
       <c r="G87" t="n">
-        <v>28873420.29126371</v>
+        <v>-1816000.7559671</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
@@ -3648,32 +3894,30 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="C88" t="n">
-        <v>5.06</v>
+        <v>5.36</v>
       </c>
       <c r="D88" t="n">
-        <v>5.07</v>
+        <v>5.46</v>
       </c>
       <c r="E88" t="n">
-        <v>5.06</v>
+        <v>5.31</v>
       </c>
       <c r="F88" t="n">
-        <v>289012.8899</v>
+        <v>72897.44414308567</v>
       </c>
       <c r="G88" t="n">
-        <v>28584407.40136371</v>
+        <v>-1888898.200110186</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
@@ -3690,32 +3934,30 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.09</v>
+        <v>5.33</v>
       </c>
       <c r="C89" t="n">
-        <v>5.09</v>
+        <v>5.34</v>
       </c>
       <c r="D89" t="n">
-        <v>5.09</v>
+        <v>5.34</v>
       </c>
       <c r="E89" t="n">
-        <v>5.09</v>
+        <v>5.3</v>
       </c>
       <c r="F89" t="n">
-        <v>500</v>
+        <v>1438082.983</v>
       </c>
       <c r="G89" t="n">
-        <v>28584907.40136371</v>
+        <v>-3326981.183110186</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>5.06</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
@@ -3732,32 +3974,30 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.07</v>
+        <v>5.34</v>
       </c>
       <c r="C90" t="n">
-        <v>5.05</v>
+        <v>5.34</v>
       </c>
       <c r="D90" t="n">
-        <v>5.07</v>
+        <v>5.34</v>
       </c>
       <c r="E90" t="n">
-        <v>5.05</v>
+        <v>5.34</v>
       </c>
       <c r="F90" t="n">
-        <v>2428893.8819</v>
+        <v>1200</v>
       </c>
       <c r="G90" t="n">
-        <v>26156013.51946371</v>
+        <v>-3326981.183110186</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3774,32 +4014,30 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.05</v>
+        <v>5.31</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>5.15</v>
       </c>
       <c r="D91" t="n">
-        <v>5.05</v>
+        <v>5.31</v>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>5.15</v>
       </c>
       <c r="F91" t="n">
-        <v>603149.4020999999</v>
+        <v>2087919.3815</v>
       </c>
       <c r="G91" t="n">
-        <v>25552864.11736371</v>
+        <v>-5414900.564610186</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>5.05</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3816,32 +4054,30 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="C92" t="n">
-        <v>5.05</v>
+        <v>5.3</v>
       </c>
       <c r="D92" t="n">
-        <v>5.05</v>
+        <v>5.3</v>
       </c>
       <c r="E92" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="F92" t="n">
-        <v>244182.2601</v>
+        <v>550</v>
       </c>
       <c r="G92" t="n">
-        <v>25797046.37746371</v>
+        <v>-5414350.564610186</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>5</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3858,32 +4094,30 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="C93" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="D93" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="E93" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="F93" t="n">
-        <v>540.0486</v>
+        <v>43598.101</v>
       </c>
       <c r="G93" t="n">
-        <v>25796506.32886371</v>
+        <v>-5457948.665610186</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>5.05</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3900,32 +4134,30 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="C94" t="n">
-        <v>5.01</v>
+        <v>5.15</v>
       </c>
       <c r="D94" t="n">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="E94" t="n">
-        <v>5.01</v>
+        <v>5.15</v>
       </c>
       <c r="F94" t="n">
-        <v>3306.769</v>
+        <v>231627.4271</v>
       </c>
       <c r="G94" t="n">
-        <v>25793199.55986371</v>
+        <v>-5689576.092710186</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>5.04</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3942,32 +4174,30 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.01</v>
+        <v>5.18</v>
       </c>
       <c r="C95" t="n">
-        <v>5.01</v>
+        <v>5.17</v>
       </c>
       <c r="D95" t="n">
-        <v>5.01</v>
+        <v>5.18</v>
       </c>
       <c r="E95" t="n">
-        <v>5.01</v>
+        <v>5.17</v>
       </c>
       <c r="F95" t="n">
-        <v>157619.5041</v>
+        <v>7926.979</v>
       </c>
       <c r="G95" t="n">
-        <v>25793199.55986371</v>
+        <v>-5681649.113710186</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>5.01</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3984,22 +4214,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.01</v>
+        <v>5.16</v>
       </c>
       <c r="C96" t="n">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="D96" t="n">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="E96" t="n">
-        <v>5.01</v>
+        <v>5.16</v>
       </c>
       <c r="F96" t="n">
-        <v>81115.63</v>
+        <v>105613.3775</v>
       </c>
       <c r="G96" t="n">
-        <v>25793199.55986371</v>
+        <v>-5576035.736210185</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -4008,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>5.01</v>
+        <v>5.17</v>
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
@@ -4026,22 +4256,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.01</v>
+        <v>5.26</v>
       </c>
       <c r="C97" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="D97" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="E97" t="n">
-        <v>5.01</v>
+        <v>5.26</v>
       </c>
       <c r="F97" t="n">
-        <v>195279.2668</v>
+        <v>1430679.3081</v>
       </c>
       <c r="G97" t="n">
-        <v>25793199.55986371</v>
+        <v>-4145356.428110185</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4050,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>5.01</v>
+        <v>5.25</v>
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
@@ -4068,32 +4298,30 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
       <c r="C98" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
       <c r="D98" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
       <c r="E98" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
       <c r="F98" t="n">
-        <v>157718.3865</v>
+        <v>24200.1182</v>
       </c>
       <c r="G98" t="n">
-        <v>25793199.55986371</v>
+        <v>-4169556.546310185</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>5.01</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4110,32 +4338,30 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="C99" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="D99" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="E99" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="F99" t="n">
-        <v>44093.6042</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>25793199.55986371</v>
+        <v>-4169456.546310185</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>5.01</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4152,32 +4378,30 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D100" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="F100" t="n">
-        <v>44193.6042</v>
+        <v>1684.7114</v>
       </c>
       <c r="G100" t="n">
-        <v>25749005.9556637</v>
+        <v>-4171141.257710185</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>5.01</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4194,32 +4418,30 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="C101" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="D101" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="E101" t="n">
-        <v>5.01</v>
+        <v>5.3</v>
       </c>
       <c r="F101" t="n">
-        <v>26811.97</v>
+        <v>137.3053</v>
       </c>
       <c r="G101" t="n">
-        <v>25775817.9256637</v>
+        <v>-4171141.257710185</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>5</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4236,32 +4458,30 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="C102" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="D102" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="E102" t="n">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="F102" t="n">
-        <v>260680.7773916505</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>26036498.70305535</v>
+        <v>-4171041.257710185</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>5.01</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4278,32 +4498,30 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="C103" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="D103" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="E103" t="n">
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
       <c r="F103" t="n">
-        <v>75258.05825242719</v>
+        <v>506.8588</v>
       </c>
       <c r="G103" t="n">
-        <v>26036498.70305535</v>
+        <v>-4171041.257710185</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>5.15</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4320,22 +4538,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.15</v>
+        <v>5.33</v>
       </c>
       <c r="C104" t="n">
-        <v>5.21</v>
+        <v>5.35</v>
       </c>
       <c r="D104" t="n">
-        <v>5.21</v>
+        <v>5.35</v>
       </c>
       <c r="E104" t="n">
-        <v>5.15</v>
+        <v>5.33</v>
       </c>
       <c r="F104" t="n">
-        <v>34025.25111542329</v>
+        <v>28137.03498616822</v>
       </c>
       <c r="G104" t="n">
-        <v>26070523.95417077</v>
+        <v>-4171041.257710185</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4360,22 +4578,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.21</v>
+        <v>5.3</v>
       </c>
       <c r="C105" t="n">
-        <v>5.21</v>
+        <v>5.29</v>
       </c>
       <c r="D105" t="n">
-        <v>5.21</v>
+        <v>5.3</v>
       </c>
       <c r="E105" t="n">
-        <v>5.21</v>
+        <v>5.29</v>
       </c>
       <c r="F105" t="n">
-        <v>5159.117082533589</v>
+        <v>144757.556</v>
       </c>
       <c r="G105" t="n">
-        <v>26070523.95417077</v>
+        <v>-4315798.813710185</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4400,22 +4618,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.19</v>
+        <v>5.28</v>
       </c>
       <c r="C106" t="n">
-        <v>5.19</v>
+        <v>5.28</v>
       </c>
       <c r="D106" t="n">
-        <v>5.19</v>
+        <v>5.28</v>
       </c>
       <c r="E106" t="n">
-        <v>5.19</v>
+        <v>5.28</v>
       </c>
       <c r="F106" t="n">
-        <v>10392.67822736031</v>
+        <v>28137.035</v>
       </c>
       <c r="G106" t="n">
-        <v>26060131.27594341</v>
+        <v>-4343935.848710185</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4440,22 +4658,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="C107" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="D107" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="E107" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="F107" t="n">
-        <v>5196.339113680154</v>
+        <v>21930</v>
       </c>
       <c r="G107" t="n">
-        <v>26060131.27594341</v>
+        <v>-4322005.848710185</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4480,22 +4698,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="C108" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="D108" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="E108" t="n">
-        <v>5.1</v>
+        <v>5.34</v>
       </c>
       <c r="F108" t="n">
-        <v>6868.3722</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>26053262.90374341</v>
+        <v>-4322005.848710185</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4520,22 +4738,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.05</v>
+        <v>5.29</v>
       </c>
       <c r="C109" t="n">
-        <v>5.01</v>
+        <v>5.29</v>
       </c>
       <c r="D109" t="n">
-        <v>5.05</v>
+        <v>5.29</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>5.29</v>
       </c>
       <c r="F109" t="n">
-        <v>635234.5299</v>
+        <v>3388.1936</v>
       </c>
       <c r="G109" t="n">
-        <v>25418028.37384341</v>
+        <v>-4325394.042310185</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4560,22 +4778,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="C110" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="D110" t="n">
-        <v>5.1</v>
+        <v>5.28</v>
       </c>
       <c r="E110" t="n">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="F110" t="n">
-        <v>106701.0676</v>
+        <v>670786.8859</v>
       </c>
       <c r="G110" t="n">
-        <v>25524729.44144341</v>
+        <v>-4996180.928210185</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4600,30 +4818,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.03</v>
+        <v>5.17</v>
       </c>
       <c r="C111" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="D111" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="E111" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="F111" t="n">
-        <v>283.3905</v>
+        <v>1191528.9555</v>
       </c>
       <c r="G111" t="n">
-        <v>25524729.44144341</v>
+        <v>-3804651.972710185</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.19</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4640,30 +4860,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.02</v>
+        <v>5.24</v>
       </c>
       <c r="C112" t="n">
-        <v>5.02</v>
+        <v>5.24</v>
       </c>
       <c r="D112" t="n">
-        <v>5.02</v>
+        <v>5.24</v>
       </c>
       <c r="E112" t="n">
-        <v>5.02</v>
+        <v>5.24</v>
       </c>
       <c r="F112" t="n">
-        <v>13385.2317</v>
+        <v>21685.717</v>
       </c>
       <c r="G112" t="n">
-        <v>25511344.20974341</v>
+        <v>-3804651.972710185</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.24</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4692,18 +4914,20 @@
         <v>5.09</v>
       </c>
       <c r="F113" t="n">
-        <v>555</v>
+        <v>707351.8783</v>
       </c>
       <c r="G113" t="n">
-        <v>25511899.20974341</v>
+        <v>-4512003.851010185</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.24</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -4720,30 +4944,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="C114" t="n">
-        <v>5.02</v>
+        <v>5.08</v>
       </c>
       <c r="D114" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="E114" t="n">
-        <v>5.02</v>
+        <v>5.08</v>
       </c>
       <c r="F114" t="n">
-        <v>115098.9665</v>
+        <v>203069.0817</v>
       </c>
       <c r="G114" t="n">
-        <v>25396800.24324341</v>
+        <v>-4715072.932710185</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.09</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4760,22 +4986,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.02</v>
+        <v>5.17</v>
       </c>
       <c r="C115" t="n">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
       <c r="D115" t="n">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
       <c r="E115" t="n">
-        <v>5.02</v>
+        <v>5.17</v>
       </c>
       <c r="F115" t="n">
-        <v>49875</v>
+        <v>192775.2915</v>
       </c>
       <c r="G115" t="n">
-        <v>25396800.24324341</v>
+        <v>-4522297.641210184</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4784,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>5.02</v>
+        <v>5.08</v>
       </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
@@ -4802,22 +5028,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="C116" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="D116" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="E116" t="n">
-        <v>5.04</v>
+        <v>5.25</v>
       </c>
       <c r="F116" t="n">
-        <v>1130</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>25397930.24324341</v>
+        <v>-4522197.641210184</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4826,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>5.02</v>
+        <v>5.18</v>
       </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
@@ -4844,32 +5070,30 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="C117" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="D117" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="E117" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="F117" t="n">
-        <v>44211.414</v>
+        <v>9683.9288</v>
       </c>
       <c r="G117" t="n">
-        <v>25353718.82924341</v>
+        <v>-4531881.570010184</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>5.04</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4886,22 +5110,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.03</v>
+        <v>5.17</v>
       </c>
       <c r="C118" t="n">
-        <v>5.03</v>
+        <v>5.25</v>
       </c>
       <c r="D118" t="n">
-        <v>5.03</v>
+        <v>5.25</v>
       </c>
       <c r="E118" t="n">
-        <v>5.03</v>
+        <v>5.17</v>
       </c>
       <c r="F118" t="n">
-        <v>1651.2643</v>
+        <v>18602891.009</v>
       </c>
       <c r="G118" t="n">
-        <v>25355370.09354341</v>
+        <v>14071009.43898981</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4910,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
@@ -4928,32 +5152,30 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="C119" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="D119" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="E119" t="n">
-        <v>5.03</v>
+        <v>5.09</v>
       </c>
       <c r="F119" t="n">
-        <v>315.0951</v>
+        <v>284034.8952</v>
       </c>
       <c r="G119" t="n">
-        <v>25355370.09354341</v>
+        <v>13786974.54378982</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4970,32 +5192,30 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.03</v>
+        <v>5.22</v>
       </c>
       <c r="C120" t="n">
-        <v>5.03</v>
+        <v>5.22</v>
       </c>
       <c r="D120" t="n">
-        <v>5.03</v>
+        <v>5.22</v>
       </c>
       <c r="E120" t="n">
-        <v>5.03</v>
+        <v>5.22</v>
       </c>
       <c r="F120" t="n">
         <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>25355370.09354341</v>
+        <v>13787074.54378982</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -5012,32 +5232,30 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="C121" t="n">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="D121" t="n">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="E121" t="n">
-        <v>5.08</v>
+        <v>5.19</v>
       </c>
       <c r="F121" t="n">
-        <v>100</v>
+        <v>9438.032999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>25355470.09354341</v>
+        <v>13777636.51078982</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>5.03</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -5054,32 +5272,30 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.08</v>
+        <v>5.17</v>
       </c>
       <c r="C122" t="n">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="D122" t="n">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="E122" t="n">
-        <v>5.08</v>
+        <v>5.17</v>
       </c>
       <c r="F122" t="n">
-        <v>102431.9629</v>
+        <v>13875.04835589942</v>
       </c>
       <c r="G122" t="n">
-        <v>25457902.05644342</v>
+        <v>13763761.46243392</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>5.08</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -5096,32 +5312,30 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C123" t="n">
         <v>5.1</v>
       </c>
       <c r="D123" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="E123" t="n">
         <v>5.1</v>
       </c>
       <c r="F123" t="n">
-        <v>23793.9683</v>
+        <v>277955.2069</v>
       </c>
       <c r="G123" t="n">
-        <v>25457902.05644342</v>
+        <v>13485806.25553392</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -5138,32 +5352,30 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C124" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="D124" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="E124" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F124" t="n">
-        <v>2890.9453</v>
+        <v>21528.7063</v>
       </c>
       <c r="G124" t="n">
-        <v>25455011.11114341</v>
+        <v>13485806.25553392</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -5180,32 +5392,30 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C125" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="D125" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="E125" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F125" t="n">
-        <v>2601.8507</v>
+        <v>4119.2708</v>
       </c>
       <c r="G125" t="n">
-        <v>25455011.11114341</v>
+        <v>13485806.25553392</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -5222,32 +5432,30 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C126" t="n">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="D126" t="n">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="E126" t="n">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="F126" t="n">
-        <v>2398.1493</v>
+        <v>16918743.5368</v>
       </c>
       <c r="G126" t="n">
-        <v>25455011.11114341</v>
+        <v>30404549.79233392</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -5264,32 +5472,30 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.03</v>
+        <v>5.13</v>
       </c>
       <c r="C127" t="n">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="D127" t="n">
-        <v>5.03</v>
+        <v>5.13</v>
       </c>
       <c r="E127" t="n">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="F127" t="n">
-        <v>73154.7945</v>
+        <v>97017.5803</v>
       </c>
       <c r="G127" t="n">
-        <v>25381856.31664341</v>
+        <v>30307532.21203392</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>5.09</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -5306,32 +5512,30 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.05</v>
+        <v>5.19</v>
       </c>
       <c r="C128" t="n">
-        <v>5.06</v>
+        <v>5.22</v>
       </c>
       <c r="D128" t="n">
-        <v>5.06</v>
+        <v>5.22</v>
       </c>
       <c r="E128" t="n">
-        <v>5.05</v>
+        <v>5.19</v>
       </c>
       <c r="F128" t="n">
-        <v>18960319.7461</v>
+        <v>111</v>
       </c>
       <c r="G128" t="n">
-        <v>44342176.06274341</v>
+        <v>30307643.21203392</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>5</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
@@ -5348,32 +5552,30 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.06</v>
+        <v>5.22</v>
       </c>
       <c r="C129" t="n">
-        <v>5.06</v>
+        <v>5.22</v>
       </c>
       <c r="D129" t="n">
-        <v>5.06</v>
+        <v>5.22</v>
       </c>
       <c r="E129" t="n">
-        <v>5.06</v>
+        <v>5.22</v>
       </c>
       <c r="F129" t="n">
-        <v>18500000</v>
+        <v>40091.9177</v>
       </c>
       <c r="G129" t="n">
-        <v>44342176.06274341</v>
+        <v>30307643.21203392</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>5.06</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5390,32 +5592,30 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.04</v>
+        <v>5.21</v>
       </c>
       <c r="C130" t="n">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
       <c r="D130" t="n">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
       <c r="E130" t="n">
-        <v>5.04</v>
+        <v>5.21</v>
       </c>
       <c r="F130" t="n">
-        <v>18133351.5734</v>
+        <v>980</v>
       </c>
       <c r="G130" t="n">
-        <v>44342176.06274341</v>
+        <v>30306663.21203392</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>5.06</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5432,32 +5632,30 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.04</v>
+        <v>5.2</v>
       </c>
       <c r="C131" t="n">
-        <v>5.04</v>
+        <v>5.2</v>
       </c>
       <c r="D131" t="n">
-        <v>5.04</v>
+        <v>5.2</v>
       </c>
       <c r="E131" t="n">
-        <v>5.04</v>
+        <v>5.2</v>
       </c>
       <c r="F131" t="n">
-        <v>6695.5047</v>
+        <v>13893.6102</v>
       </c>
       <c r="G131" t="n">
-        <v>44335480.55804341</v>
+        <v>30292769.60183392</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>5.06</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5474,32 +5672,30 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="C132" t="n">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="D132" t="n">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="E132" t="n">
-        <v>5.07</v>
+        <v>5.17</v>
       </c>
       <c r="F132" t="n">
-        <v>9300000</v>
+        <v>13100</v>
       </c>
       <c r="G132" t="n">
-        <v>53635480.55804341</v>
+        <v>30279669.60183392</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>5.04</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5516,32 +5712,30 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.07</v>
+        <v>5.18</v>
       </c>
       <c r="C133" t="n">
-        <v>5.07</v>
+        <v>5.18</v>
       </c>
       <c r="D133" t="n">
-        <v>5.07</v>
+        <v>5.18</v>
       </c>
       <c r="E133" t="n">
-        <v>5.07</v>
+        <v>5.18</v>
       </c>
       <c r="F133" t="n">
-        <v>9200000</v>
+        <v>13009.4994</v>
       </c>
       <c r="G133" t="n">
-        <v>53635480.55804341</v>
+        <v>30292679.10123392</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5558,32 +5752,30 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C134" t="n">
         <v>5.09</v>
       </c>
-      <c r="C134" t="n">
-        <v>5.1</v>
-      </c>
       <c r="D134" t="n">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="E134" t="n">
         <v>5.09</v>
       </c>
       <c r="F134" t="n">
-        <v>257456.0326</v>
+        <v>460674.5494</v>
       </c>
       <c r="G134" t="n">
-        <v>53892936.59064341</v>
+        <v>29832004.55183392</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5600,32 +5792,30 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="C135" t="n">
-        <v>5.1</v>
+        <v>5.19</v>
       </c>
       <c r="D135" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="E135" t="n">
-        <v>5.1</v>
+        <v>5.13</v>
       </c>
       <c r="F135" t="n">
-        <v>3873.4247</v>
+        <v>64626.60670520231</v>
       </c>
       <c r="G135" t="n">
-        <v>53892936.59064341</v>
+        <v>29896631.15853912</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5642,22 +5832,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.15</v>
+        <v>5.19</v>
       </c>
       <c r="C136" t="n">
         <v>5.15</v>
       </c>
       <c r="D136" t="n">
-        <v>5.15</v>
+        <v>5.21</v>
       </c>
       <c r="E136" t="n">
         <v>5.15</v>
       </c>
       <c r="F136" t="n">
-        <v>6854.1642</v>
+        <v>34907.76317541189</v>
       </c>
       <c r="G136" t="n">
-        <v>53899790.75484341</v>
+        <v>29861723.39536371</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5682,22 +5872,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="C137" t="n">
-        <v>5.19</v>
+        <v>5.14</v>
       </c>
       <c r="D137" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="E137" t="n">
-        <v>5.19</v>
+        <v>5.14</v>
       </c>
       <c r="F137" t="n">
-        <v>17653.993</v>
+        <v>28436.4074</v>
       </c>
       <c r="G137" t="n">
-        <v>53917444.74784341</v>
+        <v>29833286.98796371</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5722,7 +5912,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.19</v>
+        <v>5.2</v>
       </c>
       <c r="C138" t="n">
         <v>5.2</v>
@@ -5731,13 +5921,13 @@
         <v>5.2</v>
       </c>
       <c r="E138" t="n">
-        <v>5.19</v>
+        <v>5.2</v>
       </c>
       <c r="F138" t="n">
-        <v>187707.3479909615</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>54105152.09583437</v>
+        <v>29833386.98796371</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5762,22 +5952,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.2</v>
+        <v>5.11</v>
       </c>
       <c r="C139" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="D139" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="E139" t="n">
-        <v>5.2</v>
+        <v>5.11</v>
       </c>
       <c r="F139" t="n">
-        <v>162206.9015314953</v>
+        <v>9347.338299999999</v>
       </c>
       <c r="G139" t="n">
-        <v>54267358.99736587</v>
+        <v>29824039.64966371</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5802,22 +5992,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="C140" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="D140" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="E140" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="F140" t="n">
-        <v>37506.00767754319</v>
+        <v>118268.3505</v>
       </c>
       <c r="G140" t="n">
-        <v>54267358.99736587</v>
+        <v>29705771.29916371</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5842,22 +6032,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.22</v>
+        <v>5.1</v>
       </c>
       <c r="C141" t="n">
-        <v>5.23</v>
+        <v>5.1</v>
       </c>
       <c r="D141" t="n">
-        <v>5.23</v>
+        <v>5.1</v>
       </c>
       <c r="E141" t="n">
-        <v>5.22</v>
+        <v>5.1</v>
       </c>
       <c r="F141" t="n">
-        <v>40212.1614</v>
+        <v>100</v>
       </c>
       <c r="G141" t="n">
-        <v>54307571.15876587</v>
+        <v>29705771.29916371</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5882,22 +6072,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="C142" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="D142" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="E142" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="F142" t="n">
-        <v>17176.17285714286</v>
+        <v>71000</v>
       </c>
       <c r="G142" t="n">
-        <v>54324747.33162301</v>
+        <v>29634771.29916371</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5922,22 +6112,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="C143" t="n">
-        <v>5.3</v>
+        <v>5.09</v>
       </c>
       <c r="D143" t="n">
-        <v>5.3</v>
+        <v>5.09</v>
       </c>
       <c r="E143" t="n">
-        <v>5.25</v>
+        <v>5.09</v>
       </c>
       <c r="F143" t="n">
-        <v>963301.9689299294</v>
+        <v>43316.9365</v>
       </c>
       <c r="G143" t="n">
-        <v>55288049.30055294</v>
+        <v>29634771.29916371</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5962,37 +6152,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="C144" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="D144" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="E144" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="F144" t="n">
-        <v>321601.6844</v>
+        <v>9224.914500000001</v>
       </c>
       <c r="G144" t="n">
-        <v>55288049.30055294</v>
+        <v>29643996.21366371</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
       <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -6000,32 +6192,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.3</v>
+        <v>5.11</v>
       </c>
       <c r="C145" t="n">
-        <v>5.31</v>
+        <v>5.11</v>
       </c>
       <c r="D145" t="n">
-        <v>5.31</v>
+        <v>5.11</v>
       </c>
       <c r="E145" t="n">
-        <v>5.3</v>
+        <v>5.11</v>
       </c>
       <c r="F145" t="n">
-        <v>1781.790687594967</v>
+        <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>55289831.09124054</v>
+        <v>29644096.21366371</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6036,32 +6232,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.31</v>
+        <v>5.09</v>
       </c>
       <c r="C146" t="n">
-        <v>5.31</v>
+        <v>5.09</v>
       </c>
       <c r="D146" t="n">
-        <v>5.31</v>
+        <v>5.09</v>
       </c>
       <c r="E146" t="n">
-        <v>5.31</v>
+        <v>5.09</v>
       </c>
       <c r="F146" t="n">
-        <v>20000</v>
+        <v>26323.0759</v>
       </c>
       <c r="G146" t="n">
-        <v>55289831.09124054</v>
+        <v>29617773.13776371</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6072,32 +6272,36 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.3</v>
+        <v>5.09</v>
       </c>
       <c r="C147" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="D147" t="n">
-        <v>5.3</v>
+        <v>5.09</v>
       </c>
       <c r="E147" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="F147" t="n">
-        <v>371097.2558</v>
+        <v>68689.71219999999</v>
       </c>
       <c r="G147" t="n">
-        <v>54918733.83544054</v>
+        <v>29549083.42556371</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6108,32 +6312,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="C148" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="D148" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="E148" t="n">
-        <v>5.16</v>
+        <v>5.06</v>
       </c>
       <c r="F148" t="n">
-        <v>511.0454</v>
+        <v>275699.6799</v>
       </c>
       <c r="G148" t="n">
-        <v>54919244.88084054</v>
+        <v>29273383.74566371</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6144,32 +6352,36 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="C149" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="D149" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="E149" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="F149" t="n">
-        <v>6709.5632</v>
+        <v>19128.5023</v>
       </c>
       <c r="G149" t="n">
-        <v>54919244.88084054</v>
+        <v>29292512.24796371</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6180,32 +6392,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.22</v>
+        <v>5.07</v>
       </c>
       <c r="C150" t="n">
-        <v>5.22</v>
+        <v>5.07</v>
       </c>
       <c r="D150" t="n">
-        <v>5.22</v>
+        <v>5.07</v>
       </c>
       <c r="E150" t="n">
-        <v>5.22</v>
+        <v>5.07</v>
       </c>
       <c r="F150" t="n">
-        <v>3842.4154</v>
+        <v>227750.8093</v>
       </c>
       <c r="G150" t="n">
-        <v>54923087.29624054</v>
+        <v>29292512.24796371</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6216,32 +6432,36 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.22</v>
+        <v>5.07</v>
       </c>
       <c r="C151" t="n">
-        <v>5.2</v>
+        <v>5.06</v>
       </c>
       <c r="D151" t="n">
-        <v>5.22</v>
+        <v>5.07</v>
       </c>
       <c r="E151" t="n">
-        <v>5.2</v>
+        <v>5.06</v>
       </c>
       <c r="F151" t="n">
-        <v>34624.8581</v>
+        <v>257456.4864</v>
       </c>
       <c r="G151" t="n">
-        <v>54888462.43814054</v>
+        <v>29035055.76156371</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6252,32 +6472,36 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.18</v>
+        <v>5.14</v>
       </c>
       <c r="C152" t="n">
-        <v>5.18</v>
+        <v>5.14</v>
       </c>
       <c r="D152" t="n">
-        <v>5.18</v>
+        <v>5.14</v>
       </c>
       <c r="E152" t="n">
-        <v>5.18</v>
+        <v>5.14</v>
       </c>
       <c r="F152" t="n">
-        <v>4268.3266</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
-        <v>54884194.11154054</v>
+        <v>29035355.76156371</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6288,32 +6512,36 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="C153" t="n">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="D153" t="n">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="E153" t="n">
-        <v>5.18</v>
+        <v>5.09</v>
       </c>
       <c r="F153" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G153" t="n">
-        <v>54884194.11154054</v>
+        <v>29035155.76156371</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6324,32 +6552,36 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="C154" t="n">
-        <v>5.17</v>
+        <v>5.07</v>
       </c>
       <c r="D154" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="E154" t="n">
-        <v>5.17</v>
+        <v>5.07</v>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>161735.4703</v>
       </c>
       <c r="G154" t="n">
-        <v>54883994.11154054</v>
+        <v>28873420.29126371</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6360,32 +6592,36 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.17</v>
+        <v>5.07</v>
       </c>
       <c r="C155" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="D155" t="n">
-        <v>5.17</v>
+        <v>5.07</v>
       </c>
       <c r="E155" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="F155" t="n">
-        <v>370000.95</v>
+        <v>29034.8646</v>
       </c>
       <c r="G155" t="n">
-        <v>54513993.16154054</v>
+        <v>28873420.29126371</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6396,32 +6632,36 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="C156" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="D156" t="n">
-        <v>5.16</v>
+        <v>5.07</v>
       </c>
       <c r="E156" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="F156" t="n">
-        <v>621142.2058</v>
+        <v>91711.7864</v>
       </c>
       <c r="G156" t="n">
-        <v>54513993.16154054</v>
+        <v>28873420.29126371</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6432,32 +6672,36 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="C157" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="D157" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="E157" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="F157" t="n">
-        <v>42963.185</v>
+        <v>26683.13</v>
       </c>
       <c r="G157" t="n">
-        <v>54471029.97654054</v>
+        <v>28873420.29126371</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6468,32 +6712,36 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.12</v>
+        <v>5.07</v>
       </c>
       <c r="C158" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="D158" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="E158" t="n">
-        <v>5.12</v>
+        <v>5.07</v>
       </c>
       <c r="F158" t="n">
-        <v>340000</v>
+        <v>29277.5874</v>
       </c>
       <c r="G158" t="n">
-        <v>54811029.97654054</v>
+        <v>28873420.29126371</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6504,32 +6752,36 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="C159" t="n">
-        <v>5.15</v>
+        <v>5.06</v>
       </c>
       <c r="D159" t="n">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="E159" t="n">
-        <v>5.15</v>
+        <v>5.06</v>
       </c>
       <c r="F159" t="n">
-        <v>630517.5797999999</v>
+        <v>289012.8899</v>
       </c>
       <c r="G159" t="n">
-        <v>54811029.97654054</v>
+        <v>28584407.40136371</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6540,22 +6792,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C160" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="D160" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="E160" t="n">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="F160" t="n">
-        <v>106933.9267</v>
+        <v>500</v>
       </c>
       <c r="G160" t="n">
-        <v>54704096.04984053</v>
+        <v>28584907.40136371</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6565,7 +6817,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6576,22 +6832,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="C161" t="n">
-        <v>5.1</v>
+        <v>5.05</v>
       </c>
       <c r="D161" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="E161" t="n">
-        <v>5.1</v>
+        <v>5.05</v>
       </c>
       <c r="F161" t="n">
-        <v>126225.9312</v>
+        <v>2428893.8819</v>
       </c>
       <c r="G161" t="n">
-        <v>54704096.04984053</v>
+        <v>26156013.51946371</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6601,7 +6857,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6612,22 +6872,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="C162" t="n">
-        <v>5.15</v>
+        <v>5</v>
       </c>
       <c r="D162" t="n">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
       <c r="E162" t="n">
-        <v>5.15</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>103707.8255</v>
+        <v>603149.4020999999</v>
       </c>
       <c r="G162" t="n">
-        <v>54807803.87534053</v>
+        <v>25552864.11736371</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6637,7 +6897,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6648,22 +6912,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="C163" t="n">
-        <v>5.1</v>
+        <v>5.05</v>
       </c>
       <c r="D163" t="n">
-        <v>5.1</v>
+        <v>5.05</v>
       </c>
       <c r="E163" t="n">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="F163" t="n">
-        <v>84676.46739999999</v>
+        <v>244182.2601</v>
       </c>
       <c r="G163" t="n">
-        <v>54723127.40794053</v>
+        <v>25797046.37746371</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6673,7 +6937,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6684,22 +6952,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.1</v>
+        <v>5.04</v>
       </c>
       <c r="C164" t="n">
-        <v>5.1</v>
+        <v>5.04</v>
       </c>
       <c r="D164" t="n">
-        <v>5.1</v>
+        <v>5.04</v>
       </c>
       <c r="E164" t="n">
-        <v>5.1</v>
+        <v>5.04</v>
       </c>
       <c r="F164" t="n">
-        <v>103707.8255</v>
+        <v>540.0486</v>
       </c>
       <c r="G164" t="n">
-        <v>54723127.40794053</v>
+        <v>25796506.32886371</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6709,7 +6977,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6720,22 +6992,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="C165" t="n">
-        <v>5.07</v>
+        <v>5.01</v>
       </c>
       <c r="D165" t="n">
-        <v>5.1</v>
+        <v>5.01</v>
       </c>
       <c r="E165" t="n">
-        <v>5.07</v>
+        <v>5.01</v>
       </c>
       <c r="F165" t="n">
-        <v>340000</v>
+        <v>3306.769</v>
       </c>
       <c r="G165" t="n">
-        <v>54383127.40794053</v>
+        <v>25793199.55986371</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6745,7 +7017,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6756,32 +7032,36 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.08</v>
+        <v>5.01</v>
       </c>
       <c r="C166" t="n">
-        <v>5.07</v>
+        <v>5.01</v>
       </c>
       <c r="D166" t="n">
-        <v>5.08</v>
+        <v>5.01</v>
       </c>
       <c r="E166" t="n">
-        <v>5.07</v>
+        <v>5.01</v>
       </c>
       <c r="F166" t="n">
-        <v>20107.605</v>
+        <v>157619.5041</v>
       </c>
       <c r="G166" t="n">
-        <v>54383127.40794053</v>
+        <v>25793199.55986371</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6792,36 +7072,36 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.14</v>
+        <v>5.01</v>
       </c>
       <c r="C167" t="n">
-        <v>5.14</v>
+        <v>5.01</v>
       </c>
       <c r="D167" t="n">
-        <v>5.14</v>
+        <v>5.01</v>
       </c>
       <c r="E167" t="n">
-        <v>5.14</v>
+        <v>5.01</v>
       </c>
       <c r="F167" t="n">
-        <v>11370.2475</v>
+        <v>81115.63</v>
       </c>
       <c r="G167" t="n">
-        <v>54394497.65544053</v>
+        <v>25793199.55986371</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K167" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6832,36 +7112,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.08</v>
+        <v>5.01</v>
       </c>
       <c r="C168" t="n">
-        <v>5.08</v>
+        <v>5.01</v>
       </c>
       <c r="D168" t="n">
-        <v>5.08</v>
+        <v>5.01</v>
       </c>
       <c r="E168" t="n">
-        <v>5.08</v>
+        <v>5.01</v>
       </c>
       <c r="F168" t="n">
-        <v>3702.4871</v>
+        <v>195279.2668</v>
       </c>
       <c r="G168" t="n">
-        <v>54390795.16834053</v>
+        <v>25793199.55986371</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>5.07</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -6874,42 +7152,2622 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F169" t="n">
+        <v>157718.3865</v>
+      </c>
+      <c r="G169" t="n">
+        <v>25793199.55986371</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F170" t="n">
+        <v>44093.6042</v>
+      </c>
+      <c r="G170" t="n">
+        <v>25793199.55986371</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>44193.6042</v>
+      </c>
+      <c r="G171" t="n">
+        <v>25749005.9556637</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F172" t="n">
+        <v>26811.97</v>
+      </c>
+      <c r="G172" t="n">
+        <v>25775817.9256637</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F173" t="n">
+        <v>260680.7773916505</v>
+      </c>
+      <c r="G173" t="n">
+        <v>26036498.70305535</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F174" t="n">
+        <v>75258.05825242719</v>
+      </c>
+      <c r="G174" t="n">
+        <v>26036498.70305535</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F175" t="n">
+        <v>34025.25111542329</v>
+      </c>
+      <c r="G175" t="n">
+        <v>26070523.95417077</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5159.117082533589</v>
+      </c>
+      <c r="G176" t="n">
+        <v>26070523.95417077</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F177" t="n">
+        <v>10392.67822736031</v>
+      </c>
+      <c r="G177" t="n">
+        <v>26060131.27594341</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="D178" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F178" t="n">
+        <v>5196.339113680154</v>
+      </c>
+      <c r="G178" t="n">
+        <v>26060131.27594341</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>6868.3722</v>
+      </c>
+      <c r="G179" t="n">
+        <v>26053262.90374341</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>635234.5299</v>
+      </c>
+      <c r="G180" t="n">
+        <v>25418028.37384341</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
         <v>5.08</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C181" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E181" t="n">
         <v>5.08</v>
       </c>
-      <c r="D169" t="n">
+      <c r="F181" t="n">
+        <v>106701.0676</v>
+      </c>
+      <c r="G181" t="n">
+        <v>25524729.44144341</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F182" t="n">
+        <v>283.3905</v>
+      </c>
+      <c r="G182" t="n">
+        <v>25524729.44144341</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13385.2317</v>
+      </c>
+      <c r="G183" t="n">
+        <v>25511344.20974341</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F184" t="n">
+        <v>555</v>
+      </c>
+      <c r="G184" t="n">
+        <v>25511899.20974341</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D185" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F185" t="n">
+        <v>115098.9665</v>
+      </c>
+      <c r="G185" t="n">
+        <v>25396800.24324341</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F186" t="n">
+        <v>49875</v>
+      </c>
+      <c r="G186" t="n">
+        <v>25396800.24324341</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1130</v>
+      </c>
+      <c r="G187" t="n">
+        <v>25397930.24324341</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F188" t="n">
+        <v>44211.414</v>
+      </c>
+      <c r="G188" t="n">
+        <v>25353718.82924341</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1651.2643</v>
+      </c>
+      <c r="G189" t="n">
+        <v>25355370.09354341</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F190" t="n">
+        <v>315.0951</v>
+      </c>
+      <c r="G190" t="n">
+        <v>25355370.09354341</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F191" t="n">
+        <v>100</v>
+      </c>
+      <c r="G191" t="n">
+        <v>25355370.09354341</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
         <v>5.08</v>
       </c>
-      <c r="E169" t="n">
+      <c r="C192" t="n">
         <v>5.08</v>
       </c>
-      <c r="F169" t="n">
+      <c r="D192" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F192" t="n">
+        <v>100</v>
+      </c>
+      <c r="G192" t="n">
+        <v>25355470.09354341</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F193" t="n">
+        <v>102431.9629</v>
+      </c>
+      <c r="G193" t="n">
+        <v>25457902.05644342</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>23793.9683</v>
+      </c>
+      <c r="G194" t="n">
+        <v>25457902.05644342</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D195" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2890.9453</v>
+      </c>
+      <c r="G195" t="n">
+        <v>25455011.11114341</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2601.8507</v>
+      </c>
+      <c r="G196" t="n">
+        <v>25455011.11114341</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2398.1493</v>
+      </c>
+      <c r="G197" t="n">
+        <v>25455011.11114341</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>73154.7945</v>
+      </c>
+      <c r="G198" t="n">
+        <v>25381856.31664341</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E199" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>18960319.7461</v>
+      </c>
+      <c r="G199" t="n">
+        <v>44342176.06274341</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E200" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F200" t="n">
+        <v>18500000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>44342176.06274341</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F201" t="n">
+        <v>18133351.5734</v>
+      </c>
+      <c r="G201" t="n">
+        <v>44342176.06274341</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="F202" t="n">
+        <v>6695.5047</v>
+      </c>
+      <c r="G202" t="n">
+        <v>44335480.55804341</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F203" t="n">
+        <v>9300000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>53635480.55804341</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E204" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F204" t="n">
+        <v>9200000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>53635480.55804341</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E205" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F205" t="n">
+        <v>257456.0326</v>
+      </c>
+      <c r="G205" t="n">
+        <v>53892936.59064341</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3873.4247</v>
+      </c>
+      <c r="G206" t="n">
+        <v>53892936.59064341</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D207" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6854.1642</v>
+      </c>
+      <c r="G207" t="n">
+        <v>53899790.75484341</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F208" t="n">
+        <v>17653.993</v>
+      </c>
+      <c r="G208" t="n">
+        <v>53917444.74784341</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F209" t="n">
+        <v>187707.3479909615</v>
+      </c>
+      <c r="G209" t="n">
+        <v>54105152.09583437</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E210" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>162206.9015314953</v>
+      </c>
+      <c r="G210" t="n">
+        <v>54267358.99736587</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F211" t="n">
+        <v>37506.00767754319</v>
+      </c>
+      <c r="G211" t="n">
+        <v>54267358.99736587</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F212" t="n">
+        <v>40212.1614</v>
+      </c>
+      <c r="G212" t="n">
+        <v>54307571.15876587</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F213" t="n">
+        <v>17176.17285714286</v>
+      </c>
+      <c r="G213" t="n">
+        <v>54324747.33162301</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F214" t="n">
+        <v>963301.9689299294</v>
+      </c>
+      <c r="G214" t="n">
+        <v>55288049.30055294</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F215" t="n">
+        <v>321601.6844</v>
+      </c>
+      <c r="G215" t="n">
+        <v>55288049.30055294</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1781.790687594967</v>
+      </c>
+      <c r="G216" t="n">
+        <v>55289831.09124054</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="F217" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>55289831.09124054</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F218" t="n">
+        <v>371097.2558</v>
+      </c>
+      <c r="G218" t="n">
+        <v>54918733.83544054</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D219" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F219" t="n">
+        <v>511.0454</v>
+      </c>
+      <c r="G219" t="n">
+        <v>54919244.88084054</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D220" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6709.5632</v>
+      </c>
+      <c r="G220" t="n">
+        <v>54919244.88084054</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3842.4154</v>
+      </c>
+      <c r="G221" t="n">
+        <v>54923087.29624054</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E222" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>34624.8581</v>
+      </c>
+      <c r="G222" t="n">
+        <v>54888462.43814054</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F223" t="n">
+        <v>4268.3266</v>
+      </c>
+      <c r="G223" t="n">
+        <v>54884194.11154054</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F224" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G224" t="n">
+        <v>54884194.11154054</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F225" t="n">
+        <v>200</v>
+      </c>
+      <c r="G225" t="n">
+        <v>54883994.11154054</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F226" t="n">
+        <v>370000.95</v>
+      </c>
+      <c r="G226" t="n">
+        <v>54513993.16154054</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F227" t="n">
+        <v>621142.2058</v>
+      </c>
+      <c r="G227" t="n">
+        <v>54513993.16154054</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>42963.185</v>
+      </c>
+      <c r="G228" t="n">
+        <v>54471029.97654054</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F229" t="n">
+        <v>340000</v>
+      </c>
+      <c r="G229" t="n">
+        <v>54811029.97654054</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F230" t="n">
+        <v>630517.5797999999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>54811029.97654054</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>106933.9267</v>
+      </c>
+      <c r="G231" t="n">
+        <v>54704096.04984053</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>126225.9312</v>
+      </c>
+      <c r="G232" t="n">
+        <v>54704096.04984053</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F233" t="n">
+        <v>103707.8255</v>
+      </c>
+      <c r="G233" t="n">
+        <v>54807803.87534053</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>84676.46739999999</v>
+      </c>
+      <c r="G234" t="n">
+        <v>54723127.40794053</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F235" t="n">
+        <v>103707.8255</v>
+      </c>
+      <c r="G235" t="n">
+        <v>54723127.40794053</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D236" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F236" t="n">
+        <v>340000</v>
+      </c>
+      <c r="G236" t="n">
+        <v>54383127.40794053</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D237" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E237" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F237" t="n">
+        <v>20107.605</v>
+      </c>
+      <c r="G237" t="n">
+        <v>54383127.40794053</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E238" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F238" t="n">
+        <v>11370.2475</v>
+      </c>
+      <c r="G238" t="n">
+        <v>54394497.65544053</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C239" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D239" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E239" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F239" t="n">
+        <v>3702.4871</v>
+      </c>
+      <c r="G239" t="n">
+        <v>54390795.16834053</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F240" t="n">
         <v>13893.6102</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G240" t="n">
         <v>54390795.16834053</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N240"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2172611.252311515</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>649539.0891115151</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +519,13 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>1035420.503311515</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,22 +583,15 @@
         <v>2008258.221211515</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,22 +616,15 @@
         <v>2098258.221211515</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -698,22 +649,15 @@
         <v>2040689.429511515</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,24 +682,15 @@
         <v>2060831.278511515</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,22 +715,15 @@
         <v>2134981.881011515</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,20 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -860,22 +781,15 @@
         <v>3392887.860511515</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -900,22 +814,15 @@
         <v>3937221.719366414</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,22 +847,15 @@
         <v>3365495.289299581</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,20 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,20 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1060,22 +946,15 @@
         <v>3086658.890499581</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1100,22 +979,15 @@
         <v>2726901.488899581</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1142,20 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1182,20 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1222,20 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1262,20 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1302,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1342,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1382,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1422,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1460,24 +1276,21 @@
         <v>-810989.522653112</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>5</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1502,22 +1315,21 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1542,24 +1354,21 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>5.05</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1586,20 +1395,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1626,20 +1432,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,22 +1467,21 @@
         <v>-687163.014444201</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5.06</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1704,22 +1506,21 @@
         <v>-623649.321244201</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1746,20 +1547,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1786,20 +1584,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1826,20 +1621,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1866,20 +1658,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1906,20 +1695,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1946,20 +1732,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1986,20 +1769,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2026,20 +1806,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2066,20 +1843,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2106,20 +1880,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2146,20 +1917,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2184,22 +1952,21 @@
         <v>-228654.9293753086</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2226,20 +1993,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2266,20 +2030,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2304,24 +2065,19 @@
         <v>-805082.6316753087</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2346,24 +2102,19 @@
         <v>-806623.7404753087</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2388,24 +2139,19 @@
         <v>-806523.7404753087</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2430,24 +2176,19 @@
         <v>-806523.7404753087</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2474,20 +2215,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2514,20 +2252,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2554,20 +2289,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2594,20 +2326,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2634,20 +2363,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2674,20 +2400,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2714,20 +2437,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2754,20 +2474,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2794,20 +2511,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2834,20 +2548,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2874,20 +2585,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2914,20 +2622,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,20 +2659,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2994,20 +2696,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3034,20 +2733,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3074,20 +2770,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3114,20 +2807,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,20 +2844,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3194,20 +2881,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3234,20 +2918,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3274,20 +2955,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3314,20 +2992,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3354,20 +3029,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3394,20 +3066,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3434,20 +3103,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3474,20 +3140,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3514,20 +3177,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3554,20 +3214,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3594,20 +3251,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3632,22 +3286,17 @@
         <v>-3586703.465911744</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3674,20 +3323,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3712,22 +3354,15 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3752,22 +3387,15 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3792,22 +3420,15 @@
         <v>-1387323.084811744</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3832,22 +3453,15 @@
         <v>-1879359.141774816</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3872,22 +3486,15 @@
         <v>-1816000.7559671</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3912,22 +3519,15 @@
         <v>-1888898.200110186</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3952,22 +3552,15 @@
         <v>-3326981.183110186</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3994,20 +3587,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4034,20 +3620,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4074,20 +3653,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4114,20 +3686,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4154,20 +3719,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4194,20 +3752,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4232,24 +3783,15 @@
         <v>-5576035.736210185</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4274,24 +3816,15 @@
         <v>-4145356.428110185</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4318,20 +3851,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4358,20 +3884,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4398,20 +3917,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4438,20 +3950,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4478,20 +3983,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4518,20 +4016,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4558,20 +4049,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4598,20 +4082,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4638,20 +4115,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4678,20 +4148,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4718,20 +4181,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4758,20 +4214,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4798,20 +4247,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4836,24 +4278,15 @@
         <v>-3804651.972710185</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4878,24 +4311,15 @@
         <v>-3804651.972710185</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4920,24 +4344,15 @@
         <v>-4512003.851010185</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4962,24 +4377,15 @@
         <v>-4715072.932710185</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5004,24 +4410,15 @@
         <v>-4522297.641210184</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5046,24 +4443,15 @@
         <v>-4522197.641210184</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5090,20 +4478,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5128,24 +4509,15 @@
         <v>14071009.43898981</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>5.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5172,20 +4544,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5212,20 +4577,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5252,20 +4610,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5292,20 +4643,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5332,20 +4676,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5372,20 +4709,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5412,20 +4742,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5452,20 +4775,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5492,20 +4808,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5532,20 +4841,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5572,20 +4874,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5612,20 +4907,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5652,20 +4940,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5692,20 +4973,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5732,20 +5006,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5772,20 +5039,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5812,20 +5072,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5852,20 +5105,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5892,20 +5138,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5932,20 +5171,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5972,20 +5204,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6012,20 +5237,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6052,20 +5270,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6092,20 +5303,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6132,20 +5336,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6172,20 +5369,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6212,20 +5402,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6252,20 +5435,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6292,20 +5468,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6332,20 +5501,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6372,20 +5534,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6412,20 +5567,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6452,20 +5600,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6492,20 +5633,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6532,20 +5666,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6572,20 +5699,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6612,20 +5732,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6652,20 +5765,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6692,20 +5798,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6732,20 +5831,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6772,20 +5864,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6812,20 +5897,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6852,20 +5930,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6892,20 +5963,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6932,20 +5996,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6972,20 +6029,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7012,20 +6062,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7052,20 +6095,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7092,20 +6128,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7132,20 +6161,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7172,20 +6194,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7212,20 +6227,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7252,20 +6260,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7292,20 +6293,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7330,22 +6324,21 @@
         <v>26036498.70305535</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7372,20 +6365,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7412,20 +6402,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7452,18 +6439,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
       </c>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7490,16 +6476,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7526,16 +6513,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7562,16 +6550,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7598,16 +6587,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7634,16 +6624,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7670,16 +6661,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7706,16 +6698,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7742,16 +6735,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7778,16 +6772,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7814,16 +6809,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7850,16 +6846,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7884,18 +6881,21 @@
         <v>25353718.82924341</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7920,18 +6920,21 @@
         <v>25355370.09354341</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7956,18 +6959,21 @@
         <v>25355370.09354341</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7992,18 +6998,21 @@
         <v>25355370.09354341</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8028,18 +7037,21 @@
         <v>25355470.09354341</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8064,18 +7076,21 @@
         <v>25457902.05644342</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8102,16 +7117,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8138,16 +7154,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8174,16 +7191,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8210,16 +7228,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8246,16 +7265,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8280,18 +7300,21 @@
         <v>44342176.06274341</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8318,16 +7341,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8354,16 +7378,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8390,16 +7415,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8426,16 +7452,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8462,16 +7489,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8498,16 +7526,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8534,16 +7563,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8570,16 +7600,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8606,16 +7637,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8642,16 +7674,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8678,16 +7711,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8714,16 +7748,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8750,16 +7785,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8786,16 +7822,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8822,16 +7859,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8858,16 +7896,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8894,16 +7933,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8928,18 +7968,17 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8964,18 +8003,15 @@
         <v>54918733.83544054</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9000,18 +8036,15 @@
         <v>54919244.88084054</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9036,18 +8069,15 @@
         <v>54919244.88084054</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9074,16 +8104,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9110,16 +8137,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9144,18 +8168,15 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9182,16 +8203,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9216,18 +8234,15 @@
         <v>54883994.11154054</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9252,18 +8267,15 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9288,18 +8300,15 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9326,16 +8335,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9362,16 +8368,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9398,16 +8401,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9434,16 +8434,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9470,16 +8467,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9504,18 +8498,15 @@
         <v>54807803.87534053</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9542,16 +8533,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9578,16 +8566,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9614,16 +8599,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9650,16 +8632,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9686,16 +8665,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9722,16 +8698,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9758,18 +8731,15 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2172611.252311515</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>649539.0891115151</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.21</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -519,9 +525,15 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>1035420.503311515</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -585,9 +603,15 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>5.28</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,15 @@
         <v>2098258.221211515</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +677,15 @@
         <v>2040689.429511515</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +714,17 @@
         <v>2060831.278511515</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -717,9 +755,15 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>5.24</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +796,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +829,15 @@
         <v>3392887.860511515</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +866,15 @@
         <v>3937221.719366414</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +903,15 @@
         <v>3365495.289299581</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +944,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +981,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1014,15 @@
         <v>3086658.890499581</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1051,15 @@
         <v>2726901.488899581</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1092,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1129,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1166,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1203,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1240,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1277,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1314,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1347,17 @@
         <v>-908061.7988004197</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.06</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,7 +1386,7 @@
         <v>-810989.522653112</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>5</v>
@@ -1284,7 +1394,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1315,7 +1425,7 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>5.2</v>
@@ -1354,7 +1464,7 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>5.05</v>
@@ -1393,9 +1503,11 @@
         <v>-688316.841344201</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1430,9 +1542,11 @@
         <v>-688316.841344201</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.06</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1467,7 +1581,7 @@
         <v>-687163.014444201</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>5.06</v>
@@ -1506,7 +1620,7 @@
         <v>-623649.321244201</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>5.12</v>
@@ -1545,9 +1659,11 @@
         <v>-730583.247944201</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.21</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1582,9 +1698,11 @@
         <v>-803786.757244201</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1619,9 +1737,11 @@
         <v>-239978.592144201</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.09</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1952,11 +2072,9 @@
         <v>-228654.9293753086</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -3286,16 +3404,18 @@
         <v>-3586703.465911744</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
       <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3325,7 +3445,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +3478,15 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3515,15 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3420,11 +3552,15 @@
         <v>-1387323.084811744</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3589,15 @@
         <v>-1879359.141774816</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3626,15 @@
         <v>-1816000.7559671</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3663,15 @@
         <v>-1888898.200110186</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3552,11 +3700,15 @@
         <v>-3326981.183110186</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3589,7 +3741,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3622,7 +3778,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3655,7 +3815,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3688,7 +3852,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3721,7 +3889,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3754,7 +3926,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3787,7 +3963,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3820,7 +4000,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3853,7 +4037,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3886,7 +4074,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3919,7 +4111,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3952,7 +4148,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3985,7 +4185,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4018,7 +4222,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4051,7 +4259,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4084,7 +4296,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4117,7 +4333,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4150,7 +4370,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4183,7 +4407,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4216,7 +4444,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4249,7 +4481,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4282,7 +4518,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4315,7 +4555,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4348,7 +4592,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4381,7 +4629,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4414,7 +4666,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4447,7 +4703,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4480,7 +4740,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4513,7 +4777,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4546,7 +4814,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4579,7 +4851,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4612,7 +4888,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4645,7 +4925,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4678,7 +4962,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4711,7 +4999,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4744,7 +5036,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4777,7 +5073,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4810,7 +5110,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4843,7 +5147,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4876,7 +5184,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4909,7 +5221,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4942,7 +5258,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4975,7 +5295,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5332,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5041,7 +5369,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5074,7 +5406,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5107,7 +5443,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5140,7 +5480,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5173,7 +5517,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5206,7 +5554,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5239,7 +5591,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5272,7 +5628,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5305,7 +5665,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5338,7 +5702,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5371,7 +5739,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5404,7 +5776,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5437,7 +5813,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5470,7 +5850,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5503,7 +5887,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5536,7 +5924,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5569,7 +5961,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5602,7 +5998,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5635,7 +6035,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5668,7 +6072,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5701,7 +6109,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5734,7 +6146,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5767,7 +6183,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5800,7 +6220,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5833,7 +6257,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5866,7 +6294,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5899,7 +6331,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5932,7 +6368,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5965,7 +6405,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5998,7 +6442,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6031,7 +6479,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6064,7 +6516,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6097,7 +6553,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6130,7 +6590,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6627,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6196,7 +6664,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6229,7 +6701,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6262,7 +6738,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6295,7 +6775,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6324,15 +6808,13 @@
         <v>26036498.70305535</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6881,11 +7363,9 @@
         <v>25353718.82924341</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6920,11 +7400,9 @@
         <v>25355370.09354341</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>5.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6959,11 +7437,9 @@
         <v>25355370.09354341</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>5.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6998,11 +7474,9 @@
         <v>25355370.09354341</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>5.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7037,11 +7511,9 @@
         <v>25355470.09354341</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>5.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7076,11 +7548,9 @@
         <v>25457902.05644342</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>5.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7300,11 +7770,9 @@
         <v>44342176.06274341</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7709,18 +8177,16 @@
         <v>54267358.99736587</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
@@ -7746,15 +8212,11 @@
         <v>54267358.99736587</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7783,15 +8245,11 @@
         <v>54307571.15876587</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7824,11 +8282,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7861,11 +8315,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7898,11 +8348,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7935,11 +8381,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7968,16 +8410,14 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
       <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -8003,7 +8443,7 @@
         <v>54918733.83544054</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8036,7 +8476,7 @@
         <v>54919244.88084054</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8069,7 +8509,7 @@
         <v>54919244.88084054</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8102,7 +8542,7 @@
         <v>54923087.29624054</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8135,7 +8575,7 @@
         <v>54888462.43814054</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8168,7 +8608,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8201,7 +8641,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8234,7 +8674,7 @@
         <v>54883994.11154054</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8267,7 +8707,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8300,7 +8740,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8333,7 +8773,7 @@
         <v>54471029.97654054</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8366,7 +8806,7 @@
         <v>54811029.97654054</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8399,7 +8839,7 @@
         <v>54811029.97654054</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8432,7 +8872,7 @@
         <v>54704096.04984053</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8465,7 +8905,7 @@
         <v>54704096.04984053</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8498,7 +8938,7 @@
         <v>54807803.87534053</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8531,7 +8971,7 @@
         <v>54723127.40794053</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8564,7 +9004,7 @@
         <v>54723127.40794053</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8597,7 +9037,7 @@
         <v>54383127.40794053</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8630,7 +9070,7 @@
         <v>54383127.40794053</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8663,7 +9103,7 @@
         <v>54394497.65544053</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8696,7 +9136,7 @@
         <v>54390795.16834053</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8729,7 +9169,7 @@
         <v>54390795.16834053</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8740,6 +9180,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2172611.252311515</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>649539.0891115151</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.21</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>778512.0618115151</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.17</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>1035420.503311515</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>2008258.221211515</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.28</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,15 +616,11 @@
         <v>2098258.221211515</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,15 +649,11 @@
         <v>2040689.429511515</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,17 +682,11 @@
         <v>2060831.278511515</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,17 +715,11 @@
         <v>2134981.881011515</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -833,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -870,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -907,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -944,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -981,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1055,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1092,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1129,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1166,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1203,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1240,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1277,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1314,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1347,17 +1243,11 @@
         <v>-908061.7988004197</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,17 +1276,11 @@
         <v>-810989.522653112</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,17 +1309,11 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1464,17 +1342,11 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.05</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1503,17 +1375,11 @@
         <v>-688316.841344201</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1542,17 +1408,11 @@
         <v>-688316.841344201</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1581,17 +1441,11 @@
         <v>-687163.014444201</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1620,17 +1474,11 @@
         <v>-623649.321244201</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1659,17 +1507,11 @@
         <v>-730583.247944201</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1698,17 +1540,11 @@
         <v>-803786.757244201</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1737,17 +1573,11 @@
         <v>-239978.592144201</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1780,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1817,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1850,15 +1672,11 @@
         <v>-348037.937644201</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1891,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1928,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1965,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2039,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2076,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2113,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2187,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2224,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2298,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2335,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2372,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2409,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2446,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2479,15 +2233,15 @@
         <v>-21461528.48177531</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2516,13 +2270,17 @@
         <v>-9291272.142475311</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.08</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2556,10 +2314,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.08</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2594,11 +2354,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2627,15 +2383,15 @@
         <v>-9178851.95987531</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2667,10 +2423,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2704,10 +2462,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2742,11 +2502,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2779,11 +2535,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2816,11 +2568,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2853,11 +2601,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2890,11 +2634,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +2667,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2964,11 +2700,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3001,11 +2733,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3038,11 +2766,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3075,11 +2799,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3112,11 +2832,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3149,11 +2865,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3186,11 +2898,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +2931,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3260,11 +2964,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3297,11 +2997,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3334,11 +3030,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3371,11 +3063,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3408,11 +3096,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3445,11 +3129,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3482,11 +3162,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3519,11 +3195,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3556,11 +3228,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3593,11 +3261,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3630,11 +3294,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3667,11 +3327,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3704,11 +3360,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3741,11 +3393,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3778,11 +3426,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3815,11 +3459,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3852,11 +3492,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3889,11 +3525,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3926,11 +3558,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3963,11 +3591,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +3624,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4037,11 +3657,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4074,11 +3690,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4111,11 +3723,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +3756,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +3789,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +3822,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4259,11 +3855,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4296,11 +3888,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4333,11 +3921,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +3954,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4407,11 +3987,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4020,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4053,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4518,11 +4086,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4119,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4152,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4185,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4666,11 +4218,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +4251,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4284,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4317,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4814,11 +4350,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4851,11 +4383,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4888,11 +4416,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4925,11 +4449,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4482,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4995,15 +4511,15 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5032,13 +4548,17 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -5069,13 +4589,17 @@
         <v>30404549.79233392</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -5109,7 +4633,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,10 +4669,14 @@
         <v>30307643.21203392</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="J128" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,7 +4713,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5220,7 +4752,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5257,7 +4791,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,7 +4830,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,7 +4869,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,7 +4908,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5405,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,7 +4986,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5479,7 +5025,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5516,7 +5064,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,7 +5103,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,7 +5142,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5627,7 +5181,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5664,7 +5220,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,7 +5259,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,7 +5298,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,7 +5337,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5812,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,7 +5415,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,7 +5454,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,7 +5493,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,7 +5532,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5997,7 +5571,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,7 +5610,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,7 +5649,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,7 +5727,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6182,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,7 +5805,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6256,7 +5844,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6293,7 +5883,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,7 +5961,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6404,7 +6000,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6441,7 +6039,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,7 +6078,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6515,7 +6117,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,7 +6156,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,7 +6195,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6626,7 +6234,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6663,7 +6273,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,7 +6312,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6737,7 +6351,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6774,7 +6390,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6811,7 +6429,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6848,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,7 +6507,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6922,7 +6546,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6959,7 +6585,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6996,7 +6624,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7033,7 +6663,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7070,7 +6702,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7107,7 +6741,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7144,7 +6780,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,7 +6819,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,7 +6858,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7255,7 +6897,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7292,7 +6936,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7329,7 +6975,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,7 +7014,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7403,7 +7053,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7440,7 +7092,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7477,7 +7131,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7514,7 +7170,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,7 +7209,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7588,7 +7248,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7625,7 +7287,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7662,7 +7326,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7699,7 +7365,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,7 +7404,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7773,7 +7443,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7810,7 +7482,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7847,7 +7521,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7884,7 +7560,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7921,7 +7599,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7958,7 +7638,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7995,7 +7677,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8032,7 +7716,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8069,7 +7755,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,17 +7791,19 @@
         <v>53917444.74784341</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.1</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1</v>
+        <v>1.01264705882353</v>
       </c>
       <c r="M208" t="inlineStr"/>
     </row>
@@ -8144,11 +7834,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8177,16 +7863,14 @@
         <v>54267358.99736587</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
       <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
@@ -8212,7 +7896,7 @@
         <v>54267358.99736587</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8245,7 +7929,7 @@
         <v>54307571.15876587</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8476,7 +8160,7 @@
         <v>54919244.88084054</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8509,7 +8193,7 @@
         <v>54919244.88084054</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8542,7 +8226,7 @@
         <v>54923087.29624054</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8575,7 +8259,7 @@
         <v>54888462.43814054</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8608,7 +8292,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8641,7 +8325,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8674,7 +8358,7 @@
         <v>54883994.11154054</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8707,7 +8391,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8740,7 +8424,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8773,7 +8457,7 @@
         <v>54471029.97654054</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8938,7 +8622,7 @@
         <v>54807803.87534053</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8971,7 +8655,7 @@
         <v>54723127.40794053</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9004,7 +8688,7 @@
         <v>54723127.40794053</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9037,7 +8721,7 @@
         <v>54383127.40794053</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9070,7 +8754,7 @@
         <v>54383127.40794053</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9103,7 +8787,7 @@
         <v>54394497.65544053</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9136,7 +8820,7 @@
         <v>54390795.16834053</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9169,7 +8853,7 @@
         <v>54390795.16834053</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9180,6 +8864,6 @@
       <c r="M240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest WET.xlsx
+++ b/BackTest/2019-11-13 BackTest WET.xlsx
@@ -451,7 +451,7 @@
         <v>2172611.252311515</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>649539.0891115151</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.21</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>778512.0618115151</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.17</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>1035420.503311515</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.22</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,15 @@
         <v>2008258.221211515</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +638,15 @@
         <v>2098258.221211515</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +675,15 @@
         <v>2040689.429511515</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +716,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +753,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +790,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +827,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +860,15 @@
         <v>3937221.719366414</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,14 +897,16 @@
         <v>3365495.289299581</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -880,7 +932,7 @@
         <v>3383786.297399581</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +965,7 @@
         <v>3457764.307699581</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +998,7 @@
         <v>3086658.890499581</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +1031,7 @@
         <v>2726901.488899581</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1276,11 +1328,17 @@
         <v>-810989.522653112</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1371,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1404,15 @@
         <v>-898772.4335442011</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1445,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1482,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1519,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1556,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1593,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1630,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1667,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1704,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1741,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1774,15 @@
         <v>-348037.937644201</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1815,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1852,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1889,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1926,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1963,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2000,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2037,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2074,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2111,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2148,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2185,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2222,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2259,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2296,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2333,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2370,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,15 +2403,15 @@
         <v>-21461528.48177531</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,17 +2440,13 @@
         <v>-9291272.142475311</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2314,12 +2480,10 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.08</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2354,7 +2518,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2383,15 +2551,15 @@
         <v>-9178851.95987531</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2423,12 +2591,10 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2462,12 +2628,10 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2502,7 +2666,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2535,7 +2703,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2568,7 +2740,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2601,7 +2777,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2634,7 +2814,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2667,7 +2851,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2700,7 +2888,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2733,7 +2925,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2766,7 +2962,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2799,7 +2999,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2832,7 +3036,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2865,7 +3073,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2898,7 +3110,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2931,7 +3147,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2964,7 +3184,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2997,7 +3221,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3030,7 +3258,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3063,7 +3295,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3096,7 +3332,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3125,14 +3365,16 @@
         <v>-3586703.465911744</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3158,7 +3400,7 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3191,7 +3433,7 @@
         <v>-1172292.340111744</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3224,7 +3466,7 @@
         <v>-1387323.084811744</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3257,7 +3499,7 @@
         <v>-1879359.141774816</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3290,7 +3532,7 @@
         <v>-1816000.7559671</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3323,7 +3565,7 @@
         <v>-1888898.200110186</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3389,7 +3631,7 @@
         <v>-3326981.183110186</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3422,7 +3664,7 @@
         <v>-5414900.564610186</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4049,7 +4291,7 @@
         <v>-4996180.928210185</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4511,14 +4753,10 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4548,19 +4786,11 @@
         <v>13485806.25553392</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4589,19 +4819,11 @@
         <v>30404549.79233392</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +4855,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4669,19 +4885,11 @@
         <v>30307643.21203392</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4713,14 +4921,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4752,14 +4954,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4791,14 +4987,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4830,14 +5020,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4869,14 +5053,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4908,14 +5086,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4947,14 +5119,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4986,14 +5152,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5025,14 +5185,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5064,14 +5218,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5103,14 +5251,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5142,14 +5284,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5181,14 +5317,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5220,14 +5350,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5259,14 +5383,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5298,14 +5416,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5337,14 +5449,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5376,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5415,14 +5515,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5454,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5493,14 +5581,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5532,14 +5614,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5571,14 +5647,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5610,14 +5680,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5649,14 +5713,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5688,14 +5746,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5727,14 +5779,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5766,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5805,14 +5845,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5844,14 +5878,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5883,14 +5911,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5922,14 +5944,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5961,14 +5977,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6000,14 +6010,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6039,14 +6043,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6078,14 +6076,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6117,14 +6109,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6156,14 +6142,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6195,14 +6175,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6234,14 +6208,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6273,14 +6241,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6312,14 +6274,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6351,14 +6307,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6390,14 +6340,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6429,14 +6373,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6468,14 +6406,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6507,14 +6439,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6546,14 +6472,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6585,14 +6505,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6624,14 +6538,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6663,14 +6571,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6702,14 +6604,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6741,14 +6637,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6780,14 +6670,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6819,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6858,14 +6736,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6897,14 +6769,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6936,14 +6802,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6975,14 +6835,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7014,14 +6868,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7053,14 +6901,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7092,14 +6934,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7131,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7170,14 +7000,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7209,14 +7033,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7248,14 +7066,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7287,14 +7099,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7326,14 +7132,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7365,14 +7165,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7404,14 +7198,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7443,14 +7231,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7482,14 +7264,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7521,14 +7297,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7560,14 +7330,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7599,14 +7363,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7638,14 +7396,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7677,14 +7429,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7716,14 +7462,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7755,14 +7495,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7791,19 +7525,13 @@
         <v>53917444.74784341</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>1.01264705882353</v>
+        <v>1</v>
       </c>
       <c r="M208" t="inlineStr"/>
     </row>
@@ -7995,7 +7723,7 @@
         <v>55288049.30055294</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8028,7 +7756,7 @@
         <v>55288049.30055294</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8061,7 +7789,7 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8094,7 +7822,7 @@
         <v>55289831.09124054</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8127,7 +7855,7 @@
         <v>54918733.83544054</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8259,7 +7987,7 @@
         <v>54888462.43814054</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8325,7 +8053,7 @@
         <v>54884194.11154054</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8358,7 +8086,7 @@
         <v>54883994.11154054</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8391,7 +8119,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8424,7 +8152,7 @@
         <v>54513993.16154054</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8457,7 +8185,7 @@
         <v>54471029.97654054</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8490,7 +8218,7 @@
         <v>54811029.97654054</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8523,7 +8251,7 @@
         <v>54811029.97654054</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8556,7 +8284,7 @@
         <v>54704096.04984053</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8589,7 +8317,7 @@
         <v>54704096.04984053</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
